--- a/doc/Gestion des coûts/Gestion des coûts Projet S3.xlsx
+++ b/doc/Gestion des coûts/Gestion des coûts Projet S3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Prix de revient initial S3" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
   <si>
     <t xml:space="preserve">Département info</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">Version 1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P7 – Client SNMP Android</t>
   </si>
   <si>
     <t xml:space="preserve">Coût actuel du projet</t>
@@ -710,7 +713,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -818,11 +821,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="59155000"/>
-        <c:axId val="34980292"/>
+        <c:axId val="29956695"/>
+        <c:axId val="84414880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59155000"/>
+        <c:axId val="29956695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -859,14 +862,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34980292"/>
+        <c:crossAx val="84414880"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34980292"/>
+        <c:axId val="84414880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,7 +913,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59155000"/>
+        <c:crossAx val="29956695"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -958,9 +961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>833040</xdr:colOff>
+      <xdr:colOff>832320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -973,8 +976,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17679240" y="0"/>
-          <a:ext cx="1098720" cy="648720"/>
+          <a:off x="17907840" y="0"/>
+          <a:ext cx="1117080" cy="648000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,9 +1003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1122120</xdr:colOff>
+      <xdr:colOff>1121400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1015,8 +1018,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19101960" y="360"/>
-          <a:ext cx="1089000" cy="648720"/>
+          <a:off x="19368720" y="360"/>
+          <a:ext cx="1088280" cy="648000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1042,9 +1045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>369000</xdr:colOff>
+      <xdr:colOff>368280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1057,8 +1060,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13082040" y="19440"/>
-          <a:ext cx="1089000" cy="648720"/>
+          <a:off x="13140000" y="19440"/>
+          <a:ext cx="1086840" cy="648000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1079,9 +1082,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>6120</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1090,7 +1093,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="992160" y="1664280"/>
-        <a:ext cx="14618880" cy="3233520"/>
+        <a:ext cx="14672880" cy="3232800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1121,17 +1124,17 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1652760" y="2214000"/>
-          <a:ext cx="12061800" cy="0"/>
+          <a:ext cx="12119040" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="36000">
+        <a:ln cap="rnd" w="36000">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
           </a:solidFill>
           <a:custDash>
-            <a:ds d="100000" sp="0"/>
+            <a:ds d="100000" sp="100000"/>
           </a:custDash>
           <a:round/>
         </a:ln>
@@ -1159,9 +1162,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>740520</xdr:colOff>
+      <xdr:colOff>739800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1174,8 +1177,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13322520" y="19800"/>
-          <a:ext cx="1086120" cy="648720"/>
+          <a:off x="13389120" y="19800"/>
+          <a:ext cx="1085400" cy="648000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1204,16 +1207,16 @@
   <dimension ref="1:33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="H33" activeCellId="1" sqref="H20 H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="1023" min="14" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="10.6032388663968"/>
   </cols>
@@ -29587,7 +29590,9 @@
       <c r="G33" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="24"/>
+      <c r="H33" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
@@ -29641,16 +29646,16 @@
   <dimension ref="1:33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="H33" activeCellId="1" sqref="H20 H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -29665,30 +29670,27 @@
       </c>
       <c r="AMJ1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="G2" s="0"/>
       <c r="AMJ2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="G3" s="0"/>
       <c r="AMJ3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="G4" s="0"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
       <c r="AMJ4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -30786,7 +30788,9 @@
       <c r="G33" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="24"/>
+      <c r="H33" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
@@ -30840,18 +30844,18 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H37" activeCellId="1" sqref="H20 H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7732793522267"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="11.7206477732794"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8056680161943"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="17" min="9" style="0" width="6.75708502024292"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="17" min="9" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -30898,54 +30902,54 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="48"/>
       <c r="C6" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="50" t="n">
         <v>15279.68</v>
@@ -30996,13 +31000,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O28" s="51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31029,7 +31033,9 @@
       <c r="G35" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="24" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -31050,18 +31056,18 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="48" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="48" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="48" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="48" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="48" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="48" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="48" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -31074,27 +31080,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
       <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
     </row>
-    <row r="3" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
       <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
     </row>
-    <row r="4" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
       <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -31116,14 +31134,14 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" s="54" t="n">
         <v>3000</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
@@ -31132,6 +31150,7 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
@@ -31139,7 +31158,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" s="54" t="n">
@@ -31147,7 +31166,7 @@
         <v>4500</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="55" t="n">
         <v>0.5</v>
@@ -31158,6 +31177,7 @@
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -31165,7 +31185,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" s="54" t="n">
@@ -31182,6 +31202,7 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
       <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -31189,14 +31210,14 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="48" t="n">
         <v>120</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -31205,6 +31226,7 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
       <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
@@ -31212,7 +31234,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="0"/>
       <c r="D15" s="57" t="n">
@@ -31220,7 +31242,7 @@
         <v>49.99875</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
@@ -31228,6 +31250,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
@@ -31277,7 +31300,9 @@
       <c r="G20" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="24"/>
+      <c r="H20" s="24" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/Gestion des coûts/Gestion des coûts Projet S3.xlsx
+++ b/doc/Gestion des coûts/Gestion des coûts Projet S3.xlsx
@@ -26,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
-    <t xml:space="preserve">Département info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projets tutorés 2016-17</t>
+    <t xml:space="preserve">P7 – Client SNMP Android</t>
   </si>
   <si>
     <t xml:space="preserve">Coût estimé du projet</t>
@@ -88,13 +85,16 @@
     <t xml:space="preserve">IUT Valence</t>
   </si>
   <si>
+    <t xml:space="preserve">Projets tutorés 2016-17</t>
+  </si>
+  <si>
     <t xml:space="preserve">mis à jour le: </t>
   </si>
   <si>
     <t xml:space="preserve">Version 1.6</t>
   </si>
   <si>
-    <t xml:space="preserve">P7 – Client SNMP Android</t>
+    <t xml:space="preserve">Département informatique</t>
   </si>
   <si>
     <t xml:space="preserve">Coût actuel du projet</t>
@@ -413,16 +413,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -505,10 +509,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -523,6 +523,10 @@
     </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -611,10 +615,6 @@
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -727,7 +727,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Evolution du coût de revient'!$B$7</c:f>
+              <c:f>'Evolution du coût de revient'!$C$7:$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -767,7 +767,7 @@
           </c:dLbls>
           <c:yVal>
             <c:numRef>
-              <c:f>'Evolution du coût de revient'!$C$7:$Q$7</c:f>
+              <c:f>'Evolution du coût de revient'!$D$7:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -821,11 +821,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="29956695"/>
-        <c:axId val="84414880"/>
+        <c:axId val="18242793"/>
+        <c:axId val="1277854"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="29956695"/>
+        <c:axId val="18242793"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -862,14 +862,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84414880"/>
+        <c:crossAx val="1277854"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84414880"/>
+        <c:axId val="1277854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +913,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29956695"/>
+        <c:crossAx val="18242793"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -954,16 +954,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1163160</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>810720</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>832320</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>478800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -976,8 +976,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17907840" y="0"/>
-          <a:ext cx="1117080" cy="648000"/>
+          <a:off x="18212760" y="0"/>
+          <a:ext cx="1125360" cy="646920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>868680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1176120</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1220760" y="0"/>
+          <a:ext cx="1526760" cy="605520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -997,19 +1034,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>33120</xdr:colOff>
+      <xdr:colOff>2290320</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1121400</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 1" descr=""/>
+        <xdr:cNvPr id="2" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1018,8 +1055,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19368720" y="360"/>
-          <a:ext cx="1088280" cy="648000"/>
+          <a:off x="19692360" y="360"/>
+          <a:ext cx="1125360" cy="646920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>868320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1175760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1220400" y="0"/>
+          <a:ext cx="1526760" cy="605520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1038,20 +1112,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>481320</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>128880</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>368280</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>272160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr=""/>
+        <xdr:cNvPr id="4" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1060,8 +1134,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13140000" y="19440"/>
-          <a:ext cx="1086840" cy="648000"/>
+          <a:off x="13273200" y="19440"/>
+          <a:ext cx="1086120" cy="646920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1075,25 +1149,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>49320</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>6120</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5040</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="5" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="992160" y="1664280"/>
-        <a:ext cx="14672880" cy="3232800"/>
+        <a:off x="1344600" y="1634040"/>
+        <a:ext cx="14547960" cy="2988000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1105,26 +1179,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>709920</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>357480</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>513000</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160560</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 1"/>
+        <xdr:cNvPr id="6" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1652760" y="2214000"/>
-          <a:ext cx="12119040" cy="0"/>
+          <a:ext cx="12252240" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1148,6 +1222,43 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>593280</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1176840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="945360" y="0"/>
+          <a:ext cx="1526760" cy="605520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1155,20 +1266,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>464040</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>111600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>739800</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 1" descr=""/>
+        <xdr:cNvPr id="8" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1177,8 +1288,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13389120" y="19800"/>
-          <a:ext cx="1085400" cy="648000"/>
+          <a:off x="13475160" y="19800"/>
+          <a:ext cx="1084320" cy="646920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>240840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1618920" y="0"/>
+          <a:ext cx="1526760" cy="605520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1206,34 +1354,32 @@
   </sheetPr>
   <dimension ref="1:33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H33" activeCellId="1" sqref="H20 H33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="1023" min="14" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="10" min="3" style="2" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="2" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="3.8582995951417"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="2" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="0"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="0"/>
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
@@ -2253,10 +2399,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="0"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="0"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -3279,10 +3425,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
-      <c r="B3" s="3"/>
+      <c r="B3" s="0"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="0"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
@@ -4304,22 +4450,22 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="0"/>
+      <c r="A5" s="0"/>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="0"/>
       <c r="P5" s="0"/>
       <c r="Q5" s="0"/>
@@ -5332,20 +5478,20 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="0"/>
+      <c r="A6" s="0"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="0"/>
       <c r="P6" s="0"/>
       <c r="Q6" s="0"/>
@@ -6358,38 +6504,38 @@
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="0"/>
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="M7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="N7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="0"/>
       <c r="O7" s="0"/>
       <c r="P7" s="0"/>
       <c r="Q7" s="0"/>
@@ -7402,36 +7548,36 @@
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="0"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="0"/>
+      <c r="N8" s="8"/>
       <c r="O8" s="0"/>
       <c r="P8" s="0"/>
       <c r="Q8" s="0"/>
@@ -8444,48 +8590,48 @@
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+      <c r="A9" s="0"/>
+      <c r="B9" s="11" t="n">
         <v>42639</v>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="C9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="D9" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="E9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="F9" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="G9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="H9" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="I9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="12" t="n">
+      <c r="J9" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="13" t="n">
+      <c r="K9" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="K9" s="14" t="n">
+      <c r="L9" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="15" t="n">
-        <f aca="false">(B9+D9+F9+H9)*$J$27+(C9+E9+G9+I9)*$J$27+J9*$G$27+K9*$D$27</f>
+      <c r="M9" s="16" t="n">
+        <f aca="false">(C9+E9+G9+I9)*$K$27+(D9+F9+H9+J9)*$K$27+K9*$H$27+L9*$E$27</f>
         <v>439.99</v>
       </c>
-      <c r="M9" s="16" t="n">
-        <f aca="false">L9</f>
+      <c r="N9" s="17" t="n">
+        <f aca="false">M9</f>
         <v>439.99</v>
       </c>
-      <c r="N9" s="0"/>
       <c r="O9" s="0"/>
       <c r="P9" s="0"/>
       <c r="Q9" s="0"/>
@@ -9498,48 +9644,48 @@
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+      <c r="A10" s="0"/>
+      <c r="B10" s="11" t="n">
         <v>42646</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="C10" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="D10" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="E10" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="F10" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="G10" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="H10" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="I10" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="J10" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="13" t="n">
+      <c r="K10" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="K10" s="14" t="n">
+      <c r="L10" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="15" t="n">
-        <f aca="false">(B10+D10+F10+H10)*$J$27+(C10+E10+G10+I10)*$J$27+J10*$G$27+K10*$D$27</f>
+      <c r="M10" s="16" t="n">
+        <f aca="false">(C10+E10+G10+I10)*$K$27+(D10+F10+H10+J10)*$K$27+K10*$H$27+L10*$E$27</f>
         <v>439.99</v>
       </c>
-      <c r="M10" s="16" t="n">
-        <f aca="false">M9+L10</f>
+      <c r="N10" s="17" t="n">
+        <f aca="false">N9+M10</f>
         <v>879.98</v>
       </c>
-      <c r="N10" s="0"/>
       <c r="O10" s="0"/>
       <c r="P10" s="0"/>
       <c r="Q10" s="0"/>
@@ -10552,48 +10698,48 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
+      <c r="A11" s="0"/>
+      <c r="B11" s="11" t="n">
         <v>42653</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="C11" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="D11" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="E11" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="F11" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="G11" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="12" t="n">
+      <c r="H11" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="I11" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="12" t="n">
+      <c r="J11" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="13" t="n">
+      <c r="K11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="K11" s="14" t="n">
+      <c r="L11" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="15" t="n">
-        <f aca="false">(B11+D11+F11+H11)*$J$27+(C11+E11+G11+I11)*$J$27+J11*$G$27+K11*$D$27</f>
+      <c r="M11" s="16" t="n">
+        <f aca="false">(C11+E11+G11+I11)*$K$27+(D11+F11+H11+J11)*$K$27+K11*$H$27+L11*$E$27</f>
         <v>439.99</v>
       </c>
-      <c r="M11" s="16" t="n">
-        <f aca="false">M10+L11</f>
+      <c r="N11" s="17" t="n">
+        <f aca="false">N10+M11</f>
         <v>1319.97</v>
       </c>
-      <c r="N11" s="0"/>
       <c r="O11" s="0"/>
       <c r="P11" s="0"/>
       <c r="Q11" s="0"/>
@@ -11606,48 +11752,48 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+      <c r="A12" s="0"/>
+      <c r="B12" s="11" t="n">
         <v>42660</v>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="C12" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="D12" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="E12" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="F12" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="G12" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="12" t="n">
+      <c r="H12" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H12" s="11" t="n">
+      <c r="I12" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="12" t="n">
+      <c r="J12" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="J12" s="13" t="n">
+      <c r="K12" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="K12" s="14" t="n">
+      <c r="L12" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="15" t="n">
-        <f aca="false">(B12+D12+F12+H12)*$J$27+(C12+E12+G12+I12)*$J$27+J12*$G$27+K12*$D$27</f>
+      <c r="M12" s="16" t="n">
+        <f aca="false">(C12+E12+G12+I12)*$K$27+(D12+F12+H12+J12)*$K$27+K12*$H$27+L12*$E$27</f>
         <v>939.98</v>
       </c>
-      <c r="M12" s="16" t="n">
-        <f aca="false">M11+L12</f>
+      <c r="N12" s="17" t="n">
+        <f aca="false">N11+M12</f>
         <v>2259.95</v>
       </c>
-      <c r="N12" s="0"/>
       <c r="O12" s="0"/>
       <c r="P12" s="0"/>
       <c r="Q12" s="0"/>
@@ -12660,48 +12806,48 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+      <c r="A13" s="0"/>
+      <c r="B13" s="11" t="n">
         <v>42667</v>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="C13" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="D13" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="E13" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="F13" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="G13" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="H13" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="I13" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="J13" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="J13" s="13" t="n">
+      <c r="K13" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="K13" s="14" t="n">
+      <c r="L13" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="15" t="n">
-        <f aca="false">(B13+D13+F13+H13)*$J$27+(C13+E13+G13+I13)*$J$27+J13*$G$27+K13*$D$27</f>
+      <c r="M13" s="16" t="n">
+        <f aca="false">(C13+E13+G13+I13)*$K$27+(D13+F13+H13+J13)*$K$27+K13*$H$27+L13*$E$27</f>
         <v>1059.98</v>
       </c>
-      <c r="M13" s="16" t="n">
-        <f aca="false">M12+L13</f>
+      <c r="N13" s="17" t="n">
+        <f aca="false">N12+M13</f>
         <v>3319.93</v>
       </c>
-      <c r="N13" s="0"/>
       <c r="O13" s="0"/>
       <c r="P13" s="0"/>
       <c r="Q13" s="0"/>
@@ -13714,48 +13860,48 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
+      <c r="A14" s="0"/>
+      <c r="B14" s="11" t="n">
         <v>42674</v>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="C14" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="12" t="n">
+      <c r="D14" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="E14" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="12" t="n">
+      <c r="F14" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="G14" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="12" t="n">
+      <c r="H14" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H14" s="11" t="n">
+      <c r="I14" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="12" t="n">
+      <c r="J14" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="J14" s="13" t="n">
+      <c r="K14" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="K14" s="14" t="n">
+      <c r="L14" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L14" s="15" t="n">
-        <f aca="false">(B14+D14+F14+H14)*$J$27+(C14+E14+G14+I14)*$J$27+J14*$G$27+K14*$D$27</f>
+      <c r="M14" s="16" t="n">
+        <f aca="false">(C14+E14+G14+I14)*$K$27+(D14+F14+H14+J14)*$K$27+K14*$H$27+L14*$E$27</f>
         <v>959.98</v>
       </c>
-      <c r="M14" s="16" t="n">
-        <f aca="false">M13+L14</f>
+      <c r="N14" s="17" t="n">
+        <f aca="false">N13+M14</f>
         <v>4279.91</v>
       </c>
-      <c r="N14" s="0"/>
       <c r="O14" s="0"/>
       <c r="P14" s="0"/>
       <c r="Q14" s="0"/>
@@ -14768,48 +14914,48 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
+      <c r="A15" s="0"/>
+      <c r="B15" s="11" t="n">
         <v>42681</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="C15" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="12" t="n">
+      <c r="D15" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="E15" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="12" t="n">
+      <c r="F15" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="G15" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="12" t="n">
+      <c r="H15" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="I15" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="12" t="n">
+      <c r="J15" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="13" t="n">
+      <c r="K15" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="K15" s="14" t="n">
+      <c r="L15" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L15" s="15" t="n">
-        <f aca="false">(B15+D15+F15+H15)*$J$27+(C15+E15+G15+I15)*$J$27+J15*$G$27+K15*$D$27</f>
+      <c r="M15" s="16" t="n">
+        <f aca="false">(C15+E15+G15+I15)*$K$27+(D15+F15+H15+J15)*$K$27+K15*$H$27+L15*$E$27</f>
         <v>939.98</v>
       </c>
-      <c r="M15" s="16" t="n">
-        <f aca="false">M14+L15</f>
+      <c r="N15" s="17" t="n">
+        <f aca="false">N14+M15</f>
         <v>5219.89</v>
       </c>
-      <c r="N15" s="0"/>
       <c r="O15" s="0"/>
       <c r="P15" s="0"/>
       <c r="Q15" s="0"/>
@@ -15822,48 +15968,48 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
+      <c r="A16" s="0"/>
+      <c r="B16" s="11" t="n">
         <v>42688</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="C16" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C16" s="12" t="n">
+      <c r="D16" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="E16" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="F16" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="G16" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="12" t="n">
+      <c r="H16" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="I16" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="12" t="n">
+      <c r="J16" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="13" t="n">
+      <c r="K16" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="K16" s="14" t="n">
+      <c r="L16" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L16" s="15" t="n">
-        <f aca="false">(B16+D16+F16+H16)*$J$27+(C16+E16+G16+I16)*$J$27+J16*$G$27+K16*$D$27</f>
+      <c r="M16" s="16" t="n">
+        <f aca="false">(C16+E16+G16+I16)*$K$27+(D16+F16+H16+J16)*$K$27+K16*$H$27+L16*$E$27</f>
         <v>939.98</v>
       </c>
-      <c r="M16" s="16" t="n">
-        <f aca="false">M15+L16</f>
+      <c r="N16" s="17" t="n">
+        <f aca="false">N15+M16</f>
         <v>6159.87</v>
       </c>
-      <c r="N16" s="0"/>
       <c r="O16" s="0"/>
       <c r="P16" s="0"/>
       <c r="Q16" s="0"/>
@@ -16876,48 +17022,48 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
+      <c r="A17" s="0"/>
+      <c r="B17" s="11" t="n">
         <v>42695</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="C17" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="12" t="n">
+      <c r="D17" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="E17" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="F17" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="G17" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="12" t="n">
+      <c r="H17" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H17" s="11" t="n">
+      <c r="I17" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="12" t="n">
+      <c r="J17" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="J17" s="13" t="n">
+      <c r="K17" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="K17" s="14" t="n">
+      <c r="L17" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="15" t="n">
-        <f aca="false">(B17+D17+F17+H17)*$J$27+(C17+E17+G17+I17)*$J$27+J17*$G$27+K17*$D$27</f>
+      <c r="M17" s="16" t="n">
+        <f aca="false">(C17+E17+G17+I17)*$K$27+(D17+F17+H17+J17)*$K$27+K17*$H$27+L17*$E$27</f>
         <v>1059.98</v>
       </c>
-      <c r="M17" s="16" t="n">
-        <f aca="false">M16+L17</f>
+      <c r="N17" s="17" t="n">
+        <f aca="false">N16+M17</f>
         <v>7219.85</v>
       </c>
-      <c r="N17" s="0"/>
       <c r="O17" s="0"/>
       <c r="P17" s="0"/>
       <c r="Q17" s="0"/>
@@ -17930,48 +18076,48 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="n">
+      <c r="A18" s="0"/>
+      <c r="B18" s="11" t="n">
         <v>42702</v>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="C18" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="12" t="n">
+      <c r="D18" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="D18" s="11" t="n">
+      <c r="E18" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="F18" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="G18" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="H18" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H18" s="11" t="n">
+      <c r="I18" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="12" t="n">
+      <c r="J18" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="J18" s="13" t="n">
+      <c r="K18" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="K18" s="14" t="n">
+      <c r="L18" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L18" s="15" t="n">
-        <f aca="false">(B18+D18+F18+H18)*$J$27+(C18+E18+G18+I18)*$J$27+J18*$G$27+K18*$D$27</f>
+      <c r="M18" s="16" t="n">
+        <f aca="false">(C18+E18+G18+I18)*$K$27+(D18+F18+H18+J18)*$K$27+K18*$H$27+L18*$E$27</f>
         <v>959.98</v>
       </c>
-      <c r="M18" s="16" t="n">
-        <f aca="false">M17+L18</f>
+      <c r="N18" s="17" t="n">
+        <f aca="false">N17+M18</f>
         <v>8179.83</v>
       </c>
-      <c r="N18" s="0"/>
       <c r="O18" s="0"/>
       <c r="P18" s="0"/>
       <c r="Q18" s="0"/>
@@ -18984,48 +19130,48 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
+      <c r="A19" s="0"/>
+      <c r="B19" s="11" t="n">
         <v>42709</v>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="C19" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="12" t="n">
+      <c r="D19" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="E19" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="F19" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="G19" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="H19" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H19" s="11" t="n">
+      <c r="I19" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="12" t="n">
+      <c r="J19" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="J19" s="13" t="n">
+      <c r="K19" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="K19" s="14" t="n">
+      <c r="L19" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L19" s="15" t="n">
-        <f aca="false">(B19+D19+F19+H19)*$J$27+(C19+E19+G19+I19)*$J$27+J19*$G$27+K19*$D$27</f>
+      <c r="M19" s="16" t="n">
+        <f aca="false">(C19+E19+G19+I19)*$K$27+(D19+F19+H19+J19)*$K$27+K19*$H$27+L19*$E$27</f>
         <v>939.98</v>
       </c>
-      <c r="M19" s="16" t="n">
-        <f aca="false">M18+L19</f>
+      <c r="N19" s="17" t="n">
+        <f aca="false">N18+M19</f>
         <v>9119.81</v>
       </c>
-      <c r="N19" s="0"/>
       <c r="O19" s="0"/>
       <c r="P19" s="0"/>
       <c r="Q19" s="0"/>
@@ -20038,48 +20184,48 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
+      <c r="A20" s="0"/>
+      <c r="B20" s="11" t="n">
         <v>42716</v>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="C20" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="12" t="n">
+      <c r="D20" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="E20" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="F20" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F20" s="11" t="n">
+      <c r="G20" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="12" t="n">
+      <c r="H20" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H20" s="11" t="n">
+      <c r="I20" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="12" t="n">
+      <c r="J20" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="J20" s="13" t="n">
+      <c r="K20" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="K20" s="14" t="n">
+      <c r="L20" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="L20" s="15" t="n">
-        <f aca="false">(B20+D20+F20+H20)*$J$27+(C20+E20+G20+I20)*$J$27+J20*$G$27+K20*$D$27</f>
+      <c r="M20" s="16" t="n">
+        <f aca="false">(C20+E20+G20+I20)*$K$27+(D20+F20+H20+J20)*$K$27+K20*$H$27+L20*$E$27</f>
         <v>1059.98</v>
       </c>
-      <c r="M20" s="16" t="n">
-        <f aca="false">M19+L20</f>
+      <c r="N20" s="17" t="n">
+        <f aca="false">N19+M20</f>
         <v>10179.79</v>
       </c>
-      <c r="N20" s="0"/>
       <c r="O20" s="0"/>
       <c r="P20" s="0"/>
       <c r="Q20" s="0"/>
@@ -21092,48 +21238,48 @@
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="n">
+      <c r="A21" s="0"/>
+      <c r="B21" s="11" t="n">
         <v>42723</v>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="C21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C21" s="12" t="n">
+      <c r="D21" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="E21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="12" t="n">
+      <c r="F21" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F21" s="11" t="n">
+      <c r="G21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="12" t="n">
+      <c r="H21" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H21" s="11" t="n">
+      <c r="I21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="12" t="n">
+      <c r="J21" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="J21" s="13" t="n">
+      <c r="K21" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="K21" s="14" t="n">
+      <c r="L21" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L21" s="15" t="n">
-        <f aca="false">(B21+D21+F21+H21)*$J$27+(C21+E21+G21+I21)*$J$27+J21*$G$27+K21*$D$27</f>
+      <c r="M21" s="16" t="n">
+        <f aca="false">(C21+E21+G21+I21)*$K$27+(D21+F21+H21+J21)*$K$27+K21*$H$27+L21*$E$27</f>
         <v>959.98</v>
       </c>
-      <c r="M21" s="16" t="n">
-        <f aca="false">M20+L21</f>
+      <c r="N21" s="17" t="n">
+        <f aca="false">N20+M21</f>
         <v>11139.77</v>
       </c>
-      <c r="N21" s="0"/>
       <c r="O21" s="0"/>
       <c r="P21" s="0"/>
       <c r="Q21" s="0"/>
@@ -22146,48 +22292,48 @@
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="n">
+      <c r="A22" s="0"/>
+      <c r="B22" s="11" t="n">
         <v>42730</v>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="C22" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C22" s="12" t="n">
+      <c r="D22" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="E22" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="12" t="n">
+      <c r="F22" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="F22" s="11" t="n">
+      <c r="G22" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="12" t="n">
+      <c r="H22" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="H22" s="11" t="n">
+      <c r="I22" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="12" t="n">
+      <c r="J22" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="J22" s="13" t="n">
+      <c r="K22" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="K22" s="14" t="n">
+      <c r="L22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L22" s="15" t="n">
-        <f aca="false">(B22+D22+F22+H22)*$J$27+(C22+E22+G22+I22)*$J$27+J22*$G$27+K22*$D$27</f>
+      <c r="M22" s="16" t="n">
+        <f aca="false">(C22+E22+G22+I22)*$K$27+(D22+F22+H22+J22)*$K$27+K22*$H$27+L22*$E$27</f>
         <v>1339.97</v>
       </c>
-      <c r="M22" s="16" t="n">
-        <f aca="false">M21+L22</f>
+      <c r="N22" s="17" t="n">
+        <f aca="false">N21+M22</f>
         <v>12479.74</v>
       </c>
-      <c r="N22" s="0"/>
       <c r="O22" s="0"/>
       <c r="P22" s="0"/>
       <c r="Q22" s="0"/>
@@ -23200,48 +23346,48 @@
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="n">
+      <c r="A23" s="0"/>
+      <c r="B23" s="11" t="n">
         <v>42737</v>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="C23" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C23" s="12" t="n">
+      <c r="D23" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="E23" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E23" s="12" t="n">
+      <c r="F23" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="F23" s="11" t="n">
+      <c r="G23" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="12" t="n">
+      <c r="H23" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="H23" s="11" t="n">
+      <c r="I23" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="12" t="n">
+      <c r="J23" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="J23" s="13" t="n">
+      <c r="K23" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="K23" s="14" t="n">
+      <c r="L23" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="L23" s="15" t="n">
-        <f aca="false">(B23+D23+F23+H23)*$J$27+(C23+E23+G23+I23)*$J$27+J23*$G$27+K23*$D$27</f>
+      <c r="M23" s="16" t="n">
+        <f aca="false">(C23+E23+G23+I23)*$K$27+(D23+F23+H23+J23)*$K$27+K23*$H$27+L23*$E$27</f>
         <v>1459.97</v>
       </c>
-      <c r="M23" s="16" t="n">
-        <f aca="false">M22+L23</f>
+      <c r="N23" s="17" t="n">
+        <f aca="false">N22+M23</f>
         <v>13939.71</v>
       </c>
-      <c r="N23" s="0"/>
       <c r="O23" s="0"/>
       <c r="P23" s="0"/>
       <c r="Q23" s="0"/>
@@ -24254,48 +24400,48 @@
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="n">
+      <c r="A24" s="0"/>
+      <c r="B24" s="11" t="n">
         <v>42744</v>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="C24" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="12" t="n">
+      <c r="D24" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="E24" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E24" s="12" t="n">
+      <c r="F24" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="F24" s="11" t="n">
+      <c r="G24" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="G24" s="12" t="n">
+      <c r="H24" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="H24" s="11" t="n">
+      <c r="I24" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="12" t="n">
+      <c r="J24" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="J24" s="13" t="n">
+      <c r="K24" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="K24" s="14" t="n">
+      <c r="L24" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L24" s="15" t="n">
-        <f aca="false">(B24+D24+F24+H24)*$J$27+(C24+E24+G24+I24)*$J$27+J24*$G$27+K24*$D$27</f>
+      <c r="M24" s="16" t="n">
+        <f aca="false">(C24+E24+G24+I24)*$K$27+(D24+F24+H24+J24)*$K$27+K24*$H$27+L24*$E$27</f>
         <v>1339.97</v>
       </c>
-      <c r="M24" s="16" t="n">
-        <f aca="false">M23+L24</f>
+      <c r="N24" s="17" t="n">
+        <f aca="false">N23+M24</f>
         <v>15279.68</v>
       </c>
-      <c r="N24" s="0"/>
       <c r="O24" s="0"/>
       <c r="P24" s="0"/>
       <c r="Q24" s="0"/>
@@ -25308,55 +25454,55 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="18" t="n">
-        <f aca="false">SUM(B9:B24)</f>
+      <c r="A25" s="0"/>
+      <c r="B25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="19" t="n">
+        <f aca="false">SUM(C9:C24)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="18" t="n">
-        <f aca="false">SUM(C9:C24)</f>
+      <c r="D25" s="19" t="n">
+        <f aca="false">SUM(D9:D24)</f>
         <v>64</v>
       </c>
-      <c r="D25" s="18" t="n">
-        <f aca="false">SUM(D9:D24)</f>
+      <c r="E25" s="19" t="n">
+        <f aca="false">SUM(E9:E24)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="18" t="n">
-        <f aca="false">SUM(E9:E24)</f>
+      <c r="F25" s="19" t="n">
+        <f aca="false">SUM(F9:F24)</f>
         <v>64</v>
       </c>
-      <c r="F25" s="18" t="n">
-        <f aca="false">SUM(F9:F24)</f>
+      <c r="G25" s="19" t="n">
+        <f aca="false">SUM(G9:G24)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="18" t="n">
-        <f aca="false">SUM(G9:G24)</f>
+      <c r="H25" s="19" t="n">
+        <f aca="false">SUM(H9:H24)</f>
         <v>64</v>
       </c>
-      <c r="H25" s="18" t="n">
-        <f aca="false">SUM(H9:H24)</f>
+      <c r="I25" s="19" t="n">
+        <f aca="false">SUM(I9:I24)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="18" t="n">
-        <f aca="false">SUM(I9:I24)</f>
+      <c r="J25" s="19" t="n">
+        <f aca="false">SUM(J9:J24)</f>
         <v>64</v>
       </c>
-      <c r="J25" s="18" t="n">
-        <f aca="false">SUM(J9:J24)</f>
+      <c r="K25" s="19" t="n">
+        <f aca="false">SUM(K9:K24)</f>
         <v>208</v>
       </c>
-      <c r="K25" s="18" t="n">
-        <f aca="false">SUM(K9:K24)</f>
+      <c r="L25" s="19" t="n">
+        <f aca="false">SUM(L9:L24)</f>
         <v>4</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="20" t="n">
-        <f aca="false">M24</f>
+      <c r="M25" s="20"/>
+      <c r="N25" s="21" t="n">
+        <f aca="false">N24</f>
         <v>15279.68</v>
       </c>
-      <c r="N25" s="0"/>
       <c r="O25" s="0"/>
       <c r="P25" s="0"/>
       <c r="Q25" s="0"/>
@@ -27396,29 +27542,29 @@
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="0"/>
+      <c r="C27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="F27" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" s="21" t="s">
+      <c r="G27" s="22"/>
+      <c r="H27" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="23" t="n">
-        <f aca="false">'Taux horaire d''un technicien'!D15</f>
+      <c r="J27" s="22"/>
+      <c r="K27" s="24" t="n">
+        <f aca="false">'Taux horaire d''un technicien'!E15</f>
         <v>49.99875</v>
       </c>
-      <c r="K27" s="0"/>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -28434,19 +28580,19 @@
       <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="0"/>
+      <c r="A28" s="0"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
       <c r="N28" s="0"/>
       <c r="O28" s="0"/>
       <c r="P28" s="0"/>
@@ -29460,175 +29606,175 @@
       <c r="AMJ28" s="0"/>
     </row>
     <row r="29" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="AMJ29" s="2"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
       <c r="D32" s="0"/>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="0"/>
+      <c r="F32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="24" t="s">
+      <c r="I32" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27"/>
-      <c r="B33" s="0"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="0"/>
+      <c r="F33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="28" t="n">
+      <c r="G33" s="28" t="n">
         <v>42662</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="H33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="I33" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:M6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B5:N6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0" right="0.39375" top="0" bottom="0" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -29643,1188 +29789,1188 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="1:33"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H33" activeCellId="1" sqref="H20 H33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.8582995951417"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="1"/>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AMJ1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="AMJ2" s="2"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="AMJ3" s="2"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="AMJ4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29" t="s">
+      <c r="H7" s="30"/>
+      <c r="I7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
+      <c r="J7" s="30"/>
+      <c r="K7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="M7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="N7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="30" t="s">
+      <c r="E8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="30" t="s">
+      <c r="G8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="30" t="s">
+      <c r="I8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="n">
+      <c r="B9" s="33" t="n">
         <v>42639</v>
       </c>
-      <c r="B9" s="33" t="n">
+      <c r="C9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="34" t="n">
+      <c r="D9" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="33" t="n">
+      <c r="E9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="34" t="n">
+      <c r="F9" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="33" t="n">
+      <c r="G9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="34" t="n">
+      <c r="H9" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="33" t="n">
+      <c r="I9" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="34" t="n">
+      <c r="J9" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="35" t="n">
+      <c r="K9" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="K9" s="36" t="n">
+      <c r="L9" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="37" t="n">
-        <f aca="false">(B9+D9+F9+H9)*$J$27+(C9+E9+G9+I9)*$J$27+J9*$G$27+K9*$D$27</f>
+      <c r="M9" s="38" t="n">
+        <f aca="false">(C9+E9+G9+I9)*$K$27+(D9+F9+H9+J9)*$K$27+K9*$H$27+L9*$E$27</f>
         <v>439.99</v>
       </c>
-      <c r="M9" s="38" t="n">
-        <f aca="false">L9</f>
+      <c r="N9" s="39" t="n">
+        <f aca="false">M9</f>
         <v>439.99</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="n">
+      <c r="B10" s="33" t="n">
         <v>42646</v>
       </c>
-      <c r="B10" s="33" t="n">
+      <c r="C10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="34" t="n">
+      <c r="D10" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="33" t="n">
+      <c r="E10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="34" t="n">
+      <c r="F10" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="33" t="n">
+      <c r="G10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="34" t="n">
+      <c r="H10" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="33" t="n">
+      <c r="I10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="34" t="n">
+      <c r="J10" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="35" t="n">
+      <c r="K10" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="K10" s="36" t="n">
+      <c r="L10" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="37" t="n">
-        <f aca="false">(B10+D10+F10+H10)*$J$27+(C10+E10+G10+I10)*$J$27+J10*$G$27+K10*$D$27</f>
+      <c r="M10" s="38" t="n">
+        <f aca="false">(C10+E10+G10+I10)*$K$27+(D10+F10+H10+J10)*$K$27+K10*$H$27+L10*$E$27</f>
         <v>439.99</v>
       </c>
-      <c r="M10" s="38" t="n">
-        <f aca="false">M9+L10</f>
+      <c r="N10" s="39" t="n">
+        <f aca="false">N9+M10</f>
         <v>879.98</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="n">
+      <c r="B11" s="33" t="n">
         <v>42653</v>
       </c>
-      <c r="B11" s="33" t="n">
+      <c r="C11" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="34" t="n">
+      <c r="D11" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="33" t="n">
+      <c r="E11" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="34" t="n">
+      <c r="F11" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="33" t="n">
+      <c r="G11" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="33" t="n">
+      <c r="H11" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="34" t="n">
-        <v>2</v>
-      </c>
       <c r="J11" s="35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="37" t="n">
-        <f aca="false">(B11+D11+F11+H11)*$J$27+(C11+E11+G11+I11)*$J$27+J11*$G$27+K11*$D$27</f>
-        <v>439.99</v>
-      </c>
       <c r="M11" s="38" t="n">
-        <f aca="false">M10+L11</f>
-        <v>1319.97</v>
+        <f aca="false">(C11+E11+G11+I11)*$K$27+(D11+F11+H11+J11)*$K$27+K11*$H$27+L11*$E$27</f>
+        <v>549.9875</v>
+      </c>
+      <c r="N11" s="39" t="n">
+        <f aca="false">N10+M11</f>
+        <v>1429.9675</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="B12" s="33" t="n">
         <v>42660</v>
       </c>
-      <c r="B12" s="33" t="n">
+      <c r="C12" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="34" t="n">
+      <c r="D12" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="D12" s="33" t="n">
+      <c r="G12" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="34" t="n">
+      <c r="H12" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="F12" s="33" t="n">
+      <c r="I12" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="34" t="n">
+      <c r="J12" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="H12" s="33" t="n">
+      <c r="K12" s="36" t="n">
+        <v>18</v>
+      </c>
+      <c r="L12" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="34" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" s="35" t="n">
-        <v>14</v>
-      </c>
-      <c r="K12" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="37" t="n">
-        <f aca="false">(B12+D12+F12+H12)*$J$27+(C12+E12+G12+I12)*$J$27+J12*$G$27+K12*$D$27</f>
-        <v>939.98</v>
-      </c>
       <c r="M12" s="38" t="n">
-        <f aca="false">M11+L12</f>
-        <v>2259.95</v>
+        <f aca="false">(C12+E12+G12+I12)*$K$27+(D12+F12+H12+J12)*$K$27+K12*$H$27+L12*$E$27</f>
+        <v>1079.9775</v>
+      </c>
+      <c r="N12" s="39" t="n">
+        <f aca="false">N11+M12</f>
+        <v>2509.945</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="n">
+      <c r="B13" s="40" t="n">
         <v>42667</v>
-      </c>
-      <c r="B13" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!B13</f>
-        <v>0</v>
       </c>
       <c r="C13" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!D13</f>
         <v>4</v>
-      </c>
-      <c r="D13" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!D13</f>
-        <v>0</v>
       </c>
       <c r="E13" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!E13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!F13</f>
         <v>4</v>
-      </c>
-      <c r="F13" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!F13</f>
-        <v>0</v>
       </c>
       <c r="G13" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!H13</f>
         <v>4</v>
-      </c>
-      <c r="H13" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!H13</f>
-        <v>0</v>
       </c>
       <c r="I13" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!I13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!J13</f>
         <v>4</v>
       </c>
-      <c r="J13" s="42" t="n">
+      <c r="K13" s="43" t="n">
         <v>16</v>
       </c>
-      <c r="K13" s="43" t="n">
+      <c r="L13" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="37" t="n">
-        <f aca="false">(B13+D13+F13+H13)*$J$27+(C13+E13+G13+I13)*$J$27+J13*$G$27+K13*$D$27</f>
+      <c r="M13" s="38" t="n">
+        <f aca="false">(C13+E13+G13+I13)*$K$27+(D13+F13+H13+J13)*$K$27+K13*$H$27+L13*$E$27</f>
         <v>1059.98</v>
       </c>
-      <c r="M13" s="44" t="n">
-        <f aca="false">M12+L13</f>
-        <v>3319.93</v>
+      <c r="N13" s="45" t="n">
+        <f aca="false">N12+M13</f>
+        <v>3569.925</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="n">
+      <c r="B14" s="40" t="n">
         <v>42674</v>
-      </c>
-      <c r="B14" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!B14</f>
-        <v>0</v>
       </c>
       <c r="C14" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!D14</f>
         <v>4</v>
-      </c>
-      <c r="D14" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!D14</f>
-        <v>0</v>
       </c>
       <c r="E14" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!E14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!F14</f>
         <v>4</v>
-      </c>
-      <c r="F14" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!F14</f>
-        <v>0</v>
       </c>
       <c r="G14" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!G14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!H14</f>
         <v>4</v>
-      </c>
-      <c r="H14" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!H14</f>
-        <v>0</v>
       </c>
       <c r="I14" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!I14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!J14</f>
         <v>4</v>
       </c>
-      <c r="J14" s="42" t="n">
+      <c r="K14" s="43" t="n">
         <v>16</v>
       </c>
-      <c r="K14" s="43" t="n">
+      <c r="L14" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="L14" s="37" t="n">
-        <f aca="false">(B14+D14+F14+H14)*$J$27+(C14+E14+G14+I14)*$J$27+J14*$G$27+K14*$D$27</f>
+      <c r="M14" s="38" t="n">
+        <f aca="false">(C14+E14+G14+I14)*$K$27+(D14+F14+H14+J14)*$K$27+K14*$H$27+L14*$E$27</f>
         <v>959.98</v>
       </c>
-      <c r="M14" s="44" t="n">
-        <f aca="false">M13+L14</f>
-        <v>4279.91</v>
+      <c r="N14" s="45" t="n">
+        <f aca="false">N13+M14</f>
+        <v>4529.905</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="n">
+      <c r="B15" s="40" t="n">
         <v>42681</v>
-      </c>
-      <c r="B15" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!B15</f>
-        <v>0</v>
       </c>
       <c r="C15" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!D15</f>
         <v>4</v>
-      </c>
-      <c r="D15" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!D15</f>
-        <v>0</v>
       </c>
       <c r="E15" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!E15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!F15</f>
         <v>4</v>
-      </c>
-      <c r="F15" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!F15</f>
-        <v>0</v>
       </c>
       <c r="G15" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!G15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!H15</f>
         <v>4</v>
-      </c>
-      <c r="H15" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!H15</f>
-        <v>0</v>
       </c>
       <c r="I15" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!I15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!J15</f>
         <v>4</v>
       </c>
-      <c r="J15" s="42" t="n">
+      <c r="K15" s="43" t="n">
         <v>14</v>
       </c>
-      <c r="K15" s="43" t="n">
+      <c r="L15" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="L15" s="37" t="n">
-        <f aca="false">(B15+D15+F15+H15)*$J$27+(C15+E15+G15+I15)*$J$27+J15*$G$27+K15*$D$27</f>
+      <c r="M15" s="38" t="n">
+        <f aca="false">(C15+E15+G15+I15)*$K$27+(D15+F15+H15+J15)*$K$27+K15*$H$27+L15*$E$27</f>
         <v>939.98</v>
       </c>
-      <c r="M15" s="44" t="n">
-        <f aca="false">M14+L15</f>
-        <v>5219.89</v>
+      <c r="N15" s="45" t="n">
+        <f aca="false">N14+M15</f>
+        <v>5469.885</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="n">
+      <c r="B16" s="40" t="n">
         <v>42688</v>
-      </c>
-      <c r="B16" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!B16</f>
-        <v>0</v>
       </c>
       <c r="C16" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!D16</f>
         <v>4</v>
-      </c>
-      <c r="D16" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!D16</f>
-        <v>0</v>
       </c>
       <c r="E16" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!E16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!F16</f>
         <v>4</v>
-      </c>
-      <c r="F16" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!F16</f>
-        <v>0</v>
       </c>
       <c r="G16" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!H16</f>
         <v>4</v>
-      </c>
-      <c r="H16" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!H16</f>
-        <v>0</v>
       </c>
       <c r="I16" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!I16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!J16</f>
         <v>4</v>
       </c>
-      <c r="J16" s="42" t="n">
+      <c r="K16" s="43" t="n">
         <v>14</v>
       </c>
-      <c r="K16" s="43" t="n">
+      <c r="L16" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="L16" s="37" t="n">
-        <f aca="false">(B16+D16+F16+H16)*$J$27+(C16+E16+G16+I16)*$J$27+J16*$G$27+K16*$D$27</f>
+      <c r="M16" s="38" t="n">
+        <f aca="false">(C16+E16+G16+I16)*$K$27+(D16+F16+H16+J16)*$K$27+K16*$H$27+L16*$E$27</f>
         <v>939.98</v>
       </c>
-      <c r="M16" s="44" t="n">
-        <f aca="false">M15+L16</f>
-        <v>6159.87</v>
+      <c r="N16" s="45" t="n">
+        <f aca="false">N15+M16</f>
+        <v>6409.865</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39" t="n">
+      <c r="B17" s="40" t="n">
         <v>42695</v>
-      </c>
-      <c r="B17" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!B17</f>
-        <v>0</v>
       </c>
       <c r="C17" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!D17</f>
         <v>4</v>
-      </c>
-      <c r="D17" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!D17</f>
-        <v>0</v>
       </c>
       <c r="E17" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!E17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!F17</f>
         <v>4</v>
-      </c>
-      <c r="F17" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!F17</f>
-        <v>0</v>
       </c>
       <c r="G17" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!G17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!H17</f>
         <v>4</v>
-      </c>
-      <c r="H17" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!H17</f>
-        <v>0</v>
       </c>
       <c r="I17" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!I17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!J17</f>
         <v>4</v>
       </c>
-      <c r="J17" s="42" t="n">
+      <c r="K17" s="43" t="n">
         <v>16</v>
       </c>
-      <c r="K17" s="43" t="n">
+      <c r="L17" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="37" t="n">
-        <f aca="false">(B17+D17+F17+H17)*$J$27+(C17+E17+G17+I17)*$J$27+J17*$G$27+K17*$D$27</f>
+      <c r="M17" s="38" t="n">
+        <f aca="false">(C17+E17+G17+I17)*$K$27+(D17+F17+H17+J17)*$K$27+K17*$H$27+L17*$E$27</f>
         <v>1059.98</v>
       </c>
-      <c r="M17" s="44" t="n">
-        <f aca="false">M16+L17</f>
-        <v>7219.85</v>
+      <c r="N17" s="45" t="n">
+        <f aca="false">N16+M17</f>
+        <v>7469.845</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="n">
+      <c r="B18" s="40" t="n">
         <v>42702</v>
-      </c>
-      <c r="B18" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!B18</f>
-        <v>0</v>
       </c>
       <c r="C18" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!D18</f>
         <v>4</v>
-      </c>
-      <c r="D18" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!D18</f>
-        <v>0</v>
       </c>
       <c r="E18" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!E18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!F18</f>
         <v>4</v>
-      </c>
-      <c r="F18" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!F18</f>
-        <v>0</v>
       </c>
       <c r="G18" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!G18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!H18</f>
         <v>4</v>
-      </c>
-      <c r="H18" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!H18</f>
-        <v>0</v>
       </c>
       <c r="I18" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!I18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!J18</f>
         <v>4</v>
       </c>
-      <c r="J18" s="42" t="n">
+      <c r="K18" s="43" t="n">
         <v>16</v>
       </c>
-      <c r="K18" s="43" t="n">
+      <c r="L18" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="L18" s="37" t="n">
-        <f aca="false">(B18+D18+F18+H18)*$J$27+(C18+E18+G18+I18)*$J$27+J18*$G$27+K18*$D$27</f>
+      <c r="M18" s="38" t="n">
+        <f aca="false">(C18+E18+G18+I18)*$K$27+(D18+F18+H18+J18)*$K$27+K18*$H$27+L18*$E$27</f>
         <v>959.98</v>
       </c>
-      <c r="M18" s="44" t="n">
-        <f aca="false">M17+L18</f>
-        <v>8179.83</v>
+      <c r="N18" s="45" t="n">
+        <f aca="false">N17+M18</f>
+        <v>8429.825</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39" t="n">
+      <c r="B19" s="40" t="n">
         <v>42709</v>
-      </c>
-      <c r="B19" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!B19</f>
-        <v>0</v>
       </c>
       <c r="C19" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!D19</f>
         <v>4</v>
-      </c>
-      <c r="D19" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!D19</f>
-        <v>0</v>
       </c>
       <c r="E19" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!E19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!F19</f>
         <v>4</v>
-      </c>
-      <c r="F19" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!F19</f>
-        <v>0</v>
       </c>
       <c r="G19" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!H19</f>
         <v>4</v>
-      </c>
-      <c r="H19" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!H19</f>
-        <v>0</v>
       </c>
       <c r="I19" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!I19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!J19</f>
         <v>4</v>
       </c>
-      <c r="J19" s="42" t="n">
+      <c r="K19" s="43" t="n">
         <v>14</v>
       </c>
-      <c r="K19" s="43" t="n">
+      <c r="L19" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="L19" s="37" t="n">
-        <f aca="false">(B19+D19+F19+H19)*$J$27+(C19+E19+G19+I19)*$J$27+J19*$G$27+K19*$D$27</f>
+      <c r="M19" s="38" t="n">
+        <f aca="false">(C19+E19+G19+I19)*$K$27+(D19+F19+H19+J19)*$K$27+K19*$H$27+L19*$E$27</f>
         <v>939.98</v>
       </c>
-      <c r="M19" s="44" t="n">
-        <f aca="false">M18+L19</f>
-        <v>9119.81</v>
+      <c r="N19" s="45" t="n">
+        <f aca="false">N18+M19</f>
+        <v>9369.805</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39" t="n">
+      <c r="B20" s="40" t="n">
         <v>42716</v>
-      </c>
-      <c r="B20" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!B20</f>
-        <v>0</v>
       </c>
       <c r="C20" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!D20</f>
         <v>4</v>
-      </c>
-      <c r="D20" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!D20</f>
-        <v>0</v>
       </c>
       <c r="E20" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!E20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!F20</f>
         <v>4</v>
-      </c>
-      <c r="F20" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!F20</f>
-        <v>0</v>
       </c>
       <c r="G20" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!G20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!H20</f>
         <v>4</v>
-      </c>
-      <c r="H20" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!H20</f>
-        <v>0</v>
       </c>
       <c r="I20" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!I20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!J20</f>
         <v>4</v>
       </c>
-      <c r="J20" s="42" t="n">
+      <c r="K20" s="43" t="n">
         <v>16</v>
       </c>
-      <c r="K20" s="43" t="n">
+      <c r="L20" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="L20" s="37" t="n">
-        <f aca="false">(B20+D20+F20+H20)*$J$27+(C20+E20+G20+I20)*$J$27+J20*$G$27+K20*$D$27</f>
+      <c r="M20" s="38" t="n">
+        <f aca="false">(C20+E20+G20+I20)*$K$27+(D20+F20+H20+J20)*$K$27+K20*$H$27+L20*$E$27</f>
         <v>1059.98</v>
       </c>
-      <c r="M20" s="44" t="n">
-        <f aca="false">M19+L20</f>
-        <v>10179.79</v>
+      <c r="N20" s="45" t="n">
+        <f aca="false">N19+M20</f>
+        <v>10429.785</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39" t="n">
+      <c r="B21" s="40" t="n">
         <v>42723</v>
-      </c>
-      <c r="B21" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!B21</f>
-        <v>0</v>
       </c>
       <c r="C21" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!D21</f>
         <v>4</v>
-      </c>
-      <c r="D21" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!D21</f>
-        <v>0</v>
       </c>
       <c r="E21" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!E21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!F21</f>
         <v>4</v>
-      </c>
-      <c r="F21" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!F21</f>
-        <v>0</v>
       </c>
       <c r="G21" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!G21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!H21</f>
         <v>4</v>
-      </c>
-      <c r="H21" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!H21</f>
-        <v>0</v>
       </c>
       <c r="I21" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!I21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!J21</f>
         <v>4</v>
       </c>
-      <c r="J21" s="42" t="n">
+      <c r="K21" s="43" t="n">
         <v>16</v>
       </c>
-      <c r="K21" s="43" t="n">
+      <c r="L21" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="L21" s="37" t="n">
-        <f aca="false">(B21+D21+F21+H21)*$J$27+(C21+E21+G21+I21)*$J$27+J21*$G$27+K21*$D$27</f>
+      <c r="M21" s="38" t="n">
+        <f aca="false">(C21+E21+G21+I21)*$K$27+(D21+F21+H21+J21)*$K$27+K21*$H$27+L21*$E$27</f>
         <v>959.98</v>
       </c>
-      <c r="M21" s="44" t="n">
-        <f aca="false">M20+L21</f>
-        <v>11139.77</v>
+      <c r="N21" s="45" t="n">
+        <f aca="false">N20+M21</f>
+        <v>11389.765</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39" t="n">
+      <c r="B22" s="40" t="n">
         <v>42730</v>
-      </c>
-      <c r="B22" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!B22</f>
-        <v>0</v>
       </c>
       <c r="C22" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!D22</f>
         <v>6</v>
-      </c>
-      <c r="D22" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!D22</f>
-        <v>0</v>
       </c>
       <c r="E22" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!E22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!F22</f>
         <v>6</v>
-      </c>
-      <c r="F22" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!F22</f>
-        <v>0</v>
       </c>
       <c r="G22" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!G22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!H22</f>
         <v>6</v>
-      </c>
-      <c r="H22" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!H22</f>
-        <v>0</v>
       </c>
       <c r="I22" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!I22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!J22</f>
         <v>6</v>
       </c>
-      <c r="J22" s="42" t="n">
+      <c r="K22" s="43" t="n">
         <v>14</v>
       </c>
-      <c r="K22" s="43" t="n">
+      <c r="L22" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="L22" s="37" t="n">
-        <f aca="false">(B22+D22+F22+H22)*$J$27+(C22+E22+G22+I22)*$J$27+J22*$G$27+K22*$D$27</f>
+      <c r="M22" s="38" t="n">
+        <f aca="false">(C22+E22+G22+I22)*$K$27+(D22+F22+H22+J22)*$K$27+K22*$H$27+L22*$E$27</f>
         <v>1339.97</v>
       </c>
-      <c r="M22" s="44" t="n">
-        <f aca="false">M21+L22</f>
-        <v>12479.74</v>
+      <c r="N22" s="45" t="n">
+        <f aca="false">N21+M22</f>
+        <v>12729.735</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="39" t="n">
+      <c r="B23" s="40" t="n">
         <v>42737</v>
-      </c>
-      <c r="B23" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!B23</f>
-        <v>0</v>
       </c>
       <c r="C23" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!D23</f>
         <v>6</v>
-      </c>
-      <c r="D23" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!D23</f>
-        <v>0</v>
       </c>
       <c r="E23" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!E23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!F23</f>
         <v>6</v>
-      </c>
-      <c r="F23" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!F23</f>
-        <v>0</v>
       </c>
       <c r="G23" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!G23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!H23</f>
         <v>6</v>
-      </c>
-      <c r="H23" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!H23</f>
-        <v>0</v>
       </c>
       <c r="I23" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!I23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!J23</f>
         <v>6</v>
       </c>
-      <c r="J23" s="42" t="n">
+      <c r="K23" s="43" t="n">
         <v>16</v>
       </c>
-      <c r="K23" s="43" t="n">
+      <c r="L23" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="L23" s="37" t="n">
-        <f aca="false">(B23+D23+F23+H23)*$J$27+(C23+E23+G23+I23)*$J$27+J23*$G$27+K23*$D$27</f>
+      <c r="M23" s="38" t="n">
+        <f aca="false">(C23+E23+G23+I23)*$K$27+(D23+F23+H23+J23)*$K$27+K23*$H$27+L23*$E$27</f>
         <v>1459.97</v>
       </c>
-      <c r="M23" s="44" t="n">
-        <f aca="false">M22+L23</f>
-        <v>13939.71</v>
+      <c r="N23" s="45" t="n">
+        <f aca="false">N22+M23</f>
+        <v>14189.705</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39" t="n">
+      <c r="B24" s="40" t="n">
         <v>42744</v>
-      </c>
-      <c r="B24" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!B24</f>
-        <v>0</v>
       </c>
       <c r="C24" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!D24</f>
         <v>6</v>
-      </c>
-      <c r="D24" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!D24</f>
-        <v>0</v>
       </c>
       <c r="E24" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!E24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!F24</f>
         <v>6</v>
-      </c>
-      <c r="F24" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!F24</f>
-        <v>0</v>
       </c>
       <c r="G24" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!G24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!H24</f>
         <v>6</v>
-      </c>
-      <c r="H24" s="40" t="n">
-        <f aca="false">'Prix de revient initial S3'!H24</f>
-        <v>0</v>
       </c>
       <c r="I24" s="41" t="n">
         <f aca="false">'Prix de revient initial S3'!I24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="42" t="n">
+        <f aca="false">'Prix de revient initial S3'!J24</f>
         <v>6</v>
       </c>
-      <c r="J24" s="42" t="n">
+      <c r="K24" s="43" t="n">
         <v>14</v>
       </c>
-      <c r="K24" s="43" t="n">
+      <c r="L24" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="L24" s="37" t="n">
-        <f aca="false">(B24+D24+F24+H24)*$J$27+(C24+E24+G24+I24)*$J$27+J24*$G$27+K24*$D$27</f>
+      <c r="M24" s="38" t="n">
+        <f aca="false">(C24+E24+G24+I24)*$K$27+(D24+F24+H24+J24)*$K$27+K24*$H$27+L24*$E$27</f>
         <v>1339.97</v>
       </c>
-      <c r="M24" s="44" t="n">
-        <f aca="false">M23+L24</f>
-        <v>15279.68</v>
+      <c r="N24" s="45" t="n">
+        <f aca="false">N23+M24</f>
+        <v>15529.675</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="18" t="n">
-        <f aca="false">SUM(B9:B24)</f>
+    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="19" t="n">
+        <f aca="false">SUM(C9:C24)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="18" t="n">
-        <f aca="false">SUM(C9:C24)</f>
+      <c r="D25" s="19" t="n">
+        <f aca="false">SUM(D9:D24)</f>
+        <v>66</v>
+      </c>
+      <c r="E25" s="19" t="n">
+        <f aca="false">SUM(E9:E24)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="19" t="n">
+        <f aca="false">SUM(F9:F24)</f>
         <v>64</v>
       </c>
-      <c r="D25" s="18" t="n">
-        <f aca="false">SUM(D9:D24)</f>
+      <c r="G25" s="19" t="n">
+        <f aca="false">SUM(G9:G24)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="18" t="n">
-        <f aca="false">SUM(E9:E24)</f>
-        <v>64</v>
-      </c>
-      <c r="F25" s="18" t="n">
-        <f aca="false">SUM(F9:F24)</f>
+      <c r="H25" s="19" t="n">
+        <f aca="false">SUM(H9:H24)</f>
+        <v>65</v>
+      </c>
+      <c r="I25" s="19" t="n">
+        <f aca="false">SUM(I9:I24)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="18" t="n">
-        <f aca="false">SUM(G9:G24)</f>
-        <v>64</v>
-      </c>
-      <c r="H25" s="18" t="n">
-        <f aca="false">SUM(H9:H24)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="18" t="n">
-        <f aca="false">SUM(I9:I24)</f>
-        <v>64</v>
-      </c>
-      <c r="J25" s="18" t="n">
+      <c r="J25" s="19" t="n">
         <f aca="false">SUM(J9:J24)</f>
-        <v>208</v>
-      </c>
-      <c r="K25" s="18" t="n">
+        <v>65</v>
+      </c>
+      <c r="K25" s="19" t="n">
         <f aca="false">SUM(K9:K24)</f>
+        <v>213</v>
+      </c>
+      <c r="L25" s="19" t="n">
+        <f aca="false">SUM(L9:L24)</f>
         <v>4</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="46" t="n">
-        <f aca="false">M24</f>
-        <v>15279.68</v>
+      <c r="M25" s="20"/>
+      <c r="N25" s="47" t="n">
+        <f aca="false">N24</f>
+        <v>15529.675</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMJ26" s="2"/>
+    <row r="26" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="F27" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" s="21" t="s">
+      <c r="G27" s="22"/>
+      <c r="H27" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="23" t="n">
-        <f aca="false">'Taux horaire d''un technicien'!D15</f>
+      <c r="J27" s="22"/>
+      <c r="K27" s="24" t="n">
+        <f aca="false">'Taux horaire d''un technicien'!E15</f>
         <v>49.99875</v>
       </c>
-      <c r="AMJ27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="AMJ28" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
     <row r="29" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="AMJ29" s="2"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="AMJ30" s="2"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="AMJ31" s="2"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="25" t="s">
+      <c r="A32" s="1"/>
+      <c r="F32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="24" t="s">
+      <c r="I32" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="AMJ32" s="2"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="24" t="s">
+      <c r="A33" s="1"/>
+      <c r="F33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="28" t="n">
+      <c r="G33" s="28" t="n">
         <v>42662</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="H33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="I33" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="AMJ33" s="2"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:M6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B5:N6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -30842,198 +30988,198 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="B1:R35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H37" activeCellId="1" sqref="H20 H37"/>
+      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="17" min="9" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="14" min="10" style="0" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.8582995951417"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="48"/>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="K6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="M6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="N6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="O6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="P6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="Q6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="R6" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="50" t="n">
+      <c r="D7" s="51" t="n">
         <v>15279.68</v>
       </c>
-      <c r="D7" s="50" t="n">
+      <c r="E7" s="51" t="n">
         <v>15279.68</v>
       </c>
-      <c r="E7" s="50" t="n">
+      <c r="F7" s="51" t="n">
         <v>15279.68</v>
       </c>
-      <c r="F7" s="50" t="n">
+      <c r="G7" s="51" t="n">
         <v>15279.68</v>
       </c>
-      <c r="G7" s="50" t="n">
+      <c r="H7" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="50" t="n">
+      <c r="I7" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="50" t="n">
+      <c r="J7" s="51" t="n">
         <f aca="false">+[1]'prix de revient à jour'!N24</f>
         <v>0</v>
       </c>
-      <c r="J7" s="50" t="n">
+      <c r="K7" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="50" t="n">
+      <c r="L7" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="50" t="n">
+      <c r="M7" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="50" t="n">
+      <c r="N7" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="50" t="n">
+      <c r="O7" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="50" t="n">
+      <c r="P7" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="50" t="n">
+      <c r="Q7" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="50" t="n">
+      <c r="R7" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="51" t="s">
+      <c r="C9" s="29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O28" s="51" t="s">
+      <c r="P28" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="25" t="s">
+      <c r="F34" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="24" t="s">
+      <c r="I34" s="25" t="s">
         <v>19</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="24" t="s">
+      <c r="F35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="28" t="n">
+      <c r="G35" s="28" t="n">
         <v>42662</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="H35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="I35" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -31054,253 +31200,256 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="48" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="48" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="48" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="48" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="49" width="3.96356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="49" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="49" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="49" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="49" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="49" width="3.8582995951417"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="49" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="3"/>
+      <c r="D1" s="0"/>
+      <c r="H1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="0"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="0"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="0"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
+      <c r="B5" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="53"/>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
-      <c r="H5" s="0"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="53"/>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
-      <c r="H6" s="0"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="0"/>
-      <c r="D7" s="54" t="n">
+      <c r="D7" s="0"/>
+      <c r="E7" s="54" t="n">
         <v>3000</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="F7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="C8" s="0"/>
+      <c r="B8" s="0"/>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48" t="s">
+      <c r="B9" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="0"/>
-      <c r="D9" s="54" t="n">
-        <f aca="false">D7+F9*D7</f>
+      <c r="D9" s="0"/>
+      <c r="E9" s="54" t="n">
+        <f aca="false">E7+G9*E7</f>
         <v>4500</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="F9" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="55" t="n">
+      <c r="G9" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="G9" s="0"/>
       <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="C10" s="0"/>
+      <c r="B10" s="0"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48" t="s">
+      <c r="B11" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="0"/>
-      <c r="D11" s="54" t="n">
-        <f aca="false">D9+D9*F11</f>
+      <c r="D11" s="0"/>
+      <c r="E11" s="54" t="n">
+        <f aca="false">E9+E9*G11</f>
         <v>5999.85</v>
       </c>
-      <c r="E11" s="0"/>
-      <c r="F11" s="56" t="n">
+      <c r="F11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="56" t="n">
         <v>0.3333</v>
       </c>
-      <c r="G11" s="0"/>
       <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="C12" s="0"/>
+      <c r="B12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="48" t="s">
+      <c r="B13" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="0"/>
-      <c r="D13" s="48" t="n">
+      <c r="D13" s="0"/>
+      <c r="E13" s="49" t="n">
         <v>120</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="F13" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="C14" s="0"/>
+      <c r="B14" s="0"/>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="48" t="s">
+      <c r="B15" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="0"/>
-      <c r="D15" s="57" t="n">
-        <f aca="false">D11/D13</f>
+      <c r="D15" s="0"/>
+      <c r="E15" s="57" t="n">
+        <f aca="false">E11/E13</f>
         <v>49.99875</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="F15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0"/>
       <c r="D19" s="0"/>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="0"/>
+      <c r="F19" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="24" t="s">
+      <c r="I19" s="25" t="s">
         <v>19</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0"/>
       <c r="D20" s="0"/>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="0"/>
+      <c r="F20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="28" t="n">
+      <c r="G20" s="28" t="n">
         <v>42662</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="H20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="I20" s="4" t="s">
         <v>22</v>
       </c>
     </row>

--- a/doc/Gestion des coûts/Gestion des coûts Projet S3.xlsx
+++ b/doc/Gestion des coûts/Gestion des coûts Projet S3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Prix de revient initial S3" sheetId="1" state="visible" r:id="rId2"/>
@@ -196,7 +196,7 @@
     <numFmt numFmtId="174" formatCode="0%"/>
     <numFmt numFmtId="175" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -289,6 +289,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0066CC"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -781,7 +787,7 @@
                   <c:v>15279.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15279.68</c:v>
+                  <c:v>15529.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -821,11 +827,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="18242793"/>
-        <c:axId val="1277854"/>
+        <c:axId val="37905872"/>
+        <c:axId val="12012855"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18242793"/>
+        <c:axId val="37905872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -862,14 +868,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1277854"/>
+        <c:crossAx val="12012855"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1277854"/>
+        <c:axId val="12012855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +919,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18242793"/>
+        <c:crossAx val="37905872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -961,9 +967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>478800</xdr:colOff>
+      <xdr:colOff>478080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -976,8 +982,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18212760" y="0"/>
-          <a:ext cx="1125360" cy="646920"/>
+          <a:off x="14202720" y="0"/>
+          <a:ext cx="791280" cy="646200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -998,9 +1004,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1176120</xdr:colOff>
+      <xdr:colOff>1175400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1013,8 +1019,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1220760" y="0"/>
-          <a:ext cx="1526760" cy="605520"/>
+          <a:off x="1135080" y="0"/>
+          <a:ext cx="1240200" cy="604800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1033,16 +1039,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2290320</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>223560</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1055,8 +1061,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19692360" y="360"/>
-          <a:ext cx="1125360" cy="646920"/>
+          <a:off x="15653880" y="360"/>
+          <a:ext cx="543600" cy="646200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1077,9 +1083,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1175760</xdr:colOff>
+      <xdr:colOff>1175040</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1092,8 +1098,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1220400" y="0"/>
-          <a:ext cx="1526760" cy="605520"/>
+          <a:off x="1134720" y="0"/>
+          <a:ext cx="1240200" cy="604800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1119,9 +1125,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>272160</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1134,8 +1140,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13273200" y="19440"/>
-          <a:ext cx="1086120" cy="646920"/>
+          <a:off x="10177560" y="19440"/>
+          <a:ext cx="859680" cy="646200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1150,15 +1156,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>49320</xdr:colOff>
+      <xdr:colOff>49680</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>5040</xdr:colOff>
+      <xdr:colOff>4320</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1166,8 +1172,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1344600" y="1634040"/>
-        <a:ext cx="14547960" cy="2988000"/>
+        <a:off x="1040040" y="1634400"/>
+        <a:ext cx="11327400" cy="2987280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1182,13 +1188,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>357480</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>49320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>160560</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>49320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1197,8 +1203,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1652760" y="2214000"/>
-          <a:ext cx="12252240" cy="0"/>
+          <a:off x="1347840" y="2152440"/>
+          <a:ext cx="9318600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1231,9 +1237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1176840</xdr:colOff>
+      <xdr:colOff>1176120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1246,8 +1252,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="945360" y="0"/>
-          <a:ext cx="1526760" cy="605520"/>
+          <a:off x="859680" y="0"/>
+          <a:ext cx="1306800" cy="604800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1257,6 +1263,76 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>576000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>140760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>403560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>72000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="842400" y="2068560"/>
+          <a:ext cx="551520" cy="281520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="0066cc"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>15 279,68</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1273,13 +1349,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 1" descr=""/>
+        <xdr:cNvPr id="9" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1288,8 +1364,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13475160" y="19800"/>
-          <a:ext cx="1084320" cy="646920"/>
+          <a:off x="10369800" y="19800"/>
+          <a:ext cx="807480" cy="646200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1310,13 +1386,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>240840</xdr:colOff>
+      <xdr:colOff>240120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 2" descr=""/>
+        <xdr:cNvPr id="10" name="Image 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1325,8 +1401,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1618920" y="0"/>
-          <a:ext cx="1526760" cy="605520"/>
+          <a:off x="1342800" y="0"/>
+          <a:ext cx="1116360" cy="604800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1354,19 +1430,19 @@
   </sheetPr>
   <dimension ref="1:33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.96356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="10" min="3" style="2" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="2" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="3.8582995951417"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="2" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="3" style="2" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="2" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29791,20 +29867,20 @@
   </sheetPr>
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.96356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.8582995951417"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30991,21 +31067,21 @@
   <dimension ref="B1:R35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.96356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="14" min="10" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.8582995951417"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="10" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31108,7 +31184,7 @@
         <v>15279.68</v>
       </c>
       <c r="G7" s="51" t="n">
-        <v>15279.68</v>
+        <v>15529.68</v>
       </c>
       <c r="H7" s="51" t="n">
         <v>0</v>
@@ -31202,22 +31278,22 @@
   </sheetPr>
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="49" width="3.96356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="49" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="49" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="49" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="49" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="49" width="3.8582995951417"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="49" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="49" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="49" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="49" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="49" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="49" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="49" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="49" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/doc/Gestion des coûts/Gestion des coûts Projet S3.xlsx
+++ b/doc/Gestion des coûts/Gestion des coûts Projet S3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Prix de revient initial S3" sheetId="1" state="visible" r:id="rId2"/>
@@ -414,7 +414,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -545,6 +545,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -719,7 +723,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -827,11 +831,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="37905872"/>
-        <c:axId val="12012855"/>
+        <c:axId val="81946240"/>
+        <c:axId val="73981187"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37905872"/>
+        <c:axId val="81946240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -868,14 +872,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12012855"/>
+        <c:crossAx val="73981187"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12012855"/>
+        <c:axId val="73981187"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,7 +923,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37905872"/>
+        <c:crossAx val="81946240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -967,9 +971,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>478080</xdr:colOff>
+      <xdr:colOff>477720</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -982,8 +986,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14202720" y="0"/>
-          <a:ext cx="791280" cy="646200"/>
+          <a:off x="14012280" y="0"/>
+          <a:ext cx="771840" cy="645840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1004,9 +1008,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1175400</xdr:colOff>
+      <xdr:colOff>1175040</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1019,8 +1023,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1135080" y="0"/>
-          <a:ext cx="1240200" cy="604800"/>
+          <a:off x="1125720" y="0"/>
+          <a:ext cx="1230120" cy="604440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1046,9 +1050,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>767160</xdr:colOff>
+      <xdr:colOff>766800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1061,8 +1065,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15653880" y="360"/>
-          <a:ext cx="543600" cy="646200"/>
+          <a:off x="15434640" y="360"/>
+          <a:ext cx="543240" cy="645840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1083,9 +1087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1175040</xdr:colOff>
+      <xdr:colOff>1174680</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1098,8 +1102,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1134720" y="0"/>
-          <a:ext cx="1240200" cy="604800"/>
+          <a:off x="1125360" y="0"/>
+          <a:ext cx="1230120" cy="604440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1125,9 +1129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1140,8 +1144,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10177560" y="19440"/>
-          <a:ext cx="859680" cy="646200"/>
+          <a:off x="9987120" y="19440"/>
+          <a:ext cx="840240" cy="645840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1162,9 +1166,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>4320</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1172,8 +1176,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1040040" y="1634400"/>
-        <a:ext cx="11327400" cy="2987280"/>
+        <a:off x="1020960" y="1634400"/>
+        <a:ext cx="11108160" cy="2986920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1203,8 +1207,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1347840" y="2152440"/>
-          <a:ext cx="9318600" cy="0"/>
+          <a:off x="1328760" y="2152440"/>
+          <a:ext cx="9137520" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1237,9 +1241,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1176120</xdr:colOff>
+      <xdr:colOff>1175760</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1252,8 +1256,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="859680" y="0"/>
-          <a:ext cx="1306800" cy="604800"/>
+          <a:off x="850320" y="0"/>
+          <a:ext cx="1296720" cy="604440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1274,9 +1278,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>403560</xdr:colOff>
+      <xdr:colOff>403200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1285,8 +1289,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="842400" y="2068560"/>
-          <a:ext cx="551520" cy="281520"/>
+          <a:off x="833040" y="2068560"/>
+          <a:ext cx="541440" cy="281160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1349,9 +1353,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1364,8 +1368,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10369800" y="19800"/>
-          <a:ext cx="807480" cy="646200"/>
+          <a:off x="10141200" y="19800"/>
+          <a:ext cx="778680" cy="645840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1386,9 +1390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>240120</xdr:colOff>
+      <xdr:colOff>239760</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1401,8 +1405,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1342800" y="0"/>
-          <a:ext cx="1116360" cy="604800"/>
+          <a:off x="1314360" y="0"/>
+          <a:ext cx="1087560" cy="604440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1428,21 +1432,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="1:33"/>
+  <dimension ref="1:29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="3" style="2" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="3" style="2" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="2" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="2" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8695,18 +8699,19 @@
         <v>2</v>
       </c>
       <c r="K9" s="14" t="n">
-        <v>4</v>
+        <f aca="false">SUM(C9:J9)</f>
+        <v>8</v>
       </c>
       <c r="L9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="M9" s="16" t="n">
-        <f aca="false">(C9+E9+G9+I9)*$K$27+(D9+F9+H9+J9)*$K$27+K9*$H$27+L9*$E$27</f>
-        <v>439.99</v>
+        <f aca="false">(C9+E9+G9+I9)*$K$23+(D9+F9+H9+J9)*$K$23+K9*$H$23+L9*$E$23</f>
+        <v>479.99</v>
       </c>
       <c r="N9" s="17" t="n">
         <f aca="false">M9</f>
-        <v>439.99</v>
+        <v>479.99</v>
       </c>
       <c r="O9" s="0"/>
       <c r="P9" s="0"/>
@@ -9749,18 +9754,19 @@
         <v>2</v>
       </c>
       <c r="K10" s="14" t="n">
-        <v>4</v>
+        <f aca="false">SUM(C10:J10)</f>
+        <v>8</v>
       </c>
       <c r="L10" s="15" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="16" t="n">
-        <f aca="false">(C10+E10+G10+I10)*$K$27+(D10+F10+H10+J10)*$K$27+K10*$H$27+L10*$E$27</f>
-        <v>439.99</v>
+        <f aca="false">(C10+E10+G10+I10)*$K$23+(D10+F10+H10+J10)*$K$23+K10*$H$23+L10*$E$23</f>
+        <v>479.99</v>
       </c>
       <c r="N10" s="17" t="n">
         <f aca="false">N9+M10</f>
-        <v>879.98</v>
+        <v>959.98</v>
       </c>
       <c r="O10" s="0"/>
       <c r="P10" s="0"/>
@@ -10782,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="12" t="n">
         <v>0</v>
@@ -10803,18 +10809,19 @@
         <v>2</v>
       </c>
       <c r="K11" s="14" t="n">
-        <v>4</v>
+        <f aca="false">SUM(C11:J11)</f>
+        <v>7</v>
       </c>
       <c r="L11" s="15" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="16" t="n">
-        <f aca="false">(C11+E11+G11+I11)*$K$27+(D11+F11+H11+J11)*$K$27+K11*$H$27+L11*$E$27</f>
-        <v>439.99</v>
+        <f aca="false">(C11+E11+G11+I11)*$K$23+(D11+F11+H11+J11)*$K$23+K11*$H$23+L11*$E$23</f>
+        <v>419.99125</v>
       </c>
       <c r="N11" s="17" t="n">
         <f aca="false">N10+M11</f>
-        <v>1319.97</v>
+        <v>1379.97125</v>
       </c>
       <c r="O11" s="0"/>
       <c r="P11" s="0"/>
@@ -11842,33 +11849,34 @@
         <v>0</v>
       </c>
       <c r="F12" s="13" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="13" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I12" s="12" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="13" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>14</v>
+        <f aca="false">SUM(C12:J12)</f>
+        <v>14.5</v>
       </c>
       <c r="L12" s="15" t="n">
         <v>0</v>
       </c>
       <c r="M12" s="16" t="n">
-        <f aca="false">(C12+E12+G12+I12)*$K$27+(D12+F12+H12+J12)*$K$27+K12*$H$27+L12*$E$27</f>
-        <v>939.98</v>
+        <f aca="false">(C12+E12+G12+I12)*$K$23+(D12+F12+H12+J12)*$K$23+K12*$H$23+L12*$E$23</f>
+        <v>869.981875</v>
       </c>
       <c r="N12" s="17" t="n">
         <f aca="false">N11+M12</f>
-        <v>2259.95</v>
+        <v>2249.953125</v>
       </c>
       <c r="O12" s="0"/>
       <c r="P12" s="0"/>
@@ -12911,18 +12919,19 @@
         <v>4</v>
       </c>
       <c r="K13" s="14" t="n">
+        <f aca="false">SUM(C13:J13)</f>
         <v>16</v>
       </c>
       <c r="L13" s="15" t="n">
         <v>1</v>
       </c>
       <c r="M13" s="16" t="n">
-        <f aca="false">(C13+E13+G13+I13)*$K$27+(D13+F13+H13+J13)*$K$27+K13*$H$27+L13*$E$27</f>
+        <f aca="false">(C13+E13+G13+I13)*$K$23+(D13+F13+H13+J13)*$K$23+K13*$H$23+L13*$E$23</f>
         <v>1059.98</v>
       </c>
       <c r="N13" s="17" t="n">
         <f aca="false">N12+M13</f>
-        <v>3319.93</v>
+        <v>3309.933125</v>
       </c>
       <c r="O13" s="0"/>
       <c r="P13" s="0"/>
@@ -13944,39 +13953,40 @@
         <v>0</v>
       </c>
       <c r="D14" s="13" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E14" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="12" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" s="14" t="n">
-        <v>16</v>
+        <f aca="false">SUM(C14:J14)</f>
+        <v>12.5</v>
       </c>
       <c r="L14" s="15" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="16" t="n">
-        <f aca="false">(C14+E14+G14+I14)*$K$27+(D14+F14+H14+J14)*$K$27+K14*$H$27+L14*$E$27</f>
-        <v>959.98</v>
+        <f aca="false">(C14+E14+G14+I14)*$K$23+(D14+F14+H14+J14)*$K$23+K14*$H$23+L14*$E$23</f>
+        <v>749.984375</v>
       </c>
       <c r="N14" s="17" t="n">
         <f aca="false">N13+M14</f>
-        <v>4279.91</v>
+        <v>4059.9175</v>
       </c>
       <c r="O14" s="0"/>
       <c r="P14" s="0"/>
@@ -15004,7 +15014,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>0</v>
@@ -15019,18 +15029,19 @@
         <v>4</v>
       </c>
       <c r="K15" s="14" t="n">
-        <v>14</v>
+        <f aca="false">SUM(C15:J15)</f>
+        <v>15.5</v>
       </c>
       <c r="L15" s="15" t="n">
         <v>0</v>
       </c>
       <c r="M15" s="16" t="n">
-        <f aca="false">(C15+E15+G15+I15)*$K$27+(D15+F15+H15+J15)*$K$27+K15*$H$27+L15*$E$27</f>
-        <v>939.98</v>
+        <f aca="false">(C15+E15+G15+I15)*$K$23+(D15+F15+H15+J15)*$K$23+K15*$H$23+L15*$E$23</f>
+        <v>929.980625</v>
       </c>
       <c r="N15" s="17" t="n">
         <f aca="false">N14+M15</f>
-        <v>5219.89</v>
+        <v>4989.898125</v>
       </c>
       <c r="O15" s="0"/>
       <c r="P15" s="0"/>
@@ -16058,7 +16069,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="13" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>0</v>
@@ -16070,21 +16081,22 @@
         <v>0</v>
       </c>
       <c r="J16" s="13" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K16" s="14" t="n">
-        <v>14</v>
+        <f aca="false">SUM(C16:J16)</f>
+        <v>15</v>
       </c>
       <c r="L16" s="15" t="n">
         <v>0</v>
       </c>
       <c r="M16" s="16" t="n">
-        <f aca="false">(C16+E16+G16+I16)*$K$27+(D16+F16+H16+J16)*$K$27+K16*$H$27+L16*$E$27</f>
-        <v>939.98</v>
+        <f aca="false">(C16+E16+G16+I16)*$K$23+(D16+F16+H16+J16)*$K$23+K16*$H$23+L16*$E$23</f>
+        <v>899.98125</v>
       </c>
       <c r="N16" s="17" t="n">
         <f aca="false">N15+M16</f>
-        <v>6159.87</v>
+        <v>5889.879375</v>
       </c>
       <c r="O16" s="0"/>
       <c r="P16" s="0"/>
@@ -17106,13 +17118,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>0</v>
@@ -17127,18 +17139,19 @@
         <v>4</v>
       </c>
       <c r="K17" s="14" t="n">
-        <v>16</v>
+        <f aca="false">SUM(C17:J17)</f>
+        <v>14.5</v>
       </c>
       <c r="L17" s="15" t="n">
         <v>1</v>
       </c>
       <c r="M17" s="16" t="n">
-        <f aca="false">(C17+E17+G17+I17)*$K$27+(D17+F17+H17+J17)*$K$27+K17*$H$27+L17*$E$27</f>
-        <v>1059.98</v>
+        <f aca="false">(C17+E17+G17+I17)*$K$23+(D17+F17+H17+J17)*$K$23+K17*$H$23+L17*$E$23</f>
+        <v>969.981875</v>
       </c>
       <c r="N17" s="17" t="n">
         <f aca="false">N16+M17</f>
-        <v>7219.85</v>
+        <v>6859.86125</v>
       </c>
       <c r="O17" s="0"/>
       <c r="P17" s="0"/>
@@ -18160,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="13" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E18" s="12" t="n">
         <v>0</v>
@@ -18172,27 +18185,28 @@
         <v>0</v>
       </c>
       <c r="H18" s="13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I18" s="12" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="13" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K18" s="14" t="n">
-        <v>16</v>
+        <f aca="false">SUM(C18:J18)</f>
+        <v>15.5</v>
       </c>
       <c r="L18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="16" t="n">
-        <f aca="false">(C18+E18+G18+I18)*$K$27+(D18+F18+H18+J18)*$K$27+K18*$H$27+L18*$E$27</f>
-        <v>959.98</v>
+        <f aca="false">(C18+E18+G18+I18)*$K$23+(D18+F18+H18+J18)*$K$23+K18*$H$23+L18*$E$23</f>
+        <v>929.980625</v>
       </c>
       <c r="N18" s="17" t="n">
         <f aca="false">N17+M18</f>
-        <v>8179.83</v>
+        <v>7789.841875</v>
       </c>
       <c r="O18" s="0"/>
       <c r="P18" s="0"/>
@@ -19214,39 +19228,40 @@
         <v>0</v>
       </c>
       <c r="D19" s="13" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E19" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="12" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K19" s="14" t="n">
-        <v>14</v>
+        <f aca="false">SUM(C19:J19)</f>
+        <v>8.5</v>
       </c>
       <c r="L19" s="15" t="n">
         <v>0</v>
       </c>
       <c r="M19" s="16" t="n">
-        <f aca="false">(C19+E19+G19+I19)*$K$27+(D19+F19+H19+J19)*$K$27+K19*$H$27+L19*$E$27</f>
-        <v>939.98</v>
+        <f aca="false">(C19+E19+G19+I19)*$K$23+(D19+F19+H19+J19)*$K$23+K19*$H$23+L19*$E$23</f>
+        <v>509.989375</v>
       </c>
       <c r="N19" s="17" t="n">
         <f aca="false">N18+M19</f>
-        <v>9119.81</v>
+        <v>8299.83125</v>
       </c>
       <c r="O19" s="0"/>
       <c r="P19" s="0"/>
@@ -20268,39 +20283,40 @@
         <v>0</v>
       </c>
       <c r="D20" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20" s="12" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K20" s="14" t="n">
-        <v>16</v>
+        <f aca="false">SUM(C20:J20)</f>
+        <v>8</v>
       </c>
       <c r="L20" s="15" t="n">
         <v>1</v>
       </c>
       <c r="M20" s="16" t="n">
-        <f aca="false">(C20+E20+G20+I20)*$K$27+(D20+F20+H20+J20)*$K$27+K20*$H$27+L20*$E$27</f>
-        <v>1059.98</v>
+        <f aca="false">(C20+E20+G20+I20)*$K$23+(D20+F20+H20+J20)*$K$23+K20*$H$23+L20*$E$23</f>
+        <v>579.99</v>
       </c>
       <c r="N20" s="17" t="n">
         <f aca="false">N19+M20</f>
-        <v>10179.79</v>
+        <v>8879.82125</v>
       </c>
       <c r="O20" s="0"/>
       <c r="P20" s="0"/>
@@ -21313,48 +21329,55 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
-      <c r="B21" s="11" t="n">
-        <v>42723</v>
-      </c>
-      <c r="C21" s="12" t="n">
+      <c r="B21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="19" t="n">
+        <f aca="false">SUM(C9:C20)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" s="12" t="n">
+      <c r="D21" s="19" t="n">
+        <f aca="false">SUM(D9:D20)</f>
+        <v>35.5</v>
+      </c>
+      <c r="E21" s="19" t="n">
+        <f aca="false">SUM(E9:E20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G21" s="12" t="n">
+      <c r="F21" s="19" t="n">
+        <f aca="false">SUM(F9:F20)</f>
+        <v>35</v>
+      </c>
+      <c r="G21" s="19" t="n">
+        <f aca="false">SUM(G9:G20)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I21" s="12" t="n">
+      <c r="H21" s="19" t="n">
+        <f aca="false">SUM(H9:H20)</f>
+        <v>37</v>
+      </c>
+      <c r="I21" s="19" t="n">
+        <f aca="false">SUM(I9:I20)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="K21" s="14" t="n">
-        <v>16</v>
-      </c>
-      <c r="L21" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="16" t="n">
-        <f aca="false">(C21+E21+G21+I21)*$K$27+(D21+F21+H21+J21)*$K$27+K21*$H$27+L21*$E$27</f>
-        <v>959.98</v>
-      </c>
-      <c r="N21" s="17" t="n">
-        <f aca="false">N20+M21</f>
-        <v>11139.77</v>
+      <c r="J21" s="19" t="n">
+        <f aca="false">SUM(J9:J20)</f>
+        <v>35.5</v>
+      </c>
+      <c r="K21" s="19" t="n">
+        <f aca="false">SUM(K9:K20)</f>
+        <v>143</v>
+      </c>
+      <c r="L21" s="19" t="n">
+        <f aca="false">SUM(L9:L20)</f>
+        <v>3</v>
+      </c>
+      <c r="M21" s="20"/>
+      <c r="N21" s="21" t="n">
+        <f aca="false">N20</f>
+        <v>8879.82125</v>
       </c>
       <c r="O21" s="0"/>
       <c r="P21" s="0"/>
@@ -22367,49 +22390,21 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
-      <c r="B22" s="11" t="n">
-        <v>42730</v>
-      </c>
-      <c r="C22" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E22" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G22" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="I22" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K22" s="14" t="n">
-        <v>14</v>
-      </c>
-      <c r="L22" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="16" t="n">
-        <f aca="false">(C22+E22+G22+I22)*$K$27+(D22+F22+H22+J22)*$K$27+K22*$H$27+L22*$E$27</f>
-        <v>1339.97</v>
-      </c>
-      <c r="N22" s="17" t="n">
-        <f aca="false">N21+M22</f>
-        <v>12479.74</v>
-      </c>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
       <c r="O22" s="0"/>
       <c r="P22" s="0"/>
       <c r="Q22" s="0"/>
@@ -23421,49 +23416,34 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
-      <c r="B23" s="11" t="n">
-        <v>42737</v>
-      </c>
-      <c r="C23" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E23" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G23" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="I23" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K23" s="14" t="n">
+      <c r="B23" s="0"/>
+      <c r="C23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="16" t="n">
-        <f aca="false">(C23+E23+G23+I23)*$K$27+(D23+F23+H23+J23)*$K$27+K23*$H$27+L23*$E$27</f>
-        <v>1459.97</v>
-      </c>
-      <c r="N23" s="17" t="n">
-        <f aca="false">N22+M23</f>
-        <v>13939.71</v>
-      </c>
+      <c r="J23" s="22"/>
+      <c r="K23" s="24" t="n">
+        <f aca="false">'Taux horaire d''un technicien'!E15</f>
+        <v>49.99875</v>
+      </c>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
       <c r="O23" s="0"/>
       <c r="P23" s="0"/>
       <c r="Q23" s="0"/>
@@ -24475,49 +24455,21 @@
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0"/>
-      <c r="B24" s="11" t="n">
-        <v>42744</v>
-      </c>
-      <c r="C24" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E24" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G24" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="I24" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K24" s="14" t="n">
-        <v>14</v>
-      </c>
-      <c r="L24" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="16" t="n">
-        <f aca="false">(C24+E24+G24+I24)*$K$27+(D24+F24+H24+J24)*$K$27+K24*$H$27+L24*$E$27</f>
-        <v>1339.97</v>
-      </c>
-      <c r="N24" s="17" t="n">
-        <f aca="false">N23+M24</f>
-        <v>15279.68</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="0"/>
       <c r="O24" s="0"/>
       <c r="P24" s="0"/>
       <c r="Q24" s="0"/>
@@ -25529,4171 +25481,143 @@
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="19" t="n">
-        <f aca="false">SUM(C9:C24)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="19" t="n">
-        <f aca="false">SUM(D9:D24)</f>
-        <v>64</v>
-      </c>
-      <c r="E25" s="19" t="n">
-        <f aca="false">SUM(E9:E24)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="19" t="n">
-        <f aca="false">SUM(F9:F24)</f>
-        <v>64</v>
-      </c>
-      <c r="G25" s="19" t="n">
-        <f aca="false">SUM(G9:G24)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="19" t="n">
-        <f aca="false">SUM(H9:H24)</f>
-        <v>64</v>
-      </c>
-      <c r="I25" s="19" t="n">
-        <f aca="false">SUM(I9:I24)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="19" t="n">
-        <f aca="false">SUM(J9:J24)</f>
-        <v>64</v>
-      </c>
-      <c r="K25" s="19" t="n">
-        <f aca="false">SUM(K9:K24)</f>
-        <v>208</v>
-      </c>
-      <c r="L25" s="19" t="n">
-        <f aca="false">SUM(L9:L24)</f>
-        <v>4</v>
-      </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21" t="n">
-        <f aca="false">N24</f>
-        <v>15279.68</v>
-      </c>
-      <c r="O25" s="0"/>
-      <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
-      <c r="R25" s="0"/>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0"/>
-      <c r="U25" s="0"/>
-      <c r="V25" s="0"/>
-      <c r="W25" s="0"/>
-      <c r="X25" s="0"/>
-      <c r="Y25" s="0"/>
-      <c r="Z25" s="0"/>
-      <c r="AA25" s="0"/>
-      <c r="AB25" s="0"/>
-      <c r="AC25" s="0"/>
-      <c r="AD25" s="0"/>
-      <c r="AE25" s="0"/>
-      <c r="AF25" s="0"/>
-      <c r="AG25" s="0"/>
-      <c r="AH25" s="0"/>
-      <c r="AI25" s="0"/>
-      <c r="AJ25" s="0"/>
-      <c r="AK25" s="0"/>
-      <c r="AL25" s="0"/>
-      <c r="AM25" s="0"/>
-      <c r="AN25" s="0"/>
-      <c r="AO25" s="0"/>
-      <c r="AP25" s="0"/>
-      <c r="AQ25" s="0"/>
-      <c r="AR25" s="0"/>
-      <c r="AS25" s="0"/>
-      <c r="AT25" s="0"/>
-      <c r="AU25" s="0"/>
-      <c r="AV25" s="0"/>
-      <c r="AW25" s="0"/>
-      <c r="AX25" s="0"/>
-      <c r="AY25" s="0"/>
-      <c r="AZ25" s="0"/>
-      <c r="BA25" s="0"/>
-      <c r="BB25" s="0"/>
-      <c r="BC25" s="0"/>
-      <c r="BD25" s="0"/>
-      <c r="BE25" s="0"/>
-      <c r="BF25" s="0"/>
-      <c r="BG25" s="0"/>
-      <c r="BH25" s="0"/>
-      <c r="BI25" s="0"/>
-      <c r="BJ25" s="0"/>
-      <c r="BK25" s="0"/>
-      <c r="BL25" s="0"/>
-      <c r="BM25" s="0"/>
-      <c r="BN25" s="0"/>
-      <c r="BO25" s="0"/>
-      <c r="BP25" s="0"/>
-      <c r="BQ25" s="0"/>
-      <c r="BR25" s="0"/>
-      <c r="BS25" s="0"/>
-      <c r="BT25" s="0"/>
-      <c r="BU25" s="0"/>
-      <c r="BV25" s="0"/>
-      <c r="BW25" s="0"/>
-      <c r="BX25" s="0"/>
-      <c r="BY25" s="0"/>
-      <c r="BZ25" s="0"/>
-      <c r="CA25" s="0"/>
-      <c r="CB25" s="0"/>
-      <c r="CC25" s="0"/>
-      <c r="CD25" s="0"/>
-      <c r="CE25" s="0"/>
-      <c r="CF25" s="0"/>
-      <c r="CG25" s="0"/>
-      <c r="CH25" s="0"/>
-      <c r="CI25" s="0"/>
-      <c r="CJ25" s="0"/>
-      <c r="CK25" s="0"/>
-      <c r="CL25" s="0"/>
-      <c r="CM25" s="0"/>
-      <c r="CN25" s="0"/>
-      <c r="CO25" s="0"/>
-      <c r="CP25" s="0"/>
-      <c r="CQ25" s="0"/>
-      <c r="CR25" s="0"/>
-      <c r="CS25" s="0"/>
-      <c r="CT25" s="0"/>
-      <c r="CU25" s="0"/>
-      <c r="CV25" s="0"/>
-      <c r="CW25" s="0"/>
-      <c r="CX25" s="0"/>
-      <c r="CY25" s="0"/>
-      <c r="CZ25" s="0"/>
-      <c r="DA25" s="0"/>
-      <c r="DB25" s="0"/>
-      <c r="DC25" s="0"/>
-      <c r="DD25" s="0"/>
-      <c r="DE25" s="0"/>
-      <c r="DF25" s="0"/>
-      <c r="DG25" s="0"/>
-      <c r="DH25" s="0"/>
-      <c r="DI25" s="0"/>
-      <c r="DJ25" s="0"/>
-      <c r="DK25" s="0"/>
-      <c r="DL25" s="0"/>
-      <c r="DM25" s="0"/>
-      <c r="DN25" s="0"/>
-      <c r="DO25" s="0"/>
-      <c r="DP25" s="0"/>
-      <c r="DQ25" s="0"/>
-      <c r="DR25" s="0"/>
-      <c r="DS25" s="0"/>
-      <c r="DT25" s="0"/>
-      <c r="DU25" s="0"/>
-      <c r="DV25" s="0"/>
-      <c r="DW25" s="0"/>
-      <c r="DX25" s="0"/>
-      <c r="DY25" s="0"/>
-      <c r="DZ25" s="0"/>
-      <c r="EA25" s="0"/>
-      <c r="EB25" s="0"/>
-      <c r="EC25" s="0"/>
-      <c r="ED25" s="0"/>
-      <c r="EE25" s="0"/>
-      <c r="EF25" s="0"/>
-      <c r="EG25" s="0"/>
-      <c r="EH25" s="0"/>
-      <c r="EI25" s="0"/>
-      <c r="EJ25" s="0"/>
-      <c r="EK25" s="0"/>
-      <c r="EL25" s="0"/>
-      <c r="EM25" s="0"/>
-      <c r="EN25" s="0"/>
-      <c r="EO25" s="0"/>
-      <c r="EP25" s="0"/>
-      <c r="EQ25" s="0"/>
-      <c r="ER25" s="0"/>
-      <c r="ES25" s="0"/>
-      <c r="ET25" s="0"/>
-      <c r="EU25" s="0"/>
-      <c r="EV25" s="0"/>
-      <c r="EW25" s="0"/>
-      <c r="EX25" s="0"/>
-      <c r="EY25" s="0"/>
-      <c r="EZ25" s="0"/>
-      <c r="FA25" s="0"/>
-      <c r="FB25" s="0"/>
-      <c r="FC25" s="0"/>
-      <c r="FD25" s="0"/>
-      <c r="FE25" s="0"/>
-      <c r="FF25" s="0"/>
-      <c r="FG25" s="0"/>
-      <c r="FH25" s="0"/>
-      <c r="FI25" s="0"/>
-      <c r="FJ25" s="0"/>
-      <c r="FK25" s="0"/>
-      <c r="FL25" s="0"/>
-      <c r="FM25" s="0"/>
-      <c r="FN25" s="0"/>
-      <c r="FO25" s="0"/>
-      <c r="FP25" s="0"/>
-      <c r="FQ25" s="0"/>
-      <c r="FR25" s="0"/>
-      <c r="FS25" s="0"/>
-      <c r="FT25" s="0"/>
-      <c r="FU25" s="0"/>
-      <c r="FV25" s="0"/>
-      <c r="FW25" s="0"/>
-      <c r="FX25" s="0"/>
-      <c r="FY25" s="0"/>
-      <c r="FZ25" s="0"/>
-      <c r="GA25" s="0"/>
-      <c r="GB25" s="0"/>
-      <c r="GC25" s="0"/>
-      <c r="GD25" s="0"/>
-      <c r="GE25" s="0"/>
-      <c r="GF25" s="0"/>
-      <c r="GG25" s="0"/>
-      <c r="GH25" s="0"/>
-      <c r="GI25" s="0"/>
-      <c r="GJ25" s="0"/>
-      <c r="GK25" s="0"/>
-      <c r="GL25" s="0"/>
-      <c r="GM25" s="0"/>
-      <c r="GN25" s="0"/>
-      <c r="GO25" s="0"/>
-      <c r="GP25" s="0"/>
-      <c r="GQ25" s="0"/>
-      <c r="GR25" s="0"/>
-      <c r="GS25" s="0"/>
-      <c r="GT25" s="0"/>
-      <c r="GU25" s="0"/>
-      <c r="GV25" s="0"/>
-      <c r="GW25" s="0"/>
-      <c r="GX25" s="0"/>
-      <c r="GY25" s="0"/>
-      <c r="GZ25" s="0"/>
-      <c r="HA25" s="0"/>
-      <c r="HB25" s="0"/>
-      <c r="HC25" s="0"/>
-      <c r="HD25" s="0"/>
-      <c r="HE25" s="0"/>
-      <c r="HF25" s="0"/>
-      <c r="HG25" s="0"/>
-      <c r="HH25" s="0"/>
-      <c r="HI25" s="0"/>
-      <c r="HJ25" s="0"/>
-      <c r="HK25" s="0"/>
-      <c r="HL25" s="0"/>
-      <c r="HM25" s="0"/>
-      <c r="HN25" s="0"/>
-      <c r="HO25" s="0"/>
-      <c r="HP25" s="0"/>
-      <c r="HQ25" s="0"/>
-      <c r="HR25" s="0"/>
-      <c r="HS25" s="0"/>
-      <c r="HT25" s="0"/>
-      <c r="HU25" s="0"/>
-      <c r="HV25" s="0"/>
-      <c r="HW25" s="0"/>
-      <c r="HX25" s="0"/>
-      <c r="HY25" s="0"/>
-      <c r="HZ25" s="0"/>
-      <c r="IA25" s="0"/>
-      <c r="IB25" s="0"/>
-      <c r="IC25" s="0"/>
-      <c r="ID25" s="0"/>
-      <c r="IE25" s="0"/>
-      <c r="IF25" s="0"/>
-      <c r="IG25" s="0"/>
-      <c r="IH25" s="0"/>
-      <c r="II25" s="0"/>
-      <c r="IJ25" s="0"/>
-      <c r="IK25" s="0"/>
-      <c r="IL25" s="0"/>
-      <c r="IM25" s="0"/>
-      <c r="IN25" s="0"/>
-      <c r="IO25" s="0"/>
-      <c r="IP25" s="0"/>
-      <c r="IQ25" s="0"/>
-      <c r="IR25" s="0"/>
-      <c r="IS25" s="0"/>
-      <c r="IT25" s="0"/>
-      <c r="IU25" s="0"/>
-      <c r="IV25" s="0"/>
-      <c r="IW25" s="0"/>
-      <c r="IX25" s="0"/>
-      <c r="IY25" s="0"/>
-      <c r="IZ25" s="0"/>
-      <c r="JA25" s="0"/>
-      <c r="JB25" s="0"/>
-      <c r="JC25" s="0"/>
-      <c r="JD25" s="0"/>
-      <c r="JE25" s="0"/>
-      <c r="JF25" s="0"/>
-      <c r="JG25" s="0"/>
-      <c r="JH25" s="0"/>
-      <c r="JI25" s="0"/>
-      <c r="JJ25" s="0"/>
-      <c r="JK25" s="0"/>
-      <c r="JL25" s="0"/>
-      <c r="JM25" s="0"/>
-      <c r="JN25" s="0"/>
-      <c r="JO25" s="0"/>
-      <c r="JP25" s="0"/>
-      <c r="JQ25" s="0"/>
-      <c r="JR25" s="0"/>
-      <c r="JS25" s="0"/>
-      <c r="JT25" s="0"/>
-      <c r="JU25" s="0"/>
-      <c r="JV25" s="0"/>
-      <c r="JW25" s="0"/>
-      <c r="JX25" s="0"/>
-      <c r="JY25" s="0"/>
-      <c r="JZ25" s="0"/>
-      <c r="KA25" s="0"/>
-      <c r="KB25" s="0"/>
-      <c r="KC25" s="0"/>
-      <c r="KD25" s="0"/>
-      <c r="KE25" s="0"/>
-      <c r="KF25" s="0"/>
-      <c r="KG25" s="0"/>
-      <c r="KH25" s="0"/>
-      <c r="KI25" s="0"/>
-      <c r="KJ25" s="0"/>
-      <c r="KK25" s="0"/>
-      <c r="KL25" s="0"/>
-      <c r="KM25" s="0"/>
-      <c r="KN25" s="0"/>
-      <c r="KO25" s="0"/>
-      <c r="KP25" s="0"/>
-      <c r="KQ25" s="0"/>
-      <c r="KR25" s="0"/>
-      <c r="KS25" s="0"/>
-      <c r="KT25" s="0"/>
-      <c r="KU25" s="0"/>
-      <c r="KV25" s="0"/>
-      <c r="KW25" s="0"/>
-      <c r="KX25" s="0"/>
-      <c r="KY25" s="0"/>
-      <c r="KZ25" s="0"/>
-      <c r="LA25" s="0"/>
-      <c r="LB25" s="0"/>
-      <c r="LC25" s="0"/>
-      <c r="LD25" s="0"/>
-      <c r="LE25" s="0"/>
-      <c r="LF25" s="0"/>
-      <c r="LG25" s="0"/>
-      <c r="LH25" s="0"/>
-      <c r="LI25" s="0"/>
-      <c r="LJ25" s="0"/>
-      <c r="LK25" s="0"/>
-      <c r="LL25" s="0"/>
-      <c r="LM25" s="0"/>
-      <c r="LN25" s="0"/>
-      <c r="LO25" s="0"/>
-      <c r="LP25" s="0"/>
-      <c r="LQ25" s="0"/>
-      <c r="LR25" s="0"/>
-      <c r="LS25" s="0"/>
-      <c r="LT25" s="0"/>
-      <c r="LU25" s="0"/>
-      <c r="LV25" s="0"/>
-      <c r="LW25" s="0"/>
-      <c r="LX25" s="0"/>
-      <c r="LY25" s="0"/>
-      <c r="LZ25" s="0"/>
-      <c r="MA25" s="0"/>
-      <c r="MB25" s="0"/>
-      <c r="MC25" s="0"/>
-      <c r="MD25" s="0"/>
-      <c r="ME25" s="0"/>
-      <c r="MF25" s="0"/>
-      <c r="MG25" s="0"/>
-      <c r="MH25" s="0"/>
-      <c r="MI25" s="0"/>
-      <c r="MJ25" s="0"/>
-      <c r="MK25" s="0"/>
-      <c r="ML25" s="0"/>
-      <c r="MM25" s="0"/>
-      <c r="MN25" s="0"/>
-      <c r="MO25" s="0"/>
-      <c r="MP25" s="0"/>
-      <c r="MQ25" s="0"/>
-      <c r="MR25" s="0"/>
-      <c r="MS25" s="0"/>
-      <c r="MT25" s="0"/>
-      <c r="MU25" s="0"/>
-      <c r="MV25" s="0"/>
-      <c r="MW25" s="0"/>
-      <c r="MX25" s="0"/>
-      <c r="MY25" s="0"/>
-      <c r="MZ25" s="0"/>
-      <c r="NA25" s="0"/>
-      <c r="NB25" s="0"/>
-      <c r="NC25" s="0"/>
-      <c r="ND25" s="0"/>
-      <c r="NE25" s="0"/>
-      <c r="NF25" s="0"/>
-      <c r="NG25" s="0"/>
-      <c r="NH25" s="0"/>
-      <c r="NI25" s="0"/>
-      <c r="NJ25" s="0"/>
-      <c r="NK25" s="0"/>
-      <c r="NL25" s="0"/>
-      <c r="NM25" s="0"/>
-      <c r="NN25" s="0"/>
-      <c r="NO25" s="0"/>
-      <c r="NP25" s="0"/>
-      <c r="NQ25" s="0"/>
-      <c r="NR25" s="0"/>
-      <c r="NS25" s="0"/>
-      <c r="NT25" s="0"/>
-      <c r="NU25" s="0"/>
-      <c r="NV25" s="0"/>
-      <c r="NW25" s="0"/>
-      <c r="NX25" s="0"/>
-      <c r="NY25" s="0"/>
-      <c r="NZ25" s="0"/>
-      <c r="OA25" s="0"/>
-      <c r="OB25" s="0"/>
-      <c r="OC25" s="0"/>
-      <c r="OD25" s="0"/>
-      <c r="OE25" s="0"/>
-      <c r="OF25" s="0"/>
-      <c r="OG25" s="0"/>
-      <c r="OH25" s="0"/>
-      <c r="OI25" s="0"/>
-      <c r="OJ25" s="0"/>
-      <c r="OK25" s="0"/>
-      <c r="OL25" s="0"/>
-      <c r="OM25" s="0"/>
-      <c r="ON25" s="0"/>
-      <c r="OO25" s="0"/>
-      <c r="OP25" s="0"/>
-      <c r="OQ25" s="0"/>
-      <c r="OR25" s="0"/>
-      <c r="OS25" s="0"/>
-      <c r="OT25" s="0"/>
-      <c r="OU25" s="0"/>
-      <c r="OV25" s="0"/>
-      <c r="OW25" s="0"/>
-      <c r="OX25" s="0"/>
-      <c r="OY25" s="0"/>
-      <c r="OZ25" s="0"/>
-      <c r="PA25" s="0"/>
-      <c r="PB25" s="0"/>
-      <c r="PC25" s="0"/>
-      <c r="PD25" s="0"/>
-      <c r="PE25" s="0"/>
-      <c r="PF25" s="0"/>
-      <c r="PG25" s="0"/>
-      <c r="PH25" s="0"/>
-      <c r="PI25" s="0"/>
-      <c r="PJ25" s="0"/>
-      <c r="PK25" s="0"/>
-      <c r="PL25" s="0"/>
-      <c r="PM25" s="0"/>
-      <c r="PN25" s="0"/>
-      <c r="PO25" s="0"/>
-      <c r="PP25" s="0"/>
-      <c r="PQ25" s="0"/>
-      <c r="PR25" s="0"/>
-      <c r="PS25" s="0"/>
-      <c r="PT25" s="0"/>
-      <c r="PU25" s="0"/>
-      <c r="PV25" s="0"/>
-      <c r="PW25" s="0"/>
-      <c r="PX25" s="0"/>
-      <c r="PY25" s="0"/>
-      <c r="PZ25" s="0"/>
-      <c r="QA25" s="0"/>
-      <c r="QB25" s="0"/>
-      <c r="QC25" s="0"/>
-      <c r="QD25" s="0"/>
-      <c r="QE25" s="0"/>
-      <c r="QF25" s="0"/>
-      <c r="QG25" s="0"/>
-      <c r="QH25" s="0"/>
-      <c r="QI25" s="0"/>
-      <c r="QJ25" s="0"/>
-      <c r="QK25" s="0"/>
-      <c r="QL25" s="0"/>
-      <c r="QM25" s="0"/>
-      <c r="QN25" s="0"/>
-      <c r="QO25" s="0"/>
-      <c r="QP25" s="0"/>
-      <c r="QQ25" s="0"/>
-      <c r="QR25" s="0"/>
-      <c r="QS25" s="0"/>
-      <c r="QT25" s="0"/>
-      <c r="QU25" s="0"/>
-      <c r="QV25" s="0"/>
-      <c r="QW25" s="0"/>
-      <c r="QX25" s="0"/>
-      <c r="QY25" s="0"/>
-      <c r="QZ25" s="0"/>
-      <c r="RA25" s="0"/>
-      <c r="RB25" s="0"/>
-      <c r="RC25" s="0"/>
-      <c r="RD25" s="0"/>
-      <c r="RE25" s="0"/>
-      <c r="RF25" s="0"/>
-      <c r="RG25" s="0"/>
-      <c r="RH25" s="0"/>
-      <c r="RI25" s="0"/>
-      <c r="RJ25" s="0"/>
-      <c r="RK25" s="0"/>
-      <c r="RL25" s="0"/>
-      <c r="RM25" s="0"/>
-      <c r="RN25" s="0"/>
-      <c r="RO25" s="0"/>
-      <c r="RP25" s="0"/>
-      <c r="RQ25" s="0"/>
-      <c r="RR25" s="0"/>
-      <c r="RS25" s="0"/>
-      <c r="RT25" s="0"/>
-      <c r="RU25" s="0"/>
-      <c r="RV25" s="0"/>
-      <c r="RW25" s="0"/>
-      <c r="RX25" s="0"/>
-      <c r="RY25" s="0"/>
-      <c r="RZ25" s="0"/>
-      <c r="SA25" s="0"/>
-      <c r="SB25" s="0"/>
-      <c r="SC25" s="0"/>
-      <c r="SD25" s="0"/>
-      <c r="SE25" s="0"/>
-      <c r="SF25" s="0"/>
-      <c r="SG25" s="0"/>
-      <c r="SH25" s="0"/>
-      <c r="SI25" s="0"/>
-      <c r="SJ25" s="0"/>
-      <c r="SK25" s="0"/>
-      <c r="SL25" s="0"/>
-      <c r="SM25" s="0"/>
-      <c r="SN25" s="0"/>
-      <c r="SO25" s="0"/>
-      <c r="SP25" s="0"/>
-      <c r="SQ25" s="0"/>
-      <c r="SR25" s="0"/>
-      <c r="SS25" s="0"/>
-      <c r="ST25" s="0"/>
-      <c r="SU25" s="0"/>
-      <c r="SV25" s="0"/>
-      <c r="SW25" s="0"/>
-      <c r="SX25" s="0"/>
-      <c r="SY25" s="0"/>
-      <c r="SZ25" s="0"/>
-      <c r="TA25" s="0"/>
-      <c r="TB25" s="0"/>
-      <c r="TC25" s="0"/>
-      <c r="TD25" s="0"/>
-      <c r="TE25" s="0"/>
-      <c r="TF25" s="0"/>
-      <c r="TG25" s="0"/>
-      <c r="TH25" s="0"/>
-      <c r="TI25" s="0"/>
-      <c r="TJ25" s="0"/>
-      <c r="TK25" s="0"/>
-      <c r="TL25" s="0"/>
-      <c r="TM25" s="0"/>
-      <c r="TN25" s="0"/>
-      <c r="TO25" s="0"/>
-      <c r="TP25" s="0"/>
-      <c r="TQ25" s="0"/>
-      <c r="TR25" s="0"/>
-      <c r="TS25" s="0"/>
-      <c r="TT25" s="0"/>
-      <c r="TU25" s="0"/>
-      <c r="TV25" s="0"/>
-      <c r="TW25" s="0"/>
-      <c r="TX25" s="0"/>
-      <c r="TY25" s="0"/>
-      <c r="TZ25" s="0"/>
-      <c r="UA25" s="0"/>
-      <c r="UB25" s="0"/>
-      <c r="UC25" s="0"/>
-      <c r="UD25" s="0"/>
-      <c r="UE25" s="0"/>
-      <c r="UF25" s="0"/>
-      <c r="UG25" s="0"/>
-      <c r="UH25" s="0"/>
-      <c r="UI25" s="0"/>
-      <c r="UJ25" s="0"/>
-      <c r="UK25" s="0"/>
-      <c r="UL25" s="0"/>
-      <c r="UM25" s="0"/>
-      <c r="UN25" s="0"/>
-      <c r="UO25" s="0"/>
-      <c r="UP25" s="0"/>
-      <c r="UQ25" s="0"/>
-      <c r="UR25" s="0"/>
-      <c r="US25" s="0"/>
-      <c r="UT25" s="0"/>
-      <c r="UU25" s="0"/>
-      <c r="UV25" s="0"/>
-      <c r="UW25" s="0"/>
-      <c r="UX25" s="0"/>
-      <c r="UY25" s="0"/>
-      <c r="UZ25" s="0"/>
-      <c r="VA25" s="0"/>
-      <c r="VB25" s="0"/>
-      <c r="VC25" s="0"/>
-      <c r="VD25" s="0"/>
-      <c r="VE25" s="0"/>
-      <c r="VF25" s="0"/>
-      <c r="VG25" s="0"/>
-      <c r="VH25" s="0"/>
-      <c r="VI25" s="0"/>
-      <c r="VJ25" s="0"/>
-      <c r="VK25" s="0"/>
-      <c r="VL25" s="0"/>
-      <c r="VM25" s="0"/>
-      <c r="VN25" s="0"/>
-      <c r="VO25" s="0"/>
-      <c r="VP25" s="0"/>
-      <c r="VQ25" s="0"/>
-      <c r="VR25" s="0"/>
-      <c r="VS25" s="0"/>
-      <c r="VT25" s="0"/>
-      <c r="VU25" s="0"/>
-      <c r="VV25" s="0"/>
-      <c r="VW25" s="0"/>
-      <c r="VX25" s="0"/>
-      <c r="VY25" s="0"/>
-      <c r="VZ25" s="0"/>
-      <c r="WA25" s="0"/>
-      <c r="WB25" s="0"/>
-      <c r="WC25" s="0"/>
-      <c r="WD25" s="0"/>
-      <c r="WE25" s="0"/>
-      <c r="WF25" s="0"/>
-      <c r="WG25" s="0"/>
-      <c r="WH25" s="0"/>
-      <c r="WI25" s="0"/>
-      <c r="WJ25" s="0"/>
-      <c r="WK25" s="0"/>
-      <c r="WL25" s="0"/>
-      <c r="WM25" s="0"/>
-      <c r="WN25" s="0"/>
-      <c r="WO25" s="0"/>
-      <c r="WP25" s="0"/>
-      <c r="WQ25" s="0"/>
-      <c r="WR25" s="0"/>
-      <c r="WS25" s="0"/>
-      <c r="WT25" s="0"/>
-      <c r="WU25" s="0"/>
-      <c r="WV25" s="0"/>
-      <c r="WW25" s="0"/>
-      <c r="WX25" s="0"/>
-      <c r="WY25" s="0"/>
-      <c r="WZ25" s="0"/>
-      <c r="XA25" s="0"/>
-      <c r="XB25" s="0"/>
-      <c r="XC25" s="0"/>
-      <c r="XD25" s="0"/>
-      <c r="XE25" s="0"/>
-      <c r="XF25" s="0"/>
-      <c r="XG25" s="0"/>
-      <c r="XH25" s="0"/>
-      <c r="XI25" s="0"/>
-      <c r="XJ25" s="0"/>
-      <c r="XK25" s="0"/>
-      <c r="XL25" s="0"/>
-      <c r="XM25" s="0"/>
-      <c r="XN25" s="0"/>
-      <c r="XO25" s="0"/>
-      <c r="XP25" s="0"/>
-      <c r="XQ25" s="0"/>
-      <c r="XR25" s="0"/>
-      <c r="XS25" s="0"/>
-      <c r="XT25" s="0"/>
-      <c r="XU25" s="0"/>
-      <c r="XV25" s="0"/>
-      <c r="XW25" s="0"/>
-      <c r="XX25" s="0"/>
-      <c r="XY25" s="0"/>
-      <c r="XZ25" s="0"/>
-      <c r="YA25" s="0"/>
-      <c r="YB25" s="0"/>
-      <c r="YC25" s="0"/>
-      <c r="YD25" s="0"/>
-      <c r="YE25" s="0"/>
-      <c r="YF25" s="0"/>
-      <c r="YG25" s="0"/>
-      <c r="YH25" s="0"/>
-      <c r="YI25" s="0"/>
-      <c r="YJ25" s="0"/>
-      <c r="YK25" s="0"/>
-      <c r="YL25" s="0"/>
-      <c r="YM25" s="0"/>
-      <c r="YN25" s="0"/>
-      <c r="YO25" s="0"/>
-      <c r="YP25" s="0"/>
-      <c r="YQ25" s="0"/>
-      <c r="YR25" s="0"/>
-      <c r="YS25" s="0"/>
-      <c r="YT25" s="0"/>
-      <c r="YU25" s="0"/>
-      <c r="YV25" s="0"/>
-      <c r="YW25" s="0"/>
-      <c r="YX25" s="0"/>
-      <c r="YY25" s="0"/>
-      <c r="YZ25" s="0"/>
-      <c r="ZA25" s="0"/>
-      <c r="ZB25" s="0"/>
-      <c r="ZC25" s="0"/>
-      <c r="ZD25" s="0"/>
-      <c r="ZE25" s="0"/>
-      <c r="ZF25" s="0"/>
-      <c r="ZG25" s="0"/>
-      <c r="ZH25" s="0"/>
-      <c r="ZI25" s="0"/>
-      <c r="ZJ25" s="0"/>
-      <c r="ZK25" s="0"/>
-      <c r="ZL25" s="0"/>
-      <c r="ZM25" s="0"/>
-      <c r="ZN25" s="0"/>
-      <c r="ZO25" s="0"/>
-      <c r="ZP25" s="0"/>
-      <c r="ZQ25" s="0"/>
-      <c r="ZR25" s="0"/>
-      <c r="ZS25" s="0"/>
-      <c r="ZT25" s="0"/>
-      <c r="ZU25" s="0"/>
-      <c r="ZV25" s="0"/>
-      <c r="ZW25" s="0"/>
-      <c r="ZX25" s="0"/>
-      <c r="ZY25" s="0"/>
-      <c r="ZZ25" s="0"/>
-      <c r="AAA25" s="0"/>
-      <c r="AAB25" s="0"/>
-      <c r="AAC25" s="0"/>
-      <c r="AAD25" s="0"/>
-      <c r="AAE25" s="0"/>
-      <c r="AAF25" s="0"/>
-      <c r="AAG25" s="0"/>
-      <c r="AAH25" s="0"/>
-      <c r="AAI25" s="0"/>
-      <c r="AAJ25" s="0"/>
-      <c r="AAK25" s="0"/>
-      <c r="AAL25" s="0"/>
-      <c r="AAM25" s="0"/>
-      <c r="AAN25" s="0"/>
-      <c r="AAO25" s="0"/>
-      <c r="AAP25" s="0"/>
-      <c r="AAQ25" s="0"/>
-      <c r="AAR25" s="0"/>
-      <c r="AAS25" s="0"/>
-      <c r="AAT25" s="0"/>
-      <c r="AAU25" s="0"/>
-      <c r="AAV25" s="0"/>
-      <c r="AAW25" s="0"/>
-      <c r="AAX25" s="0"/>
-      <c r="AAY25" s="0"/>
-      <c r="AAZ25" s="0"/>
-      <c r="ABA25" s="0"/>
-      <c r="ABB25" s="0"/>
-      <c r="ABC25" s="0"/>
-      <c r="ABD25" s="0"/>
-      <c r="ABE25" s="0"/>
-      <c r="ABF25" s="0"/>
-      <c r="ABG25" s="0"/>
-      <c r="ABH25" s="0"/>
-      <c r="ABI25" s="0"/>
-      <c r="ABJ25" s="0"/>
-      <c r="ABK25" s="0"/>
-      <c r="ABL25" s="0"/>
-      <c r="ABM25" s="0"/>
-      <c r="ABN25" s="0"/>
-      <c r="ABO25" s="0"/>
-      <c r="ABP25" s="0"/>
-      <c r="ABQ25" s="0"/>
-      <c r="ABR25" s="0"/>
-      <c r="ABS25" s="0"/>
-      <c r="ABT25" s="0"/>
-      <c r="ABU25" s="0"/>
-      <c r="ABV25" s="0"/>
-      <c r="ABW25" s="0"/>
-      <c r="ABX25" s="0"/>
-      <c r="ABY25" s="0"/>
-      <c r="ABZ25" s="0"/>
-      <c r="ACA25" s="0"/>
-      <c r="ACB25" s="0"/>
-      <c r="ACC25" s="0"/>
-      <c r="ACD25" s="0"/>
-      <c r="ACE25" s="0"/>
-      <c r="ACF25" s="0"/>
-      <c r="ACG25" s="0"/>
-      <c r="ACH25" s="0"/>
-      <c r="ACI25" s="0"/>
-      <c r="ACJ25" s="0"/>
-      <c r="ACK25" s="0"/>
-      <c r="ACL25" s="0"/>
-      <c r="ACM25" s="0"/>
-      <c r="ACN25" s="0"/>
-      <c r="ACO25" s="0"/>
-      <c r="ACP25" s="0"/>
-      <c r="ACQ25" s="0"/>
-      <c r="ACR25" s="0"/>
-      <c r="ACS25" s="0"/>
-      <c r="ACT25" s="0"/>
-      <c r="ACU25" s="0"/>
-      <c r="ACV25" s="0"/>
-      <c r="ACW25" s="0"/>
-      <c r="ACX25" s="0"/>
-      <c r="ACY25" s="0"/>
-      <c r="ACZ25" s="0"/>
-      <c r="ADA25" s="0"/>
-      <c r="ADB25" s="0"/>
-      <c r="ADC25" s="0"/>
-      <c r="ADD25" s="0"/>
-      <c r="ADE25" s="0"/>
-      <c r="ADF25" s="0"/>
-      <c r="ADG25" s="0"/>
-      <c r="ADH25" s="0"/>
-      <c r="ADI25" s="0"/>
-      <c r="ADJ25" s="0"/>
-      <c r="ADK25" s="0"/>
-      <c r="ADL25" s="0"/>
-      <c r="ADM25" s="0"/>
-      <c r="ADN25" s="0"/>
-      <c r="ADO25" s="0"/>
-      <c r="ADP25" s="0"/>
-      <c r="ADQ25" s="0"/>
-      <c r="ADR25" s="0"/>
-      <c r="ADS25" s="0"/>
-      <c r="ADT25" s="0"/>
-      <c r="ADU25" s="0"/>
-      <c r="ADV25" s="0"/>
-      <c r="ADW25" s="0"/>
-      <c r="ADX25" s="0"/>
-      <c r="ADY25" s="0"/>
-      <c r="ADZ25" s="0"/>
-      <c r="AEA25" s="0"/>
-      <c r="AEB25" s="0"/>
-      <c r="AEC25" s="0"/>
-      <c r="AED25" s="0"/>
-      <c r="AEE25" s="0"/>
-      <c r="AEF25" s="0"/>
-      <c r="AEG25" s="0"/>
-      <c r="AEH25" s="0"/>
-      <c r="AEI25" s="0"/>
-      <c r="AEJ25" s="0"/>
-      <c r="AEK25" s="0"/>
-      <c r="AEL25" s="0"/>
-      <c r="AEM25" s="0"/>
-      <c r="AEN25" s="0"/>
-      <c r="AEO25" s="0"/>
-      <c r="AEP25" s="0"/>
-      <c r="AEQ25" s="0"/>
-      <c r="AER25" s="0"/>
-      <c r="AES25" s="0"/>
-      <c r="AET25" s="0"/>
-      <c r="AEU25" s="0"/>
-      <c r="AEV25" s="0"/>
-      <c r="AEW25" s="0"/>
-      <c r="AEX25" s="0"/>
-      <c r="AEY25" s="0"/>
-      <c r="AEZ25" s="0"/>
-      <c r="AFA25" s="0"/>
-      <c r="AFB25" s="0"/>
-      <c r="AFC25" s="0"/>
-      <c r="AFD25" s="0"/>
-      <c r="AFE25" s="0"/>
-      <c r="AFF25" s="0"/>
-      <c r="AFG25" s="0"/>
-      <c r="AFH25" s="0"/>
-      <c r="AFI25" s="0"/>
-      <c r="AFJ25" s="0"/>
-      <c r="AFK25" s="0"/>
-      <c r="AFL25" s="0"/>
-      <c r="AFM25" s="0"/>
-      <c r="AFN25" s="0"/>
-      <c r="AFO25" s="0"/>
-      <c r="AFP25" s="0"/>
-      <c r="AFQ25" s="0"/>
-      <c r="AFR25" s="0"/>
-      <c r="AFS25" s="0"/>
-      <c r="AFT25" s="0"/>
-      <c r="AFU25" s="0"/>
-      <c r="AFV25" s="0"/>
-      <c r="AFW25" s="0"/>
-      <c r="AFX25" s="0"/>
-      <c r="AFY25" s="0"/>
-      <c r="AFZ25" s="0"/>
-      <c r="AGA25" s="0"/>
-      <c r="AGB25" s="0"/>
-      <c r="AGC25" s="0"/>
-      <c r="AGD25" s="0"/>
-      <c r="AGE25" s="0"/>
-      <c r="AGF25" s="0"/>
-      <c r="AGG25" s="0"/>
-      <c r="AGH25" s="0"/>
-      <c r="AGI25" s="0"/>
-      <c r="AGJ25" s="0"/>
-      <c r="AGK25" s="0"/>
-      <c r="AGL25" s="0"/>
-      <c r="AGM25" s="0"/>
-      <c r="AGN25" s="0"/>
-      <c r="AGO25" s="0"/>
-      <c r="AGP25" s="0"/>
-      <c r="AGQ25" s="0"/>
-      <c r="AGR25" s="0"/>
-      <c r="AGS25" s="0"/>
-      <c r="AGT25" s="0"/>
-      <c r="AGU25" s="0"/>
-      <c r="AGV25" s="0"/>
-      <c r="AGW25" s="0"/>
-      <c r="AGX25" s="0"/>
-      <c r="AGY25" s="0"/>
-      <c r="AGZ25" s="0"/>
-      <c r="AHA25" s="0"/>
-      <c r="AHB25" s="0"/>
-      <c r="AHC25" s="0"/>
-      <c r="AHD25" s="0"/>
-      <c r="AHE25" s="0"/>
-      <c r="AHF25" s="0"/>
-      <c r="AHG25" s="0"/>
-      <c r="AHH25" s="0"/>
-      <c r="AHI25" s="0"/>
-      <c r="AHJ25" s="0"/>
-      <c r="AHK25" s="0"/>
-      <c r="AHL25" s="0"/>
-      <c r="AHM25" s="0"/>
-      <c r="AHN25" s="0"/>
-      <c r="AHO25" s="0"/>
-      <c r="AHP25" s="0"/>
-      <c r="AHQ25" s="0"/>
-      <c r="AHR25" s="0"/>
-      <c r="AHS25" s="0"/>
-      <c r="AHT25" s="0"/>
-      <c r="AHU25" s="0"/>
-      <c r="AHV25" s="0"/>
-      <c r="AHW25" s="0"/>
-      <c r="AHX25" s="0"/>
-      <c r="AHY25" s="0"/>
-      <c r="AHZ25" s="0"/>
-      <c r="AIA25" s="0"/>
-      <c r="AIB25" s="0"/>
-      <c r="AIC25" s="0"/>
-      <c r="AID25" s="0"/>
-      <c r="AIE25" s="0"/>
-      <c r="AIF25" s="0"/>
-      <c r="AIG25" s="0"/>
-      <c r="AIH25" s="0"/>
-      <c r="AII25" s="0"/>
-      <c r="AIJ25" s="0"/>
-      <c r="AIK25" s="0"/>
-      <c r="AIL25" s="0"/>
-      <c r="AIM25" s="0"/>
-      <c r="AIN25" s="0"/>
-      <c r="AIO25" s="0"/>
-      <c r="AIP25" s="0"/>
-      <c r="AIQ25" s="0"/>
-      <c r="AIR25" s="0"/>
-      <c r="AIS25" s="0"/>
-      <c r="AIT25" s="0"/>
-      <c r="AIU25" s="0"/>
-      <c r="AIV25" s="0"/>
-      <c r="AIW25" s="0"/>
-      <c r="AIX25" s="0"/>
-      <c r="AIY25" s="0"/>
-      <c r="AIZ25" s="0"/>
-      <c r="AJA25" s="0"/>
-      <c r="AJB25" s="0"/>
-      <c r="AJC25" s="0"/>
-      <c r="AJD25" s="0"/>
-      <c r="AJE25" s="0"/>
-      <c r="AJF25" s="0"/>
-      <c r="AJG25" s="0"/>
-      <c r="AJH25" s="0"/>
-      <c r="AJI25" s="0"/>
-      <c r="AJJ25" s="0"/>
-      <c r="AJK25" s="0"/>
-      <c r="AJL25" s="0"/>
-      <c r="AJM25" s="0"/>
-      <c r="AJN25" s="0"/>
-      <c r="AJO25" s="0"/>
-      <c r="AJP25" s="0"/>
-      <c r="AJQ25" s="0"/>
-      <c r="AJR25" s="0"/>
-      <c r="AJS25" s="0"/>
-      <c r="AJT25" s="0"/>
-      <c r="AJU25" s="0"/>
-      <c r="AJV25" s="0"/>
-      <c r="AJW25" s="0"/>
-      <c r="AJX25" s="0"/>
-      <c r="AJY25" s="0"/>
-      <c r="AJZ25" s="0"/>
-      <c r="AKA25" s="0"/>
-      <c r="AKB25" s="0"/>
-      <c r="AKC25" s="0"/>
-      <c r="AKD25" s="0"/>
-      <c r="AKE25" s="0"/>
-      <c r="AKF25" s="0"/>
-      <c r="AKG25" s="0"/>
-      <c r="AKH25" s="0"/>
-      <c r="AKI25" s="0"/>
-      <c r="AKJ25" s="0"/>
-      <c r="AKK25" s="0"/>
-      <c r="AKL25" s="0"/>
-      <c r="AKM25" s="0"/>
-      <c r="AKN25" s="0"/>
-      <c r="AKO25" s="0"/>
-      <c r="AKP25" s="0"/>
-      <c r="AKQ25" s="0"/>
-      <c r="AKR25" s="0"/>
-      <c r="AKS25" s="0"/>
-      <c r="AKT25" s="0"/>
-      <c r="AKU25" s="0"/>
-      <c r="AKV25" s="0"/>
-      <c r="AKW25" s="0"/>
-      <c r="AKX25" s="0"/>
-      <c r="AKY25" s="0"/>
-      <c r="AKZ25" s="0"/>
-      <c r="ALA25" s="0"/>
-      <c r="ALB25" s="0"/>
-      <c r="ALC25" s="0"/>
-      <c r="ALD25" s="0"/>
-      <c r="ALE25" s="0"/>
-      <c r="ALF25" s="0"/>
-      <c r="ALG25" s="0"/>
-      <c r="ALH25" s="0"/>
-      <c r="ALI25" s="0"/>
-      <c r="ALJ25" s="0"/>
-      <c r="ALK25" s="0"/>
-      <c r="ALL25" s="0"/>
-      <c r="ALM25" s="0"/>
-      <c r="ALN25" s="0"/>
-      <c r="ALO25" s="0"/>
-      <c r="ALP25" s="0"/>
-      <c r="ALQ25" s="0"/>
-      <c r="ALR25" s="0"/>
-      <c r="ALS25" s="0"/>
-      <c r="ALT25" s="0"/>
-      <c r="ALU25" s="0"/>
-      <c r="ALV25" s="0"/>
-      <c r="ALW25" s="0"/>
-      <c r="ALX25" s="0"/>
-      <c r="ALY25" s="0"/>
-      <c r="ALZ25" s="0"/>
-      <c r="AMA25" s="0"/>
-      <c r="AMB25" s="0"/>
-      <c r="AMC25" s="0"/>
-      <c r="AMD25" s="0"/>
-      <c r="AME25" s="0"/>
-      <c r="AMF25" s="0"/>
-      <c r="AMG25" s="0"/>
-      <c r="AMH25" s="0"/>
-      <c r="AMI25" s="0"/>
-      <c r="AMJ25" s="0"/>
+    <row r="25" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-      <c r="M26" s="0"/>
-      <c r="N26" s="0"/>
-      <c r="O26" s="0"/>
-      <c r="P26" s="0"/>
-      <c r="Q26" s="0"/>
-      <c r="R26" s="0"/>
-      <c r="S26" s="0"/>
-      <c r="T26" s="0"/>
-      <c r="U26" s="0"/>
-      <c r="V26" s="0"/>
-      <c r="W26" s="0"/>
-      <c r="X26" s="0"/>
-      <c r="Y26" s="0"/>
-      <c r="Z26" s="0"/>
-      <c r="AA26" s="0"/>
-      <c r="AB26" s="0"/>
-      <c r="AC26" s="0"/>
-      <c r="AD26" s="0"/>
-      <c r="AE26" s="0"/>
-      <c r="AF26" s="0"/>
-      <c r="AG26" s="0"/>
-      <c r="AH26" s="0"/>
-      <c r="AI26" s="0"/>
-      <c r="AJ26" s="0"/>
-      <c r="AK26" s="0"/>
-      <c r="AL26" s="0"/>
-      <c r="AM26" s="0"/>
-      <c r="AN26" s="0"/>
-      <c r="AO26" s="0"/>
-      <c r="AP26" s="0"/>
-      <c r="AQ26" s="0"/>
-      <c r="AR26" s="0"/>
-      <c r="AS26" s="0"/>
-      <c r="AT26" s="0"/>
-      <c r="AU26" s="0"/>
-      <c r="AV26" s="0"/>
-      <c r="AW26" s="0"/>
-      <c r="AX26" s="0"/>
-      <c r="AY26" s="0"/>
-      <c r="AZ26" s="0"/>
-      <c r="BA26" s="0"/>
-      <c r="BB26" s="0"/>
-      <c r="BC26" s="0"/>
-      <c r="BD26" s="0"/>
-      <c r="BE26" s="0"/>
-      <c r="BF26" s="0"/>
-      <c r="BG26" s="0"/>
-      <c r="BH26" s="0"/>
-      <c r="BI26" s="0"/>
-      <c r="BJ26" s="0"/>
-      <c r="BK26" s="0"/>
-      <c r="BL26" s="0"/>
-      <c r="BM26" s="0"/>
-      <c r="BN26" s="0"/>
-      <c r="BO26" s="0"/>
-      <c r="BP26" s="0"/>
-      <c r="BQ26" s="0"/>
-      <c r="BR26" s="0"/>
-      <c r="BS26" s="0"/>
-      <c r="BT26" s="0"/>
-      <c r="BU26" s="0"/>
-      <c r="BV26" s="0"/>
-      <c r="BW26" s="0"/>
-      <c r="BX26" s="0"/>
-      <c r="BY26" s="0"/>
-      <c r="BZ26" s="0"/>
-      <c r="CA26" s="0"/>
-      <c r="CB26" s="0"/>
-      <c r="CC26" s="0"/>
-      <c r="CD26" s="0"/>
-      <c r="CE26" s="0"/>
-      <c r="CF26" s="0"/>
-      <c r="CG26" s="0"/>
-      <c r="CH26" s="0"/>
-      <c r="CI26" s="0"/>
-      <c r="CJ26" s="0"/>
-      <c r="CK26" s="0"/>
-      <c r="CL26" s="0"/>
-      <c r="CM26" s="0"/>
-      <c r="CN26" s="0"/>
-      <c r="CO26" s="0"/>
-      <c r="CP26" s="0"/>
-      <c r="CQ26" s="0"/>
-      <c r="CR26" s="0"/>
-      <c r="CS26" s="0"/>
-      <c r="CT26" s="0"/>
-      <c r="CU26" s="0"/>
-      <c r="CV26" s="0"/>
-      <c r="CW26" s="0"/>
-      <c r="CX26" s="0"/>
-      <c r="CY26" s="0"/>
-      <c r="CZ26" s="0"/>
-      <c r="DA26" s="0"/>
-      <c r="DB26" s="0"/>
-      <c r="DC26" s="0"/>
-      <c r="DD26" s="0"/>
-      <c r="DE26" s="0"/>
-      <c r="DF26" s="0"/>
-      <c r="DG26" s="0"/>
-      <c r="DH26" s="0"/>
-      <c r="DI26" s="0"/>
-      <c r="DJ26" s="0"/>
-      <c r="DK26" s="0"/>
-      <c r="DL26" s="0"/>
-      <c r="DM26" s="0"/>
-      <c r="DN26" s="0"/>
-      <c r="DO26" s="0"/>
-      <c r="DP26" s="0"/>
-      <c r="DQ26" s="0"/>
-      <c r="DR26" s="0"/>
-      <c r="DS26" s="0"/>
-      <c r="DT26" s="0"/>
-      <c r="DU26" s="0"/>
-      <c r="DV26" s="0"/>
-      <c r="DW26" s="0"/>
-      <c r="DX26" s="0"/>
-      <c r="DY26" s="0"/>
-      <c r="DZ26" s="0"/>
-      <c r="EA26" s="0"/>
-      <c r="EB26" s="0"/>
-      <c r="EC26" s="0"/>
-      <c r="ED26" s="0"/>
-      <c r="EE26" s="0"/>
-      <c r="EF26" s="0"/>
-      <c r="EG26" s="0"/>
-      <c r="EH26" s="0"/>
-      <c r="EI26" s="0"/>
-      <c r="EJ26" s="0"/>
-      <c r="EK26" s="0"/>
-      <c r="EL26" s="0"/>
-      <c r="EM26" s="0"/>
-      <c r="EN26" s="0"/>
-      <c r="EO26" s="0"/>
-      <c r="EP26" s="0"/>
-      <c r="EQ26" s="0"/>
-      <c r="ER26" s="0"/>
-      <c r="ES26" s="0"/>
-      <c r="ET26" s="0"/>
-      <c r="EU26" s="0"/>
-      <c r="EV26" s="0"/>
-      <c r="EW26" s="0"/>
-      <c r="EX26" s="0"/>
-      <c r="EY26" s="0"/>
-      <c r="EZ26" s="0"/>
-      <c r="FA26" s="0"/>
-      <c r="FB26" s="0"/>
-      <c r="FC26" s="0"/>
-      <c r="FD26" s="0"/>
-      <c r="FE26" s="0"/>
-      <c r="FF26" s="0"/>
-      <c r="FG26" s="0"/>
-      <c r="FH26" s="0"/>
-      <c r="FI26" s="0"/>
-      <c r="FJ26" s="0"/>
-      <c r="FK26" s="0"/>
-      <c r="FL26" s="0"/>
-      <c r="FM26" s="0"/>
-      <c r="FN26" s="0"/>
-      <c r="FO26" s="0"/>
-      <c r="FP26" s="0"/>
-      <c r="FQ26" s="0"/>
-      <c r="FR26" s="0"/>
-      <c r="FS26" s="0"/>
-      <c r="FT26" s="0"/>
-      <c r="FU26" s="0"/>
-      <c r="FV26" s="0"/>
-      <c r="FW26" s="0"/>
-      <c r="FX26" s="0"/>
-      <c r="FY26" s="0"/>
-      <c r="FZ26" s="0"/>
-      <c r="GA26" s="0"/>
-      <c r="GB26" s="0"/>
-      <c r="GC26" s="0"/>
-      <c r="GD26" s="0"/>
-      <c r="GE26" s="0"/>
-      <c r="GF26" s="0"/>
-      <c r="GG26" s="0"/>
-      <c r="GH26" s="0"/>
-      <c r="GI26" s="0"/>
-      <c r="GJ26" s="0"/>
-      <c r="GK26" s="0"/>
-      <c r="GL26" s="0"/>
-      <c r="GM26" s="0"/>
-      <c r="GN26" s="0"/>
-      <c r="GO26" s="0"/>
-      <c r="GP26" s="0"/>
-      <c r="GQ26" s="0"/>
-      <c r="GR26" s="0"/>
-      <c r="GS26" s="0"/>
-      <c r="GT26" s="0"/>
-      <c r="GU26" s="0"/>
-      <c r="GV26" s="0"/>
-      <c r="GW26" s="0"/>
-      <c r="GX26" s="0"/>
-      <c r="GY26" s="0"/>
-      <c r="GZ26" s="0"/>
-      <c r="HA26" s="0"/>
-      <c r="HB26" s="0"/>
-      <c r="HC26" s="0"/>
-      <c r="HD26" s="0"/>
-      <c r="HE26" s="0"/>
-      <c r="HF26" s="0"/>
-      <c r="HG26" s="0"/>
-      <c r="HH26" s="0"/>
-      <c r="HI26" s="0"/>
-      <c r="HJ26" s="0"/>
-      <c r="HK26" s="0"/>
-      <c r="HL26" s="0"/>
-      <c r="HM26" s="0"/>
-      <c r="HN26" s="0"/>
-      <c r="HO26" s="0"/>
-      <c r="HP26" s="0"/>
-      <c r="HQ26" s="0"/>
-      <c r="HR26" s="0"/>
-      <c r="HS26" s="0"/>
-      <c r="HT26" s="0"/>
-      <c r="HU26" s="0"/>
-      <c r="HV26" s="0"/>
-      <c r="HW26" s="0"/>
-      <c r="HX26" s="0"/>
-      <c r="HY26" s="0"/>
-      <c r="HZ26" s="0"/>
-      <c r="IA26" s="0"/>
-      <c r="IB26" s="0"/>
-      <c r="IC26" s="0"/>
-      <c r="ID26" s="0"/>
-      <c r="IE26" s="0"/>
-      <c r="IF26" s="0"/>
-      <c r="IG26" s="0"/>
-      <c r="IH26" s="0"/>
-      <c r="II26" s="0"/>
-      <c r="IJ26" s="0"/>
-      <c r="IK26" s="0"/>
-      <c r="IL26" s="0"/>
-      <c r="IM26" s="0"/>
-      <c r="IN26" s="0"/>
-      <c r="IO26" s="0"/>
-      <c r="IP26" s="0"/>
-      <c r="IQ26" s="0"/>
-      <c r="IR26" s="0"/>
-      <c r="IS26" s="0"/>
-      <c r="IT26" s="0"/>
-      <c r="IU26" s="0"/>
-      <c r="IV26" s="0"/>
-      <c r="IW26" s="0"/>
-      <c r="IX26" s="0"/>
-      <c r="IY26" s="0"/>
-      <c r="IZ26" s="0"/>
-      <c r="JA26" s="0"/>
-      <c r="JB26" s="0"/>
-      <c r="JC26" s="0"/>
-      <c r="JD26" s="0"/>
-      <c r="JE26" s="0"/>
-      <c r="JF26" s="0"/>
-      <c r="JG26" s="0"/>
-      <c r="JH26" s="0"/>
-      <c r="JI26" s="0"/>
-      <c r="JJ26" s="0"/>
-      <c r="JK26" s="0"/>
-      <c r="JL26" s="0"/>
-      <c r="JM26" s="0"/>
-      <c r="JN26" s="0"/>
-      <c r="JO26" s="0"/>
-      <c r="JP26" s="0"/>
-      <c r="JQ26" s="0"/>
-      <c r="JR26" s="0"/>
-      <c r="JS26" s="0"/>
-      <c r="JT26" s="0"/>
-      <c r="JU26" s="0"/>
-      <c r="JV26" s="0"/>
-      <c r="JW26" s="0"/>
-      <c r="JX26" s="0"/>
-      <c r="JY26" s="0"/>
-      <c r="JZ26" s="0"/>
-      <c r="KA26" s="0"/>
-      <c r="KB26" s="0"/>
-      <c r="KC26" s="0"/>
-      <c r="KD26" s="0"/>
-      <c r="KE26" s="0"/>
-      <c r="KF26" s="0"/>
-      <c r="KG26" s="0"/>
-      <c r="KH26" s="0"/>
-      <c r="KI26" s="0"/>
-      <c r="KJ26" s="0"/>
-      <c r="KK26" s="0"/>
-      <c r="KL26" s="0"/>
-      <c r="KM26" s="0"/>
-      <c r="KN26" s="0"/>
-      <c r="KO26" s="0"/>
-      <c r="KP26" s="0"/>
-      <c r="KQ26" s="0"/>
-      <c r="KR26" s="0"/>
-      <c r="KS26" s="0"/>
-      <c r="KT26" s="0"/>
-      <c r="KU26" s="0"/>
-      <c r="KV26" s="0"/>
-      <c r="KW26" s="0"/>
-      <c r="KX26" s="0"/>
-      <c r="KY26" s="0"/>
-      <c r="KZ26" s="0"/>
-      <c r="LA26" s="0"/>
-      <c r="LB26" s="0"/>
-      <c r="LC26" s="0"/>
-      <c r="LD26" s="0"/>
-      <c r="LE26" s="0"/>
-      <c r="LF26" s="0"/>
-      <c r="LG26" s="0"/>
-      <c r="LH26" s="0"/>
-      <c r="LI26" s="0"/>
-      <c r="LJ26" s="0"/>
-      <c r="LK26" s="0"/>
-      <c r="LL26" s="0"/>
-      <c r="LM26" s="0"/>
-      <c r="LN26" s="0"/>
-      <c r="LO26" s="0"/>
-      <c r="LP26" s="0"/>
-      <c r="LQ26" s="0"/>
-      <c r="LR26" s="0"/>
-      <c r="LS26" s="0"/>
-      <c r="LT26" s="0"/>
-      <c r="LU26" s="0"/>
-      <c r="LV26" s="0"/>
-      <c r="LW26" s="0"/>
-      <c r="LX26" s="0"/>
-      <c r="LY26" s="0"/>
-      <c r="LZ26" s="0"/>
-      <c r="MA26" s="0"/>
-      <c r="MB26" s="0"/>
-      <c r="MC26" s="0"/>
-      <c r="MD26" s="0"/>
-      <c r="ME26" s="0"/>
-      <c r="MF26" s="0"/>
-      <c r="MG26" s="0"/>
-      <c r="MH26" s="0"/>
-      <c r="MI26" s="0"/>
-      <c r="MJ26" s="0"/>
-      <c r="MK26" s="0"/>
-      <c r="ML26" s="0"/>
-      <c r="MM26" s="0"/>
-      <c r="MN26" s="0"/>
-      <c r="MO26" s="0"/>
-      <c r="MP26" s="0"/>
-      <c r="MQ26" s="0"/>
-      <c r="MR26" s="0"/>
-      <c r="MS26" s="0"/>
-      <c r="MT26" s="0"/>
-      <c r="MU26" s="0"/>
-      <c r="MV26" s="0"/>
-      <c r="MW26" s="0"/>
-      <c r="MX26" s="0"/>
-      <c r="MY26" s="0"/>
-      <c r="MZ26" s="0"/>
-      <c r="NA26" s="0"/>
-      <c r="NB26" s="0"/>
-      <c r="NC26" s="0"/>
-      <c r="ND26" s="0"/>
-      <c r="NE26" s="0"/>
-      <c r="NF26" s="0"/>
-      <c r="NG26" s="0"/>
-      <c r="NH26" s="0"/>
-      <c r="NI26" s="0"/>
-      <c r="NJ26" s="0"/>
-      <c r="NK26" s="0"/>
-      <c r="NL26" s="0"/>
-      <c r="NM26" s="0"/>
-      <c r="NN26" s="0"/>
-      <c r="NO26" s="0"/>
-      <c r="NP26" s="0"/>
-      <c r="NQ26" s="0"/>
-      <c r="NR26" s="0"/>
-      <c r="NS26" s="0"/>
-      <c r="NT26" s="0"/>
-      <c r="NU26" s="0"/>
-      <c r="NV26" s="0"/>
-      <c r="NW26" s="0"/>
-      <c r="NX26" s="0"/>
-      <c r="NY26" s="0"/>
-      <c r="NZ26" s="0"/>
-      <c r="OA26" s="0"/>
-      <c r="OB26" s="0"/>
-      <c r="OC26" s="0"/>
-      <c r="OD26" s="0"/>
-      <c r="OE26" s="0"/>
-      <c r="OF26" s="0"/>
-      <c r="OG26" s="0"/>
-      <c r="OH26" s="0"/>
-      <c r="OI26" s="0"/>
-      <c r="OJ26" s="0"/>
-      <c r="OK26" s="0"/>
-      <c r="OL26" s="0"/>
-      <c r="OM26" s="0"/>
-      <c r="ON26" s="0"/>
-      <c r="OO26" s="0"/>
-      <c r="OP26" s="0"/>
-      <c r="OQ26" s="0"/>
-      <c r="OR26" s="0"/>
-      <c r="OS26" s="0"/>
-      <c r="OT26" s="0"/>
-      <c r="OU26" s="0"/>
-      <c r="OV26" s="0"/>
-      <c r="OW26" s="0"/>
-      <c r="OX26" s="0"/>
-      <c r="OY26" s="0"/>
-      <c r="OZ26" s="0"/>
-      <c r="PA26" s="0"/>
-      <c r="PB26" s="0"/>
-      <c r="PC26" s="0"/>
-      <c r="PD26" s="0"/>
-      <c r="PE26" s="0"/>
-      <c r="PF26" s="0"/>
-      <c r="PG26" s="0"/>
-      <c r="PH26" s="0"/>
-      <c r="PI26" s="0"/>
-      <c r="PJ26" s="0"/>
-      <c r="PK26" s="0"/>
-      <c r="PL26" s="0"/>
-      <c r="PM26" s="0"/>
-      <c r="PN26" s="0"/>
-      <c r="PO26" s="0"/>
-      <c r="PP26" s="0"/>
-      <c r="PQ26" s="0"/>
-      <c r="PR26" s="0"/>
-      <c r="PS26" s="0"/>
-      <c r="PT26" s="0"/>
-      <c r="PU26" s="0"/>
-      <c r="PV26" s="0"/>
-      <c r="PW26" s="0"/>
-      <c r="PX26" s="0"/>
-      <c r="PY26" s="0"/>
-      <c r="PZ26" s="0"/>
-      <c r="QA26" s="0"/>
-      <c r="QB26" s="0"/>
-      <c r="QC26" s="0"/>
-      <c r="QD26" s="0"/>
-      <c r="QE26" s="0"/>
-      <c r="QF26" s="0"/>
-      <c r="QG26" s="0"/>
-      <c r="QH26" s="0"/>
-      <c r="QI26" s="0"/>
-      <c r="QJ26" s="0"/>
-      <c r="QK26" s="0"/>
-      <c r="QL26" s="0"/>
-      <c r="QM26" s="0"/>
-      <c r="QN26" s="0"/>
-      <c r="QO26" s="0"/>
-      <c r="QP26" s="0"/>
-      <c r="QQ26" s="0"/>
-      <c r="QR26" s="0"/>
-      <c r="QS26" s="0"/>
-      <c r="QT26" s="0"/>
-      <c r="QU26" s="0"/>
-      <c r="QV26" s="0"/>
-      <c r="QW26" s="0"/>
-      <c r="QX26" s="0"/>
-      <c r="QY26" s="0"/>
-      <c r="QZ26" s="0"/>
-      <c r="RA26" s="0"/>
-      <c r="RB26" s="0"/>
-      <c r="RC26" s="0"/>
-      <c r="RD26" s="0"/>
-      <c r="RE26" s="0"/>
-      <c r="RF26" s="0"/>
-      <c r="RG26" s="0"/>
-      <c r="RH26" s="0"/>
-      <c r="RI26" s="0"/>
-      <c r="RJ26" s="0"/>
-      <c r="RK26" s="0"/>
-      <c r="RL26" s="0"/>
-      <c r="RM26" s="0"/>
-      <c r="RN26" s="0"/>
-      <c r="RO26" s="0"/>
-      <c r="RP26" s="0"/>
-      <c r="RQ26" s="0"/>
-      <c r="RR26" s="0"/>
-      <c r="RS26" s="0"/>
-      <c r="RT26" s="0"/>
-      <c r="RU26" s="0"/>
-      <c r="RV26" s="0"/>
-      <c r="RW26" s="0"/>
-      <c r="RX26" s="0"/>
-      <c r="RY26" s="0"/>
-      <c r="RZ26" s="0"/>
-      <c r="SA26" s="0"/>
-      <c r="SB26" s="0"/>
-      <c r="SC26" s="0"/>
-      <c r="SD26" s="0"/>
-      <c r="SE26" s="0"/>
-      <c r="SF26" s="0"/>
-      <c r="SG26" s="0"/>
-      <c r="SH26" s="0"/>
-      <c r="SI26" s="0"/>
-      <c r="SJ26" s="0"/>
-      <c r="SK26" s="0"/>
-      <c r="SL26" s="0"/>
-      <c r="SM26" s="0"/>
-      <c r="SN26" s="0"/>
-      <c r="SO26" s="0"/>
-      <c r="SP26" s="0"/>
-      <c r="SQ26" s="0"/>
-      <c r="SR26" s="0"/>
-      <c r="SS26" s="0"/>
-      <c r="ST26" s="0"/>
-      <c r="SU26" s="0"/>
-      <c r="SV26" s="0"/>
-      <c r="SW26" s="0"/>
-      <c r="SX26" s="0"/>
-      <c r="SY26" s="0"/>
-      <c r="SZ26" s="0"/>
-      <c r="TA26" s="0"/>
-      <c r="TB26" s="0"/>
-      <c r="TC26" s="0"/>
-      <c r="TD26" s="0"/>
-      <c r="TE26" s="0"/>
-      <c r="TF26" s="0"/>
-      <c r="TG26" s="0"/>
-      <c r="TH26" s="0"/>
-      <c r="TI26" s="0"/>
-      <c r="TJ26" s="0"/>
-      <c r="TK26" s="0"/>
-      <c r="TL26" s="0"/>
-      <c r="TM26" s="0"/>
-      <c r="TN26" s="0"/>
-      <c r="TO26" s="0"/>
-      <c r="TP26" s="0"/>
-      <c r="TQ26" s="0"/>
-      <c r="TR26" s="0"/>
-      <c r="TS26" s="0"/>
-      <c r="TT26" s="0"/>
-      <c r="TU26" s="0"/>
-      <c r="TV26" s="0"/>
-      <c r="TW26" s="0"/>
-      <c r="TX26" s="0"/>
-      <c r="TY26" s="0"/>
-      <c r="TZ26" s="0"/>
-      <c r="UA26" s="0"/>
-      <c r="UB26" s="0"/>
-      <c r="UC26" s="0"/>
-      <c r="UD26" s="0"/>
-      <c r="UE26" s="0"/>
-      <c r="UF26" s="0"/>
-      <c r="UG26" s="0"/>
-      <c r="UH26" s="0"/>
-      <c r="UI26" s="0"/>
-      <c r="UJ26" s="0"/>
-      <c r="UK26" s="0"/>
-      <c r="UL26" s="0"/>
-      <c r="UM26" s="0"/>
-      <c r="UN26" s="0"/>
-      <c r="UO26" s="0"/>
-      <c r="UP26" s="0"/>
-      <c r="UQ26" s="0"/>
-      <c r="UR26" s="0"/>
-      <c r="US26" s="0"/>
-      <c r="UT26" s="0"/>
-      <c r="UU26" s="0"/>
-      <c r="UV26" s="0"/>
-      <c r="UW26" s="0"/>
-      <c r="UX26" s="0"/>
-      <c r="UY26" s="0"/>
-      <c r="UZ26" s="0"/>
-      <c r="VA26" s="0"/>
-      <c r="VB26" s="0"/>
-      <c r="VC26" s="0"/>
-      <c r="VD26" s="0"/>
-      <c r="VE26" s="0"/>
-      <c r="VF26" s="0"/>
-      <c r="VG26" s="0"/>
-      <c r="VH26" s="0"/>
-      <c r="VI26" s="0"/>
-      <c r="VJ26" s="0"/>
-      <c r="VK26" s="0"/>
-      <c r="VL26" s="0"/>
-      <c r="VM26" s="0"/>
-      <c r="VN26" s="0"/>
-      <c r="VO26" s="0"/>
-      <c r="VP26" s="0"/>
-      <c r="VQ26" s="0"/>
-      <c r="VR26" s="0"/>
-      <c r="VS26" s="0"/>
-      <c r="VT26" s="0"/>
-      <c r="VU26" s="0"/>
-      <c r="VV26" s="0"/>
-      <c r="VW26" s="0"/>
-      <c r="VX26" s="0"/>
-      <c r="VY26" s="0"/>
-      <c r="VZ26" s="0"/>
-      <c r="WA26" s="0"/>
-      <c r="WB26" s="0"/>
-      <c r="WC26" s="0"/>
-      <c r="WD26" s="0"/>
-      <c r="WE26" s="0"/>
-      <c r="WF26" s="0"/>
-      <c r="WG26" s="0"/>
-      <c r="WH26" s="0"/>
-      <c r="WI26" s="0"/>
-      <c r="WJ26" s="0"/>
-      <c r="WK26" s="0"/>
-      <c r="WL26" s="0"/>
-      <c r="WM26" s="0"/>
-      <c r="WN26" s="0"/>
-      <c r="WO26" s="0"/>
-      <c r="WP26" s="0"/>
-      <c r="WQ26" s="0"/>
-      <c r="WR26" s="0"/>
-      <c r="WS26" s="0"/>
-      <c r="WT26" s="0"/>
-      <c r="WU26" s="0"/>
-      <c r="WV26" s="0"/>
-      <c r="WW26" s="0"/>
-      <c r="WX26" s="0"/>
-      <c r="WY26" s="0"/>
-      <c r="WZ26" s="0"/>
-      <c r="XA26" s="0"/>
-      <c r="XB26" s="0"/>
-      <c r="XC26" s="0"/>
-      <c r="XD26" s="0"/>
-      <c r="XE26" s="0"/>
-      <c r="XF26" s="0"/>
-      <c r="XG26" s="0"/>
-      <c r="XH26" s="0"/>
-      <c r="XI26" s="0"/>
-      <c r="XJ26" s="0"/>
-      <c r="XK26" s="0"/>
-      <c r="XL26" s="0"/>
-      <c r="XM26" s="0"/>
-      <c r="XN26" s="0"/>
-      <c r="XO26" s="0"/>
-      <c r="XP26" s="0"/>
-      <c r="XQ26" s="0"/>
-      <c r="XR26" s="0"/>
-      <c r="XS26" s="0"/>
-      <c r="XT26" s="0"/>
-      <c r="XU26" s="0"/>
-      <c r="XV26" s="0"/>
-      <c r="XW26" s="0"/>
-      <c r="XX26" s="0"/>
-      <c r="XY26" s="0"/>
-      <c r="XZ26" s="0"/>
-      <c r="YA26" s="0"/>
-      <c r="YB26" s="0"/>
-      <c r="YC26" s="0"/>
-      <c r="YD26" s="0"/>
-      <c r="YE26" s="0"/>
-      <c r="YF26" s="0"/>
-      <c r="YG26" s="0"/>
-      <c r="YH26" s="0"/>
-      <c r="YI26" s="0"/>
-      <c r="YJ26" s="0"/>
-      <c r="YK26" s="0"/>
-      <c r="YL26" s="0"/>
-      <c r="YM26" s="0"/>
-      <c r="YN26" s="0"/>
-      <c r="YO26" s="0"/>
-      <c r="YP26" s="0"/>
-      <c r="YQ26" s="0"/>
-      <c r="YR26" s="0"/>
-      <c r="YS26" s="0"/>
-      <c r="YT26" s="0"/>
-      <c r="YU26" s="0"/>
-      <c r="YV26" s="0"/>
-      <c r="YW26" s="0"/>
-      <c r="YX26" s="0"/>
-      <c r="YY26" s="0"/>
-      <c r="YZ26" s="0"/>
-      <c r="ZA26" s="0"/>
-      <c r="ZB26" s="0"/>
-      <c r="ZC26" s="0"/>
-      <c r="ZD26" s="0"/>
-      <c r="ZE26" s="0"/>
-      <c r="ZF26" s="0"/>
-      <c r="ZG26" s="0"/>
-      <c r="ZH26" s="0"/>
-      <c r="ZI26" s="0"/>
-      <c r="ZJ26" s="0"/>
-      <c r="ZK26" s="0"/>
-      <c r="ZL26" s="0"/>
-      <c r="ZM26" s="0"/>
-      <c r="ZN26" s="0"/>
-      <c r="ZO26" s="0"/>
-      <c r="ZP26" s="0"/>
-      <c r="ZQ26" s="0"/>
-      <c r="ZR26" s="0"/>
-      <c r="ZS26" s="0"/>
-      <c r="ZT26" s="0"/>
-      <c r="ZU26" s="0"/>
-      <c r="ZV26" s="0"/>
-      <c r="ZW26" s="0"/>
-      <c r="ZX26" s="0"/>
-      <c r="ZY26" s="0"/>
-      <c r="ZZ26" s="0"/>
-      <c r="AAA26" s="0"/>
-      <c r="AAB26" s="0"/>
-      <c r="AAC26" s="0"/>
-      <c r="AAD26" s="0"/>
-      <c r="AAE26" s="0"/>
-      <c r="AAF26" s="0"/>
-      <c r="AAG26" s="0"/>
-      <c r="AAH26" s="0"/>
-      <c r="AAI26" s="0"/>
-      <c r="AAJ26" s="0"/>
-      <c r="AAK26" s="0"/>
-      <c r="AAL26" s="0"/>
-      <c r="AAM26" s="0"/>
-      <c r="AAN26" s="0"/>
-      <c r="AAO26" s="0"/>
-      <c r="AAP26" s="0"/>
-      <c r="AAQ26" s="0"/>
-      <c r="AAR26" s="0"/>
-      <c r="AAS26" s="0"/>
-      <c r="AAT26" s="0"/>
-      <c r="AAU26" s="0"/>
-      <c r="AAV26" s="0"/>
-      <c r="AAW26" s="0"/>
-      <c r="AAX26" s="0"/>
-      <c r="AAY26" s="0"/>
-      <c r="AAZ26" s="0"/>
-      <c r="ABA26" s="0"/>
-      <c r="ABB26" s="0"/>
-      <c r="ABC26" s="0"/>
-      <c r="ABD26" s="0"/>
-      <c r="ABE26" s="0"/>
-      <c r="ABF26" s="0"/>
-      <c r="ABG26" s="0"/>
-      <c r="ABH26" s="0"/>
-      <c r="ABI26" s="0"/>
-      <c r="ABJ26" s="0"/>
-      <c r="ABK26" s="0"/>
-      <c r="ABL26" s="0"/>
-      <c r="ABM26" s="0"/>
-      <c r="ABN26" s="0"/>
-      <c r="ABO26" s="0"/>
-      <c r="ABP26" s="0"/>
-      <c r="ABQ26" s="0"/>
-      <c r="ABR26" s="0"/>
-      <c r="ABS26" s="0"/>
-      <c r="ABT26" s="0"/>
-      <c r="ABU26" s="0"/>
-      <c r="ABV26" s="0"/>
-      <c r="ABW26" s="0"/>
-      <c r="ABX26" s="0"/>
-      <c r="ABY26" s="0"/>
-      <c r="ABZ26" s="0"/>
-      <c r="ACA26" s="0"/>
-      <c r="ACB26" s="0"/>
-      <c r="ACC26" s="0"/>
-      <c r="ACD26" s="0"/>
-      <c r="ACE26" s="0"/>
-      <c r="ACF26" s="0"/>
-      <c r="ACG26" s="0"/>
-      <c r="ACH26" s="0"/>
-      <c r="ACI26" s="0"/>
-      <c r="ACJ26" s="0"/>
-      <c r="ACK26" s="0"/>
-      <c r="ACL26" s="0"/>
-      <c r="ACM26" s="0"/>
-      <c r="ACN26" s="0"/>
-      <c r="ACO26" s="0"/>
-      <c r="ACP26" s="0"/>
-      <c r="ACQ26" s="0"/>
-      <c r="ACR26" s="0"/>
-      <c r="ACS26" s="0"/>
-      <c r="ACT26" s="0"/>
-      <c r="ACU26" s="0"/>
-      <c r="ACV26" s="0"/>
-      <c r="ACW26" s="0"/>
-      <c r="ACX26" s="0"/>
-      <c r="ACY26" s="0"/>
-      <c r="ACZ26" s="0"/>
-      <c r="ADA26" s="0"/>
-      <c r="ADB26" s="0"/>
-      <c r="ADC26" s="0"/>
-      <c r="ADD26" s="0"/>
-      <c r="ADE26" s="0"/>
-      <c r="ADF26" s="0"/>
-      <c r="ADG26" s="0"/>
-      <c r="ADH26" s="0"/>
-      <c r="ADI26" s="0"/>
-      <c r="ADJ26" s="0"/>
-      <c r="ADK26" s="0"/>
-      <c r="ADL26" s="0"/>
-      <c r="ADM26" s="0"/>
-      <c r="ADN26" s="0"/>
-      <c r="ADO26" s="0"/>
-      <c r="ADP26" s="0"/>
-      <c r="ADQ26" s="0"/>
-      <c r="ADR26" s="0"/>
-      <c r="ADS26" s="0"/>
-      <c r="ADT26" s="0"/>
-      <c r="ADU26" s="0"/>
-      <c r="ADV26" s="0"/>
-      <c r="ADW26" s="0"/>
-      <c r="ADX26" s="0"/>
-      <c r="ADY26" s="0"/>
-      <c r="ADZ26" s="0"/>
-      <c r="AEA26" s="0"/>
-      <c r="AEB26" s="0"/>
-      <c r="AEC26" s="0"/>
-      <c r="AED26" s="0"/>
-      <c r="AEE26" s="0"/>
-      <c r="AEF26" s="0"/>
-      <c r="AEG26" s="0"/>
-      <c r="AEH26" s="0"/>
-      <c r="AEI26" s="0"/>
-      <c r="AEJ26" s="0"/>
-      <c r="AEK26" s="0"/>
-      <c r="AEL26" s="0"/>
-      <c r="AEM26" s="0"/>
-      <c r="AEN26" s="0"/>
-      <c r="AEO26" s="0"/>
-      <c r="AEP26" s="0"/>
-      <c r="AEQ26" s="0"/>
-      <c r="AER26" s="0"/>
-      <c r="AES26" s="0"/>
-      <c r="AET26" s="0"/>
-      <c r="AEU26" s="0"/>
-      <c r="AEV26" s="0"/>
-      <c r="AEW26" s="0"/>
-      <c r="AEX26" s="0"/>
-      <c r="AEY26" s="0"/>
-      <c r="AEZ26" s="0"/>
-      <c r="AFA26" s="0"/>
-      <c r="AFB26" s="0"/>
-      <c r="AFC26" s="0"/>
-      <c r="AFD26" s="0"/>
-      <c r="AFE26" s="0"/>
-      <c r="AFF26" s="0"/>
-      <c r="AFG26" s="0"/>
-      <c r="AFH26" s="0"/>
-      <c r="AFI26" s="0"/>
-      <c r="AFJ26" s="0"/>
-      <c r="AFK26" s="0"/>
-      <c r="AFL26" s="0"/>
-      <c r="AFM26" s="0"/>
-      <c r="AFN26" s="0"/>
-      <c r="AFO26" s="0"/>
-      <c r="AFP26" s="0"/>
-      <c r="AFQ26" s="0"/>
-      <c r="AFR26" s="0"/>
-      <c r="AFS26" s="0"/>
-      <c r="AFT26" s="0"/>
-      <c r="AFU26" s="0"/>
-      <c r="AFV26" s="0"/>
-      <c r="AFW26" s="0"/>
-      <c r="AFX26" s="0"/>
-      <c r="AFY26" s="0"/>
-      <c r="AFZ26" s="0"/>
-      <c r="AGA26" s="0"/>
-      <c r="AGB26" s="0"/>
-      <c r="AGC26" s="0"/>
-      <c r="AGD26" s="0"/>
-      <c r="AGE26" s="0"/>
-      <c r="AGF26" s="0"/>
-      <c r="AGG26" s="0"/>
-      <c r="AGH26" s="0"/>
-      <c r="AGI26" s="0"/>
-      <c r="AGJ26" s="0"/>
-      <c r="AGK26" s="0"/>
-      <c r="AGL26" s="0"/>
-      <c r="AGM26" s="0"/>
-      <c r="AGN26" s="0"/>
-      <c r="AGO26" s="0"/>
-      <c r="AGP26" s="0"/>
-      <c r="AGQ26" s="0"/>
-      <c r="AGR26" s="0"/>
-      <c r="AGS26" s="0"/>
-      <c r="AGT26" s="0"/>
-      <c r="AGU26" s="0"/>
-      <c r="AGV26" s="0"/>
-      <c r="AGW26" s="0"/>
-      <c r="AGX26" s="0"/>
-      <c r="AGY26" s="0"/>
-      <c r="AGZ26" s="0"/>
-      <c r="AHA26" s="0"/>
-      <c r="AHB26" s="0"/>
-      <c r="AHC26" s="0"/>
-      <c r="AHD26" s="0"/>
-      <c r="AHE26" s="0"/>
-      <c r="AHF26" s="0"/>
-      <c r="AHG26" s="0"/>
-      <c r="AHH26" s="0"/>
-      <c r="AHI26" s="0"/>
-      <c r="AHJ26" s="0"/>
-      <c r="AHK26" s="0"/>
-      <c r="AHL26" s="0"/>
-      <c r="AHM26" s="0"/>
-      <c r="AHN26" s="0"/>
-      <c r="AHO26" s="0"/>
-      <c r="AHP26" s="0"/>
-      <c r="AHQ26" s="0"/>
-      <c r="AHR26" s="0"/>
-      <c r="AHS26" s="0"/>
-      <c r="AHT26" s="0"/>
-      <c r="AHU26" s="0"/>
-      <c r="AHV26" s="0"/>
-      <c r="AHW26" s="0"/>
-      <c r="AHX26" s="0"/>
-      <c r="AHY26" s="0"/>
-      <c r="AHZ26" s="0"/>
-      <c r="AIA26" s="0"/>
-      <c r="AIB26" s="0"/>
-      <c r="AIC26" s="0"/>
-      <c r="AID26" s="0"/>
-      <c r="AIE26" s="0"/>
-      <c r="AIF26" s="0"/>
-      <c r="AIG26" s="0"/>
-      <c r="AIH26" s="0"/>
-      <c r="AII26" s="0"/>
-      <c r="AIJ26" s="0"/>
-      <c r="AIK26" s="0"/>
-      <c r="AIL26" s="0"/>
-      <c r="AIM26" s="0"/>
-      <c r="AIN26" s="0"/>
-      <c r="AIO26" s="0"/>
-      <c r="AIP26" s="0"/>
-      <c r="AIQ26" s="0"/>
-      <c r="AIR26" s="0"/>
-      <c r="AIS26" s="0"/>
-      <c r="AIT26" s="0"/>
-      <c r="AIU26" s="0"/>
-      <c r="AIV26" s="0"/>
-      <c r="AIW26" s="0"/>
-      <c r="AIX26" s="0"/>
-      <c r="AIY26" s="0"/>
-      <c r="AIZ26" s="0"/>
-      <c r="AJA26" s="0"/>
-      <c r="AJB26" s="0"/>
-      <c r="AJC26" s="0"/>
-      <c r="AJD26" s="0"/>
-      <c r="AJE26" s="0"/>
-      <c r="AJF26" s="0"/>
-      <c r="AJG26" s="0"/>
-      <c r="AJH26" s="0"/>
-      <c r="AJI26" s="0"/>
-      <c r="AJJ26" s="0"/>
-      <c r="AJK26" s="0"/>
-      <c r="AJL26" s="0"/>
-      <c r="AJM26" s="0"/>
-      <c r="AJN26" s="0"/>
-      <c r="AJO26" s="0"/>
-      <c r="AJP26" s="0"/>
-      <c r="AJQ26" s="0"/>
-      <c r="AJR26" s="0"/>
-      <c r="AJS26" s="0"/>
-      <c r="AJT26" s="0"/>
-      <c r="AJU26" s="0"/>
-      <c r="AJV26" s="0"/>
-      <c r="AJW26" s="0"/>
-      <c r="AJX26" s="0"/>
-      <c r="AJY26" s="0"/>
-      <c r="AJZ26" s="0"/>
-      <c r="AKA26" s="0"/>
-      <c r="AKB26" s="0"/>
-      <c r="AKC26" s="0"/>
-      <c r="AKD26" s="0"/>
-      <c r="AKE26" s="0"/>
-      <c r="AKF26" s="0"/>
-      <c r="AKG26" s="0"/>
-      <c r="AKH26" s="0"/>
-      <c r="AKI26" s="0"/>
-      <c r="AKJ26" s="0"/>
-      <c r="AKK26" s="0"/>
-      <c r="AKL26" s="0"/>
-      <c r="AKM26" s="0"/>
-      <c r="AKN26" s="0"/>
-      <c r="AKO26" s="0"/>
-      <c r="AKP26" s="0"/>
-      <c r="AKQ26" s="0"/>
-      <c r="AKR26" s="0"/>
-      <c r="AKS26" s="0"/>
-      <c r="AKT26" s="0"/>
-      <c r="AKU26" s="0"/>
-      <c r="AKV26" s="0"/>
-      <c r="AKW26" s="0"/>
-      <c r="AKX26" s="0"/>
-      <c r="AKY26" s="0"/>
-      <c r="AKZ26" s="0"/>
-      <c r="ALA26" s="0"/>
-      <c r="ALB26" s="0"/>
-      <c r="ALC26" s="0"/>
-      <c r="ALD26" s="0"/>
-      <c r="ALE26" s="0"/>
-      <c r="ALF26" s="0"/>
-      <c r="ALG26" s="0"/>
-      <c r="ALH26" s="0"/>
-      <c r="ALI26" s="0"/>
-      <c r="ALJ26" s="0"/>
-      <c r="ALK26" s="0"/>
-      <c r="ALL26" s="0"/>
-      <c r="ALM26" s="0"/>
-      <c r="ALN26" s="0"/>
-      <c r="ALO26" s="0"/>
-      <c r="ALP26" s="0"/>
-      <c r="ALQ26" s="0"/>
-      <c r="ALR26" s="0"/>
-      <c r="ALS26" s="0"/>
-      <c r="ALT26" s="0"/>
-      <c r="ALU26" s="0"/>
-      <c r="ALV26" s="0"/>
-      <c r="ALW26" s="0"/>
-      <c r="ALX26" s="0"/>
-      <c r="ALY26" s="0"/>
-      <c r="ALZ26" s="0"/>
-      <c r="AMA26" s="0"/>
-      <c r="AMB26" s="0"/>
-      <c r="AMC26" s="0"/>
-      <c r="AMD26" s="0"/>
-      <c r="AME26" s="0"/>
-      <c r="AMF26" s="0"/>
-      <c r="AMG26" s="0"/>
-      <c r="AMH26" s="0"/>
-      <c r="AMI26" s="0"/>
-      <c r="AMJ26" s="0"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23" t="n">
-        <v>100</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="24" t="n">
-        <f aca="false">'Taux horaire d''un technicien'!E15</f>
-        <v>49.99875</v>
-      </c>
-      <c r="L27" s="0"/>
-      <c r="M27" s="0"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0"/>
-      <c r="U27" s="0"/>
-      <c r="V27" s="0"/>
-      <c r="W27" s="0"/>
-      <c r="X27" s="0"/>
-      <c r="Y27" s="0"/>
-      <c r="Z27" s="0"/>
-      <c r="AA27" s="0"/>
-      <c r="AB27" s="0"/>
-      <c r="AC27" s="0"/>
-      <c r="AD27" s="0"/>
-      <c r="AE27" s="0"/>
-      <c r="AF27" s="0"/>
-      <c r="AG27" s="0"/>
-      <c r="AH27" s="0"/>
-      <c r="AI27" s="0"/>
-      <c r="AJ27" s="0"/>
-      <c r="AK27" s="0"/>
-      <c r="AL27" s="0"/>
-      <c r="AM27" s="0"/>
-      <c r="AN27" s="0"/>
-      <c r="AO27" s="0"/>
-      <c r="AP27" s="0"/>
-      <c r="AQ27" s="0"/>
-      <c r="AR27" s="0"/>
-      <c r="AS27" s="0"/>
-      <c r="AT27" s="0"/>
-      <c r="AU27" s="0"/>
-      <c r="AV27" s="0"/>
-      <c r="AW27" s="0"/>
-      <c r="AX27" s="0"/>
-      <c r="AY27" s="0"/>
-      <c r="AZ27" s="0"/>
-      <c r="BA27" s="0"/>
-      <c r="BB27" s="0"/>
-      <c r="BC27" s="0"/>
-      <c r="BD27" s="0"/>
-      <c r="BE27" s="0"/>
-      <c r="BF27" s="0"/>
-      <c r="BG27" s="0"/>
-      <c r="BH27" s="0"/>
-      <c r="BI27" s="0"/>
-      <c r="BJ27" s="0"/>
-      <c r="BK27" s="0"/>
-      <c r="BL27" s="0"/>
-      <c r="BM27" s="0"/>
-      <c r="BN27" s="0"/>
-      <c r="BO27" s="0"/>
-      <c r="BP27" s="0"/>
-      <c r="BQ27" s="0"/>
-      <c r="BR27" s="0"/>
-      <c r="BS27" s="0"/>
-      <c r="BT27" s="0"/>
-      <c r="BU27" s="0"/>
-      <c r="BV27" s="0"/>
-      <c r="BW27" s="0"/>
-      <c r="BX27" s="0"/>
-      <c r="BY27" s="0"/>
-      <c r="BZ27" s="0"/>
-      <c r="CA27" s="0"/>
-      <c r="CB27" s="0"/>
-      <c r="CC27" s="0"/>
-      <c r="CD27" s="0"/>
-      <c r="CE27" s="0"/>
-      <c r="CF27" s="0"/>
-      <c r="CG27" s="0"/>
-      <c r="CH27" s="0"/>
-      <c r="CI27" s="0"/>
-      <c r="CJ27" s="0"/>
-      <c r="CK27" s="0"/>
-      <c r="CL27" s="0"/>
-      <c r="CM27" s="0"/>
-      <c r="CN27" s="0"/>
-      <c r="CO27" s="0"/>
-      <c r="CP27" s="0"/>
-      <c r="CQ27" s="0"/>
-      <c r="CR27" s="0"/>
-      <c r="CS27" s="0"/>
-      <c r="CT27" s="0"/>
-      <c r="CU27" s="0"/>
-      <c r="CV27" s="0"/>
-      <c r="CW27" s="0"/>
-      <c r="CX27" s="0"/>
-      <c r="CY27" s="0"/>
-      <c r="CZ27" s="0"/>
-      <c r="DA27" s="0"/>
-      <c r="DB27" s="0"/>
-      <c r="DC27" s="0"/>
-      <c r="DD27" s="0"/>
-      <c r="DE27" s="0"/>
-      <c r="DF27" s="0"/>
-      <c r="DG27" s="0"/>
-      <c r="DH27" s="0"/>
-      <c r="DI27" s="0"/>
-      <c r="DJ27" s="0"/>
-      <c r="DK27" s="0"/>
-      <c r="DL27" s="0"/>
-      <c r="DM27" s="0"/>
-      <c r="DN27" s="0"/>
-      <c r="DO27" s="0"/>
-      <c r="DP27" s="0"/>
-      <c r="DQ27" s="0"/>
-      <c r="DR27" s="0"/>
-      <c r="DS27" s="0"/>
-      <c r="DT27" s="0"/>
-      <c r="DU27" s="0"/>
-      <c r="DV27" s="0"/>
-      <c r="DW27" s="0"/>
-      <c r="DX27" s="0"/>
-      <c r="DY27" s="0"/>
-      <c r="DZ27" s="0"/>
-      <c r="EA27" s="0"/>
-      <c r="EB27" s="0"/>
-      <c r="EC27" s="0"/>
-      <c r="ED27" s="0"/>
-      <c r="EE27" s="0"/>
-      <c r="EF27" s="0"/>
-      <c r="EG27" s="0"/>
-      <c r="EH27" s="0"/>
-      <c r="EI27" s="0"/>
-      <c r="EJ27" s="0"/>
-      <c r="EK27" s="0"/>
-      <c r="EL27" s="0"/>
-      <c r="EM27" s="0"/>
-      <c r="EN27" s="0"/>
-      <c r="EO27" s="0"/>
-      <c r="EP27" s="0"/>
-      <c r="EQ27" s="0"/>
-      <c r="ER27" s="0"/>
-      <c r="ES27" s="0"/>
-      <c r="ET27" s="0"/>
-      <c r="EU27" s="0"/>
-      <c r="EV27" s="0"/>
-      <c r="EW27" s="0"/>
-      <c r="EX27" s="0"/>
-      <c r="EY27" s="0"/>
-      <c r="EZ27" s="0"/>
-      <c r="FA27" s="0"/>
-      <c r="FB27" s="0"/>
-      <c r="FC27" s="0"/>
-      <c r="FD27" s="0"/>
-      <c r="FE27" s="0"/>
-      <c r="FF27" s="0"/>
-      <c r="FG27" s="0"/>
-      <c r="FH27" s="0"/>
-      <c r="FI27" s="0"/>
-      <c r="FJ27" s="0"/>
-      <c r="FK27" s="0"/>
-      <c r="FL27" s="0"/>
-      <c r="FM27" s="0"/>
-      <c r="FN27" s="0"/>
-      <c r="FO27" s="0"/>
-      <c r="FP27" s="0"/>
-      <c r="FQ27" s="0"/>
-      <c r="FR27" s="0"/>
-      <c r="FS27" s="0"/>
-      <c r="FT27" s="0"/>
-      <c r="FU27" s="0"/>
-      <c r="FV27" s="0"/>
-      <c r="FW27" s="0"/>
-      <c r="FX27" s="0"/>
-      <c r="FY27" s="0"/>
-      <c r="FZ27" s="0"/>
-      <c r="GA27" s="0"/>
-      <c r="GB27" s="0"/>
-      <c r="GC27" s="0"/>
-      <c r="GD27" s="0"/>
-      <c r="GE27" s="0"/>
-      <c r="GF27" s="0"/>
-      <c r="GG27" s="0"/>
-      <c r="GH27" s="0"/>
-      <c r="GI27" s="0"/>
-      <c r="GJ27" s="0"/>
-      <c r="GK27" s="0"/>
-      <c r="GL27" s="0"/>
-      <c r="GM27" s="0"/>
-      <c r="GN27" s="0"/>
-      <c r="GO27" s="0"/>
-      <c r="GP27" s="0"/>
-      <c r="GQ27" s="0"/>
-      <c r="GR27" s="0"/>
-      <c r="GS27" s="0"/>
-      <c r="GT27" s="0"/>
-      <c r="GU27" s="0"/>
-      <c r="GV27" s="0"/>
-      <c r="GW27" s="0"/>
-      <c r="GX27" s="0"/>
-      <c r="GY27" s="0"/>
-      <c r="GZ27" s="0"/>
-      <c r="HA27" s="0"/>
-      <c r="HB27" s="0"/>
-      <c r="HC27" s="0"/>
-      <c r="HD27" s="0"/>
-      <c r="HE27" s="0"/>
-      <c r="HF27" s="0"/>
-      <c r="HG27" s="0"/>
-      <c r="HH27" s="0"/>
-      <c r="HI27" s="0"/>
-      <c r="HJ27" s="0"/>
-      <c r="HK27" s="0"/>
-      <c r="HL27" s="0"/>
-      <c r="HM27" s="0"/>
-      <c r="HN27" s="0"/>
-      <c r="HO27" s="0"/>
-      <c r="HP27" s="0"/>
-      <c r="HQ27" s="0"/>
-      <c r="HR27" s="0"/>
-      <c r="HS27" s="0"/>
-      <c r="HT27" s="0"/>
-      <c r="HU27" s="0"/>
-      <c r="HV27" s="0"/>
-      <c r="HW27" s="0"/>
-      <c r="HX27" s="0"/>
-      <c r="HY27" s="0"/>
-      <c r="HZ27" s="0"/>
-      <c r="IA27" s="0"/>
-      <c r="IB27" s="0"/>
-      <c r="IC27" s="0"/>
-      <c r="ID27" s="0"/>
-      <c r="IE27" s="0"/>
-      <c r="IF27" s="0"/>
-      <c r="IG27" s="0"/>
-      <c r="IH27" s="0"/>
-      <c r="II27" s="0"/>
-      <c r="IJ27" s="0"/>
-      <c r="IK27" s="0"/>
-      <c r="IL27" s="0"/>
-      <c r="IM27" s="0"/>
-      <c r="IN27" s="0"/>
-      <c r="IO27" s="0"/>
-      <c r="IP27" s="0"/>
-      <c r="IQ27" s="0"/>
-      <c r="IR27" s="0"/>
-      <c r="IS27" s="0"/>
-      <c r="IT27" s="0"/>
-      <c r="IU27" s="0"/>
-      <c r="IV27" s="0"/>
-      <c r="IW27" s="0"/>
-      <c r="IX27" s="0"/>
-      <c r="IY27" s="0"/>
-      <c r="IZ27" s="0"/>
-      <c r="JA27" s="0"/>
-      <c r="JB27" s="0"/>
-      <c r="JC27" s="0"/>
-      <c r="JD27" s="0"/>
-      <c r="JE27" s="0"/>
-      <c r="JF27" s="0"/>
-      <c r="JG27" s="0"/>
-      <c r="JH27" s="0"/>
-      <c r="JI27" s="0"/>
-      <c r="JJ27" s="0"/>
-      <c r="JK27" s="0"/>
-      <c r="JL27" s="0"/>
-      <c r="JM27" s="0"/>
-      <c r="JN27" s="0"/>
-      <c r="JO27" s="0"/>
-      <c r="JP27" s="0"/>
-      <c r="JQ27" s="0"/>
-      <c r="JR27" s="0"/>
-      <c r="JS27" s="0"/>
-      <c r="JT27" s="0"/>
-      <c r="JU27" s="0"/>
-      <c r="JV27" s="0"/>
-      <c r="JW27" s="0"/>
-      <c r="JX27" s="0"/>
-      <c r="JY27" s="0"/>
-      <c r="JZ27" s="0"/>
-      <c r="KA27" s="0"/>
-      <c r="KB27" s="0"/>
-      <c r="KC27" s="0"/>
-      <c r="KD27" s="0"/>
-      <c r="KE27" s="0"/>
-      <c r="KF27" s="0"/>
-      <c r="KG27" s="0"/>
-      <c r="KH27" s="0"/>
-      <c r="KI27" s="0"/>
-      <c r="KJ27" s="0"/>
-      <c r="KK27" s="0"/>
-      <c r="KL27" s="0"/>
-      <c r="KM27" s="0"/>
-      <c r="KN27" s="0"/>
-      <c r="KO27" s="0"/>
-      <c r="KP27" s="0"/>
-      <c r="KQ27" s="0"/>
-      <c r="KR27" s="0"/>
-      <c r="KS27" s="0"/>
-      <c r="KT27" s="0"/>
-      <c r="KU27" s="0"/>
-      <c r="KV27" s="0"/>
-      <c r="KW27" s="0"/>
-      <c r="KX27" s="0"/>
-      <c r="KY27" s="0"/>
-      <c r="KZ27" s="0"/>
-      <c r="LA27" s="0"/>
-      <c r="LB27" s="0"/>
-      <c r="LC27" s="0"/>
-      <c r="LD27" s="0"/>
-      <c r="LE27" s="0"/>
-      <c r="LF27" s="0"/>
-      <c r="LG27" s="0"/>
-      <c r="LH27" s="0"/>
-      <c r="LI27" s="0"/>
-      <c r="LJ27" s="0"/>
-      <c r="LK27" s="0"/>
-      <c r="LL27" s="0"/>
-      <c r="LM27" s="0"/>
-      <c r="LN27" s="0"/>
-      <c r="LO27" s="0"/>
-      <c r="LP27" s="0"/>
-      <c r="LQ27" s="0"/>
-      <c r="LR27" s="0"/>
-      <c r="LS27" s="0"/>
-      <c r="LT27" s="0"/>
-      <c r="LU27" s="0"/>
-      <c r="LV27" s="0"/>
-      <c r="LW27" s="0"/>
-      <c r="LX27" s="0"/>
-      <c r="LY27" s="0"/>
-      <c r="LZ27" s="0"/>
-      <c r="MA27" s="0"/>
-      <c r="MB27" s="0"/>
-      <c r="MC27" s="0"/>
-      <c r="MD27" s="0"/>
-      <c r="ME27" s="0"/>
-      <c r="MF27" s="0"/>
-      <c r="MG27" s="0"/>
-      <c r="MH27" s="0"/>
-      <c r="MI27" s="0"/>
-      <c r="MJ27" s="0"/>
-      <c r="MK27" s="0"/>
-      <c r="ML27" s="0"/>
-      <c r="MM27" s="0"/>
-      <c r="MN27" s="0"/>
-      <c r="MO27" s="0"/>
-      <c r="MP27" s="0"/>
-      <c r="MQ27" s="0"/>
-      <c r="MR27" s="0"/>
-      <c r="MS27" s="0"/>
-      <c r="MT27" s="0"/>
-      <c r="MU27" s="0"/>
-      <c r="MV27" s="0"/>
-      <c r="MW27" s="0"/>
-      <c r="MX27" s="0"/>
-      <c r="MY27" s="0"/>
-      <c r="MZ27" s="0"/>
-      <c r="NA27" s="0"/>
-      <c r="NB27" s="0"/>
-      <c r="NC27" s="0"/>
-      <c r="ND27" s="0"/>
-      <c r="NE27" s="0"/>
-      <c r="NF27" s="0"/>
-      <c r="NG27" s="0"/>
-      <c r="NH27" s="0"/>
-      <c r="NI27" s="0"/>
-      <c r="NJ27" s="0"/>
-      <c r="NK27" s="0"/>
-      <c r="NL27" s="0"/>
-      <c r="NM27" s="0"/>
-      <c r="NN27" s="0"/>
-      <c r="NO27" s="0"/>
-      <c r="NP27" s="0"/>
-      <c r="NQ27" s="0"/>
-      <c r="NR27" s="0"/>
-      <c r="NS27" s="0"/>
-      <c r="NT27" s="0"/>
-      <c r="NU27" s="0"/>
-      <c r="NV27" s="0"/>
-      <c r="NW27" s="0"/>
-      <c r="NX27" s="0"/>
-      <c r="NY27" s="0"/>
-      <c r="NZ27" s="0"/>
-      <c r="OA27" s="0"/>
-      <c r="OB27" s="0"/>
-      <c r="OC27" s="0"/>
-      <c r="OD27" s="0"/>
-      <c r="OE27" s="0"/>
-      <c r="OF27" s="0"/>
-      <c r="OG27" s="0"/>
-      <c r="OH27" s="0"/>
-      <c r="OI27" s="0"/>
-      <c r="OJ27" s="0"/>
-      <c r="OK27" s="0"/>
-      <c r="OL27" s="0"/>
-      <c r="OM27" s="0"/>
-      <c r="ON27" s="0"/>
-      <c r="OO27" s="0"/>
-      <c r="OP27" s="0"/>
-      <c r="OQ27" s="0"/>
-      <c r="OR27" s="0"/>
-      <c r="OS27" s="0"/>
-      <c r="OT27" s="0"/>
-      <c r="OU27" s="0"/>
-      <c r="OV27" s="0"/>
-      <c r="OW27" s="0"/>
-      <c r="OX27" s="0"/>
-      <c r="OY27" s="0"/>
-      <c r="OZ27" s="0"/>
-      <c r="PA27" s="0"/>
-      <c r="PB27" s="0"/>
-      <c r="PC27" s="0"/>
-      <c r="PD27" s="0"/>
-      <c r="PE27" s="0"/>
-      <c r="PF27" s="0"/>
-      <c r="PG27" s="0"/>
-      <c r="PH27" s="0"/>
-      <c r="PI27" s="0"/>
-      <c r="PJ27" s="0"/>
-      <c r="PK27" s="0"/>
-      <c r="PL27" s="0"/>
-      <c r="PM27" s="0"/>
-      <c r="PN27" s="0"/>
-      <c r="PO27" s="0"/>
-      <c r="PP27" s="0"/>
-      <c r="PQ27" s="0"/>
-      <c r="PR27" s="0"/>
-      <c r="PS27" s="0"/>
-      <c r="PT27" s="0"/>
-      <c r="PU27" s="0"/>
-      <c r="PV27" s="0"/>
-      <c r="PW27" s="0"/>
-      <c r="PX27" s="0"/>
-      <c r="PY27" s="0"/>
-      <c r="PZ27" s="0"/>
-      <c r="QA27" s="0"/>
-      <c r="QB27" s="0"/>
-      <c r="QC27" s="0"/>
-      <c r="QD27" s="0"/>
-      <c r="QE27" s="0"/>
-      <c r="QF27" s="0"/>
-      <c r="QG27" s="0"/>
-      <c r="QH27" s="0"/>
-      <c r="QI27" s="0"/>
-      <c r="QJ27" s="0"/>
-      <c r="QK27" s="0"/>
-      <c r="QL27" s="0"/>
-      <c r="QM27" s="0"/>
-      <c r="QN27" s="0"/>
-      <c r="QO27" s="0"/>
-      <c r="QP27" s="0"/>
-      <c r="QQ27" s="0"/>
-      <c r="QR27" s="0"/>
-      <c r="QS27" s="0"/>
-      <c r="QT27" s="0"/>
-      <c r="QU27" s="0"/>
-      <c r="QV27" s="0"/>
-      <c r="QW27" s="0"/>
-      <c r="QX27" s="0"/>
-      <c r="QY27" s="0"/>
-      <c r="QZ27" s="0"/>
-      <c r="RA27" s="0"/>
-      <c r="RB27" s="0"/>
-      <c r="RC27" s="0"/>
-      <c r="RD27" s="0"/>
-      <c r="RE27" s="0"/>
-      <c r="RF27" s="0"/>
-      <c r="RG27" s="0"/>
-      <c r="RH27" s="0"/>
-      <c r="RI27" s="0"/>
-      <c r="RJ27" s="0"/>
-      <c r="RK27" s="0"/>
-      <c r="RL27" s="0"/>
-      <c r="RM27" s="0"/>
-      <c r="RN27" s="0"/>
-      <c r="RO27" s="0"/>
-      <c r="RP27" s="0"/>
-      <c r="RQ27" s="0"/>
-      <c r="RR27" s="0"/>
-      <c r="RS27" s="0"/>
-      <c r="RT27" s="0"/>
-      <c r="RU27" s="0"/>
-      <c r="RV27" s="0"/>
-      <c r="RW27" s="0"/>
-      <c r="RX27" s="0"/>
-      <c r="RY27" s="0"/>
-      <c r="RZ27" s="0"/>
-      <c r="SA27" s="0"/>
-      <c r="SB27" s="0"/>
-      <c r="SC27" s="0"/>
-      <c r="SD27" s="0"/>
-      <c r="SE27" s="0"/>
-      <c r="SF27" s="0"/>
-      <c r="SG27" s="0"/>
-      <c r="SH27" s="0"/>
-      <c r="SI27" s="0"/>
-      <c r="SJ27" s="0"/>
-      <c r="SK27" s="0"/>
-      <c r="SL27" s="0"/>
-      <c r="SM27" s="0"/>
-      <c r="SN27" s="0"/>
-      <c r="SO27" s="0"/>
-      <c r="SP27" s="0"/>
-      <c r="SQ27" s="0"/>
-      <c r="SR27" s="0"/>
-      <c r="SS27" s="0"/>
-      <c r="ST27" s="0"/>
-      <c r="SU27" s="0"/>
-      <c r="SV27" s="0"/>
-      <c r="SW27" s="0"/>
-      <c r="SX27" s="0"/>
-      <c r="SY27" s="0"/>
-      <c r="SZ27" s="0"/>
-      <c r="TA27" s="0"/>
-      <c r="TB27" s="0"/>
-      <c r="TC27" s="0"/>
-      <c r="TD27" s="0"/>
-      <c r="TE27" s="0"/>
-      <c r="TF27" s="0"/>
-      <c r="TG27" s="0"/>
-      <c r="TH27" s="0"/>
-      <c r="TI27" s="0"/>
-      <c r="TJ27" s="0"/>
-      <c r="TK27" s="0"/>
-      <c r="TL27" s="0"/>
-      <c r="TM27" s="0"/>
-      <c r="TN27" s="0"/>
-      <c r="TO27" s="0"/>
-      <c r="TP27" s="0"/>
-      <c r="TQ27" s="0"/>
-      <c r="TR27" s="0"/>
-      <c r="TS27" s="0"/>
-      <c r="TT27" s="0"/>
-      <c r="TU27" s="0"/>
-      <c r="TV27" s="0"/>
-      <c r="TW27" s="0"/>
-      <c r="TX27" s="0"/>
-      <c r="TY27" s="0"/>
-      <c r="TZ27" s="0"/>
-      <c r="UA27" s="0"/>
-      <c r="UB27" s="0"/>
-      <c r="UC27" s="0"/>
-      <c r="UD27" s="0"/>
-      <c r="UE27" s="0"/>
-      <c r="UF27" s="0"/>
-      <c r="UG27" s="0"/>
-      <c r="UH27" s="0"/>
-      <c r="UI27" s="0"/>
-      <c r="UJ27" s="0"/>
-      <c r="UK27" s="0"/>
-      <c r="UL27" s="0"/>
-      <c r="UM27" s="0"/>
-      <c r="UN27" s="0"/>
-      <c r="UO27" s="0"/>
-      <c r="UP27" s="0"/>
-      <c r="UQ27" s="0"/>
-      <c r="UR27" s="0"/>
-      <c r="US27" s="0"/>
-      <c r="UT27" s="0"/>
-      <c r="UU27" s="0"/>
-      <c r="UV27" s="0"/>
-      <c r="UW27" s="0"/>
-      <c r="UX27" s="0"/>
-      <c r="UY27" s="0"/>
-      <c r="UZ27" s="0"/>
-      <c r="VA27" s="0"/>
-      <c r="VB27" s="0"/>
-      <c r="VC27" s="0"/>
-      <c r="VD27" s="0"/>
-      <c r="VE27" s="0"/>
-      <c r="VF27" s="0"/>
-      <c r="VG27" s="0"/>
-      <c r="VH27" s="0"/>
-      <c r="VI27" s="0"/>
-      <c r="VJ27" s="0"/>
-      <c r="VK27" s="0"/>
-      <c r="VL27" s="0"/>
-      <c r="VM27" s="0"/>
-      <c r="VN27" s="0"/>
-      <c r="VO27" s="0"/>
-      <c r="VP27" s="0"/>
-      <c r="VQ27" s="0"/>
-      <c r="VR27" s="0"/>
-      <c r="VS27" s="0"/>
-      <c r="VT27" s="0"/>
-      <c r="VU27" s="0"/>
-      <c r="VV27" s="0"/>
-      <c r="VW27" s="0"/>
-      <c r="VX27" s="0"/>
-      <c r="VY27" s="0"/>
-      <c r="VZ27" s="0"/>
-      <c r="WA27" s="0"/>
-      <c r="WB27" s="0"/>
-      <c r="WC27" s="0"/>
-      <c r="WD27" s="0"/>
-      <c r="WE27" s="0"/>
-      <c r="WF27" s="0"/>
-      <c r="WG27" s="0"/>
-      <c r="WH27" s="0"/>
-      <c r="WI27" s="0"/>
-      <c r="WJ27" s="0"/>
-      <c r="WK27" s="0"/>
-      <c r="WL27" s="0"/>
-      <c r="WM27" s="0"/>
-      <c r="WN27" s="0"/>
-      <c r="WO27" s="0"/>
-      <c r="WP27" s="0"/>
-      <c r="WQ27" s="0"/>
-      <c r="WR27" s="0"/>
-      <c r="WS27" s="0"/>
-      <c r="WT27" s="0"/>
-      <c r="WU27" s="0"/>
-      <c r="WV27" s="0"/>
-      <c r="WW27" s="0"/>
-      <c r="WX27" s="0"/>
-      <c r="WY27" s="0"/>
-      <c r="WZ27" s="0"/>
-      <c r="XA27" s="0"/>
-      <c r="XB27" s="0"/>
-      <c r="XC27" s="0"/>
-      <c r="XD27" s="0"/>
-      <c r="XE27" s="0"/>
-      <c r="XF27" s="0"/>
-      <c r="XG27" s="0"/>
-      <c r="XH27" s="0"/>
-      <c r="XI27" s="0"/>
-      <c r="XJ27" s="0"/>
-      <c r="XK27" s="0"/>
-      <c r="XL27" s="0"/>
-      <c r="XM27" s="0"/>
-      <c r="XN27" s="0"/>
-      <c r="XO27" s="0"/>
-      <c r="XP27" s="0"/>
-      <c r="XQ27" s="0"/>
-      <c r="XR27" s="0"/>
-      <c r="XS27" s="0"/>
-      <c r="XT27" s="0"/>
-      <c r="XU27" s="0"/>
-      <c r="XV27" s="0"/>
-      <c r="XW27" s="0"/>
-      <c r="XX27" s="0"/>
-      <c r="XY27" s="0"/>
-      <c r="XZ27" s="0"/>
-      <c r="YA27" s="0"/>
-      <c r="YB27" s="0"/>
-      <c r="YC27" s="0"/>
-      <c r="YD27" s="0"/>
-      <c r="YE27" s="0"/>
-      <c r="YF27" s="0"/>
-      <c r="YG27" s="0"/>
-      <c r="YH27" s="0"/>
-      <c r="YI27" s="0"/>
-      <c r="YJ27" s="0"/>
-      <c r="YK27" s="0"/>
-      <c r="YL27" s="0"/>
-      <c r="YM27" s="0"/>
-      <c r="YN27" s="0"/>
-      <c r="YO27" s="0"/>
-      <c r="YP27" s="0"/>
-      <c r="YQ27" s="0"/>
-      <c r="YR27" s="0"/>
-      <c r="YS27" s="0"/>
-      <c r="YT27" s="0"/>
-      <c r="YU27" s="0"/>
-      <c r="YV27" s="0"/>
-      <c r="YW27" s="0"/>
-      <c r="YX27" s="0"/>
-      <c r="YY27" s="0"/>
-      <c r="YZ27" s="0"/>
-      <c r="ZA27" s="0"/>
-      <c r="ZB27" s="0"/>
-      <c r="ZC27" s="0"/>
-      <c r="ZD27" s="0"/>
-      <c r="ZE27" s="0"/>
-      <c r="ZF27" s="0"/>
-      <c r="ZG27" s="0"/>
-      <c r="ZH27" s="0"/>
-      <c r="ZI27" s="0"/>
-      <c r="ZJ27" s="0"/>
-      <c r="ZK27" s="0"/>
-      <c r="ZL27" s="0"/>
-      <c r="ZM27" s="0"/>
-      <c r="ZN27" s="0"/>
-      <c r="ZO27" s="0"/>
-      <c r="ZP27" s="0"/>
-      <c r="ZQ27" s="0"/>
-      <c r="ZR27" s="0"/>
-      <c r="ZS27" s="0"/>
-      <c r="ZT27" s="0"/>
-      <c r="ZU27" s="0"/>
-      <c r="ZV27" s="0"/>
-      <c r="ZW27" s="0"/>
-      <c r="ZX27" s="0"/>
-      <c r="ZY27" s="0"/>
-      <c r="ZZ27" s="0"/>
-      <c r="AAA27" s="0"/>
-      <c r="AAB27" s="0"/>
-      <c r="AAC27" s="0"/>
-      <c r="AAD27" s="0"/>
-      <c r="AAE27" s="0"/>
-      <c r="AAF27" s="0"/>
-      <c r="AAG27" s="0"/>
-      <c r="AAH27" s="0"/>
-      <c r="AAI27" s="0"/>
-      <c r="AAJ27" s="0"/>
-      <c r="AAK27" s="0"/>
-      <c r="AAL27" s="0"/>
-      <c r="AAM27" s="0"/>
-      <c r="AAN27" s="0"/>
-      <c r="AAO27" s="0"/>
-      <c r="AAP27" s="0"/>
-      <c r="AAQ27" s="0"/>
-      <c r="AAR27" s="0"/>
-      <c r="AAS27" s="0"/>
-      <c r="AAT27" s="0"/>
-      <c r="AAU27" s="0"/>
-      <c r="AAV27" s="0"/>
-      <c r="AAW27" s="0"/>
-      <c r="AAX27" s="0"/>
-      <c r="AAY27" s="0"/>
-      <c r="AAZ27" s="0"/>
-      <c r="ABA27" s="0"/>
-      <c r="ABB27" s="0"/>
-      <c r="ABC27" s="0"/>
-      <c r="ABD27" s="0"/>
-      <c r="ABE27" s="0"/>
-      <c r="ABF27" s="0"/>
-      <c r="ABG27" s="0"/>
-      <c r="ABH27" s="0"/>
-      <c r="ABI27" s="0"/>
-      <c r="ABJ27" s="0"/>
-      <c r="ABK27" s="0"/>
-      <c r="ABL27" s="0"/>
-      <c r="ABM27" s="0"/>
-      <c r="ABN27" s="0"/>
-      <c r="ABO27" s="0"/>
-      <c r="ABP27" s="0"/>
-      <c r="ABQ27" s="0"/>
-      <c r="ABR27" s="0"/>
-      <c r="ABS27" s="0"/>
-      <c r="ABT27" s="0"/>
-      <c r="ABU27" s="0"/>
-      <c r="ABV27" s="0"/>
-      <c r="ABW27" s="0"/>
-      <c r="ABX27" s="0"/>
-      <c r="ABY27" s="0"/>
-      <c r="ABZ27" s="0"/>
-      <c r="ACA27" s="0"/>
-      <c r="ACB27" s="0"/>
-      <c r="ACC27" s="0"/>
-      <c r="ACD27" s="0"/>
-      <c r="ACE27" s="0"/>
-      <c r="ACF27" s="0"/>
-      <c r="ACG27" s="0"/>
-      <c r="ACH27" s="0"/>
-      <c r="ACI27" s="0"/>
-      <c r="ACJ27" s="0"/>
-      <c r="ACK27" s="0"/>
-      <c r="ACL27" s="0"/>
-      <c r="ACM27" s="0"/>
-      <c r="ACN27" s="0"/>
-      <c r="ACO27" s="0"/>
-      <c r="ACP27" s="0"/>
-      <c r="ACQ27" s="0"/>
-      <c r="ACR27" s="0"/>
-      <c r="ACS27" s="0"/>
-      <c r="ACT27" s="0"/>
-      <c r="ACU27" s="0"/>
-      <c r="ACV27" s="0"/>
-      <c r="ACW27" s="0"/>
-      <c r="ACX27" s="0"/>
-      <c r="ACY27" s="0"/>
-      <c r="ACZ27" s="0"/>
-      <c r="ADA27" s="0"/>
-      <c r="ADB27" s="0"/>
-      <c r="ADC27" s="0"/>
-      <c r="ADD27" s="0"/>
-      <c r="ADE27" s="0"/>
-      <c r="ADF27" s="0"/>
-      <c r="ADG27" s="0"/>
-      <c r="ADH27" s="0"/>
-      <c r="ADI27" s="0"/>
-      <c r="ADJ27" s="0"/>
-      <c r="ADK27" s="0"/>
-      <c r="ADL27" s="0"/>
-      <c r="ADM27" s="0"/>
-      <c r="ADN27" s="0"/>
-      <c r="ADO27" s="0"/>
-      <c r="ADP27" s="0"/>
-      <c r="ADQ27" s="0"/>
-      <c r="ADR27" s="0"/>
-      <c r="ADS27" s="0"/>
-      <c r="ADT27" s="0"/>
-      <c r="ADU27" s="0"/>
-      <c r="ADV27" s="0"/>
-      <c r="ADW27" s="0"/>
-      <c r="ADX27" s="0"/>
-      <c r="ADY27" s="0"/>
-      <c r="ADZ27" s="0"/>
-      <c r="AEA27" s="0"/>
-      <c r="AEB27" s="0"/>
-      <c r="AEC27" s="0"/>
-      <c r="AED27" s="0"/>
-      <c r="AEE27" s="0"/>
-      <c r="AEF27" s="0"/>
-      <c r="AEG27" s="0"/>
-      <c r="AEH27" s="0"/>
-      <c r="AEI27" s="0"/>
-      <c r="AEJ27" s="0"/>
-      <c r="AEK27" s="0"/>
-      <c r="AEL27" s="0"/>
-      <c r="AEM27" s="0"/>
-      <c r="AEN27" s="0"/>
-      <c r="AEO27" s="0"/>
-      <c r="AEP27" s="0"/>
-      <c r="AEQ27" s="0"/>
-      <c r="AER27" s="0"/>
-      <c r="AES27" s="0"/>
-      <c r="AET27" s="0"/>
-      <c r="AEU27" s="0"/>
-      <c r="AEV27" s="0"/>
-      <c r="AEW27" s="0"/>
-      <c r="AEX27" s="0"/>
-      <c r="AEY27" s="0"/>
-      <c r="AEZ27" s="0"/>
-      <c r="AFA27" s="0"/>
-      <c r="AFB27" s="0"/>
-      <c r="AFC27" s="0"/>
-      <c r="AFD27" s="0"/>
-      <c r="AFE27" s="0"/>
-      <c r="AFF27" s="0"/>
-      <c r="AFG27" s="0"/>
-      <c r="AFH27" s="0"/>
-      <c r="AFI27" s="0"/>
-      <c r="AFJ27" s="0"/>
-      <c r="AFK27" s="0"/>
-      <c r="AFL27" s="0"/>
-      <c r="AFM27" s="0"/>
-      <c r="AFN27" s="0"/>
-      <c r="AFO27" s="0"/>
-      <c r="AFP27" s="0"/>
-      <c r="AFQ27" s="0"/>
-      <c r="AFR27" s="0"/>
-      <c r="AFS27" s="0"/>
-      <c r="AFT27" s="0"/>
-      <c r="AFU27" s="0"/>
-      <c r="AFV27" s="0"/>
-      <c r="AFW27" s="0"/>
-      <c r="AFX27" s="0"/>
-      <c r="AFY27" s="0"/>
-      <c r="AFZ27" s="0"/>
-      <c r="AGA27" s="0"/>
-      <c r="AGB27" s="0"/>
-      <c r="AGC27" s="0"/>
-      <c r="AGD27" s="0"/>
-      <c r="AGE27" s="0"/>
-      <c r="AGF27" s="0"/>
-      <c r="AGG27" s="0"/>
-      <c r="AGH27" s="0"/>
-      <c r="AGI27" s="0"/>
-      <c r="AGJ27" s="0"/>
-      <c r="AGK27" s="0"/>
-      <c r="AGL27" s="0"/>
-      <c r="AGM27" s="0"/>
-      <c r="AGN27" s="0"/>
-      <c r="AGO27" s="0"/>
-      <c r="AGP27" s="0"/>
-      <c r="AGQ27" s="0"/>
-      <c r="AGR27" s="0"/>
-      <c r="AGS27" s="0"/>
-      <c r="AGT27" s="0"/>
-      <c r="AGU27" s="0"/>
-      <c r="AGV27" s="0"/>
-      <c r="AGW27" s="0"/>
-      <c r="AGX27" s="0"/>
-      <c r="AGY27" s="0"/>
-      <c r="AGZ27" s="0"/>
-      <c r="AHA27" s="0"/>
-      <c r="AHB27" s="0"/>
-      <c r="AHC27" s="0"/>
-      <c r="AHD27" s="0"/>
-      <c r="AHE27" s="0"/>
-      <c r="AHF27" s="0"/>
-      <c r="AHG27" s="0"/>
-      <c r="AHH27" s="0"/>
-      <c r="AHI27" s="0"/>
-      <c r="AHJ27" s="0"/>
-      <c r="AHK27" s="0"/>
-      <c r="AHL27" s="0"/>
-      <c r="AHM27" s="0"/>
-      <c r="AHN27" s="0"/>
-      <c r="AHO27" s="0"/>
-      <c r="AHP27" s="0"/>
-      <c r="AHQ27" s="0"/>
-      <c r="AHR27" s="0"/>
-      <c r="AHS27" s="0"/>
-      <c r="AHT27" s="0"/>
-      <c r="AHU27" s="0"/>
-      <c r="AHV27" s="0"/>
-      <c r="AHW27" s="0"/>
-      <c r="AHX27" s="0"/>
-      <c r="AHY27" s="0"/>
-      <c r="AHZ27" s="0"/>
-      <c r="AIA27" s="0"/>
-      <c r="AIB27" s="0"/>
-      <c r="AIC27" s="0"/>
-      <c r="AID27" s="0"/>
-      <c r="AIE27" s="0"/>
-      <c r="AIF27" s="0"/>
-      <c r="AIG27" s="0"/>
-      <c r="AIH27" s="0"/>
-      <c r="AII27" s="0"/>
-      <c r="AIJ27" s="0"/>
-      <c r="AIK27" s="0"/>
-      <c r="AIL27" s="0"/>
-      <c r="AIM27" s="0"/>
-      <c r="AIN27" s="0"/>
-      <c r="AIO27" s="0"/>
-      <c r="AIP27" s="0"/>
-      <c r="AIQ27" s="0"/>
-      <c r="AIR27" s="0"/>
-      <c r="AIS27" s="0"/>
-      <c r="AIT27" s="0"/>
-      <c r="AIU27" s="0"/>
-      <c r="AIV27" s="0"/>
-      <c r="AIW27" s="0"/>
-      <c r="AIX27" s="0"/>
-      <c r="AIY27" s="0"/>
-      <c r="AIZ27" s="0"/>
-      <c r="AJA27" s="0"/>
-      <c r="AJB27" s="0"/>
-      <c r="AJC27" s="0"/>
-      <c r="AJD27" s="0"/>
-      <c r="AJE27" s="0"/>
-      <c r="AJF27" s="0"/>
-      <c r="AJG27" s="0"/>
-      <c r="AJH27" s="0"/>
-      <c r="AJI27" s="0"/>
-      <c r="AJJ27" s="0"/>
-      <c r="AJK27" s="0"/>
-      <c r="AJL27" s="0"/>
-      <c r="AJM27" s="0"/>
-      <c r="AJN27" s="0"/>
-      <c r="AJO27" s="0"/>
-      <c r="AJP27" s="0"/>
-      <c r="AJQ27" s="0"/>
-      <c r="AJR27" s="0"/>
-      <c r="AJS27" s="0"/>
-      <c r="AJT27" s="0"/>
-      <c r="AJU27" s="0"/>
-      <c r="AJV27" s="0"/>
-      <c r="AJW27" s="0"/>
-      <c r="AJX27" s="0"/>
-      <c r="AJY27" s="0"/>
-      <c r="AJZ27" s="0"/>
-      <c r="AKA27" s="0"/>
-      <c r="AKB27" s="0"/>
-      <c r="AKC27" s="0"/>
-      <c r="AKD27" s="0"/>
-      <c r="AKE27" s="0"/>
-      <c r="AKF27" s="0"/>
-      <c r="AKG27" s="0"/>
-      <c r="AKH27" s="0"/>
-      <c r="AKI27" s="0"/>
-      <c r="AKJ27" s="0"/>
-      <c r="AKK27" s="0"/>
-      <c r="AKL27" s="0"/>
-      <c r="AKM27" s="0"/>
-      <c r="AKN27" s="0"/>
-      <c r="AKO27" s="0"/>
-      <c r="AKP27" s="0"/>
-      <c r="AKQ27" s="0"/>
-      <c r="AKR27" s="0"/>
-      <c r="AKS27" s="0"/>
-      <c r="AKT27" s="0"/>
-      <c r="AKU27" s="0"/>
-      <c r="AKV27" s="0"/>
-      <c r="AKW27" s="0"/>
-      <c r="AKX27" s="0"/>
-      <c r="AKY27" s="0"/>
-      <c r="AKZ27" s="0"/>
-      <c r="ALA27" s="0"/>
-      <c r="ALB27" s="0"/>
-      <c r="ALC27" s="0"/>
-      <c r="ALD27" s="0"/>
-      <c r="ALE27" s="0"/>
-      <c r="ALF27" s="0"/>
-      <c r="ALG27" s="0"/>
-      <c r="ALH27" s="0"/>
-      <c r="ALI27" s="0"/>
-      <c r="ALJ27" s="0"/>
-      <c r="ALK27" s="0"/>
-      <c r="ALL27" s="0"/>
-      <c r="ALM27" s="0"/>
-      <c r="ALN27" s="0"/>
-      <c r="ALO27" s="0"/>
-      <c r="ALP27" s="0"/>
-      <c r="ALQ27" s="0"/>
-      <c r="ALR27" s="0"/>
-      <c r="ALS27" s="0"/>
-      <c r="ALT27" s="0"/>
-      <c r="ALU27" s="0"/>
-      <c r="ALV27" s="0"/>
-      <c r="ALW27" s="0"/>
-      <c r="ALX27" s="0"/>
-      <c r="ALY27" s="0"/>
-      <c r="ALZ27" s="0"/>
-      <c r="AMA27" s="0"/>
-      <c r="AMB27" s="0"/>
-      <c r="AMC27" s="0"/>
-      <c r="AMD27" s="0"/>
-      <c r="AME27" s="0"/>
-      <c r="AMF27" s="0"/>
-      <c r="AMG27" s="0"/>
-      <c r="AMH27" s="0"/>
-      <c r="AMI27" s="0"/>
-      <c r="AMJ27" s="0"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="0"/>
-      <c r="O28" s="0"/>
-      <c r="P28" s="0"/>
-      <c r="Q28" s="0"/>
-      <c r="R28" s="0"/>
-      <c r="S28" s="0"/>
-      <c r="T28" s="0"/>
-      <c r="U28" s="0"/>
-      <c r="V28" s="0"/>
-      <c r="W28" s="0"/>
-      <c r="X28" s="0"/>
-      <c r="Y28" s="0"/>
-      <c r="Z28" s="0"/>
-      <c r="AA28" s="0"/>
-      <c r="AB28" s="0"/>
-      <c r="AC28" s="0"/>
-      <c r="AD28" s="0"/>
-      <c r="AE28" s="0"/>
-      <c r="AF28" s="0"/>
-      <c r="AG28" s="0"/>
-      <c r="AH28" s="0"/>
-      <c r="AI28" s="0"/>
-      <c r="AJ28" s="0"/>
-      <c r="AK28" s="0"/>
-      <c r="AL28" s="0"/>
-      <c r="AM28" s="0"/>
-      <c r="AN28" s="0"/>
-      <c r="AO28" s="0"/>
-      <c r="AP28" s="0"/>
-      <c r="AQ28" s="0"/>
-      <c r="AR28" s="0"/>
-      <c r="AS28" s="0"/>
-      <c r="AT28" s="0"/>
-      <c r="AU28" s="0"/>
-      <c r="AV28" s="0"/>
-      <c r="AW28" s="0"/>
-      <c r="AX28" s="0"/>
-      <c r="AY28" s="0"/>
-      <c r="AZ28" s="0"/>
-      <c r="BA28" s="0"/>
-      <c r="BB28" s="0"/>
-      <c r="BC28" s="0"/>
-      <c r="BD28" s="0"/>
-      <c r="BE28" s="0"/>
-      <c r="BF28" s="0"/>
-      <c r="BG28" s="0"/>
-      <c r="BH28" s="0"/>
-      <c r="BI28" s="0"/>
-      <c r="BJ28" s="0"/>
-      <c r="BK28" s="0"/>
-      <c r="BL28" s="0"/>
-      <c r="BM28" s="0"/>
-      <c r="BN28" s="0"/>
-      <c r="BO28" s="0"/>
-      <c r="BP28" s="0"/>
-      <c r="BQ28" s="0"/>
-      <c r="BR28" s="0"/>
-      <c r="BS28" s="0"/>
-      <c r="BT28" s="0"/>
-      <c r="BU28" s="0"/>
-      <c r="BV28" s="0"/>
-      <c r="BW28" s="0"/>
-      <c r="BX28" s="0"/>
-      <c r="BY28" s="0"/>
-      <c r="BZ28" s="0"/>
-      <c r="CA28" s="0"/>
-      <c r="CB28" s="0"/>
-      <c r="CC28" s="0"/>
-      <c r="CD28" s="0"/>
-      <c r="CE28" s="0"/>
-      <c r="CF28" s="0"/>
-      <c r="CG28" s="0"/>
-      <c r="CH28" s="0"/>
-      <c r="CI28" s="0"/>
-      <c r="CJ28" s="0"/>
-      <c r="CK28" s="0"/>
-      <c r="CL28" s="0"/>
-      <c r="CM28" s="0"/>
-      <c r="CN28" s="0"/>
-      <c r="CO28" s="0"/>
-      <c r="CP28" s="0"/>
-      <c r="CQ28" s="0"/>
-      <c r="CR28" s="0"/>
-      <c r="CS28" s="0"/>
-      <c r="CT28" s="0"/>
-      <c r="CU28" s="0"/>
-      <c r="CV28" s="0"/>
-      <c r="CW28" s="0"/>
-      <c r="CX28" s="0"/>
-      <c r="CY28" s="0"/>
-      <c r="CZ28" s="0"/>
-      <c r="DA28" s="0"/>
-      <c r="DB28" s="0"/>
-      <c r="DC28" s="0"/>
-      <c r="DD28" s="0"/>
-      <c r="DE28" s="0"/>
-      <c r="DF28" s="0"/>
-      <c r="DG28" s="0"/>
-      <c r="DH28" s="0"/>
-      <c r="DI28" s="0"/>
-      <c r="DJ28" s="0"/>
-      <c r="DK28" s="0"/>
-      <c r="DL28" s="0"/>
-      <c r="DM28" s="0"/>
-      <c r="DN28" s="0"/>
-      <c r="DO28" s="0"/>
-      <c r="DP28" s="0"/>
-      <c r="DQ28" s="0"/>
-      <c r="DR28" s="0"/>
-      <c r="DS28" s="0"/>
-      <c r="DT28" s="0"/>
-      <c r="DU28" s="0"/>
-      <c r="DV28" s="0"/>
-      <c r="DW28" s="0"/>
-      <c r="DX28" s="0"/>
-      <c r="DY28" s="0"/>
-      <c r="DZ28" s="0"/>
-      <c r="EA28" s="0"/>
-      <c r="EB28" s="0"/>
-      <c r="EC28" s="0"/>
-      <c r="ED28" s="0"/>
-      <c r="EE28" s="0"/>
-      <c r="EF28" s="0"/>
-      <c r="EG28" s="0"/>
-      <c r="EH28" s="0"/>
-      <c r="EI28" s="0"/>
-      <c r="EJ28" s="0"/>
-      <c r="EK28" s="0"/>
-      <c r="EL28" s="0"/>
-      <c r="EM28" s="0"/>
-      <c r="EN28" s="0"/>
-      <c r="EO28" s="0"/>
-      <c r="EP28" s="0"/>
-      <c r="EQ28" s="0"/>
-      <c r="ER28" s="0"/>
-      <c r="ES28" s="0"/>
-      <c r="ET28" s="0"/>
-      <c r="EU28" s="0"/>
-      <c r="EV28" s="0"/>
-      <c r="EW28" s="0"/>
-      <c r="EX28" s="0"/>
-      <c r="EY28" s="0"/>
-      <c r="EZ28" s="0"/>
-      <c r="FA28" s="0"/>
-      <c r="FB28" s="0"/>
-      <c r="FC28" s="0"/>
-      <c r="FD28" s="0"/>
-      <c r="FE28" s="0"/>
-      <c r="FF28" s="0"/>
-      <c r="FG28" s="0"/>
-      <c r="FH28" s="0"/>
-      <c r="FI28" s="0"/>
-      <c r="FJ28" s="0"/>
-      <c r="FK28" s="0"/>
-      <c r="FL28" s="0"/>
-      <c r="FM28" s="0"/>
-      <c r="FN28" s="0"/>
-      <c r="FO28" s="0"/>
-      <c r="FP28" s="0"/>
-      <c r="FQ28" s="0"/>
-      <c r="FR28" s="0"/>
-      <c r="FS28" s="0"/>
-      <c r="FT28" s="0"/>
-      <c r="FU28" s="0"/>
-      <c r="FV28" s="0"/>
-      <c r="FW28" s="0"/>
-      <c r="FX28" s="0"/>
-      <c r="FY28" s="0"/>
-      <c r="FZ28" s="0"/>
-      <c r="GA28" s="0"/>
-      <c r="GB28" s="0"/>
-      <c r="GC28" s="0"/>
-      <c r="GD28" s="0"/>
-      <c r="GE28" s="0"/>
-      <c r="GF28" s="0"/>
-      <c r="GG28" s="0"/>
-      <c r="GH28" s="0"/>
-      <c r="GI28" s="0"/>
-      <c r="GJ28" s="0"/>
-      <c r="GK28" s="0"/>
-      <c r="GL28" s="0"/>
-      <c r="GM28" s="0"/>
-      <c r="GN28" s="0"/>
-      <c r="GO28" s="0"/>
-      <c r="GP28" s="0"/>
-      <c r="GQ28" s="0"/>
-      <c r="GR28" s="0"/>
-      <c r="GS28" s="0"/>
-      <c r="GT28" s="0"/>
-      <c r="GU28" s="0"/>
-      <c r="GV28" s="0"/>
-      <c r="GW28" s="0"/>
-      <c r="GX28" s="0"/>
-      <c r="GY28" s="0"/>
-      <c r="GZ28" s="0"/>
-      <c r="HA28" s="0"/>
-      <c r="HB28" s="0"/>
-      <c r="HC28" s="0"/>
-      <c r="HD28" s="0"/>
-      <c r="HE28" s="0"/>
-      <c r="HF28" s="0"/>
-      <c r="HG28" s="0"/>
-      <c r="HH28" s="0"/>
-      <c r="HI28" s="0"/>
-      <c r="HJ28" s="0"/>
-      <c r="HK28" s="0"/>
-      <c r="HL28" s="0"/>
-      <c r="HM28" s="0"/>
-      <c r="HN28" s="0"/>
-      <c r="HO28" s="0"/>
-      <c r="HP28" s="0"/>
-      <c r="HQ28" s="0"/>
-      <c r="HR28" s="0"/>
-      <c r="HS28" s="0"/>
-      <c r="HT28" s="0"/>
-      <c r="HU28" s="0"/>
-      <c r="HV28" s="0"/>
-      <c r="HW28" s="0"/>
-      <c r="HX28" s="0"/>
-      <c r="HY28" s="0"/>
-      <c r="HZ28" s="0"/>
-      <c r="IA28" s="0"/>
-      <c r="IB28" s="0"/>
-      <c r="IC28" s="0"/>
-      <c r="ID28" s="0"/>
-      <c r="IE28" s="0"/>
-      <c r="IF28" s="0"/>
-      <c r="IG28" s="0"/>
-      <c r="IH28" s="0"/>
-      <c r="II28" s="0"/>
-      <c r="IJ28" s="0"/>
-      <c r="IK28" s="0"/>
-      <c r="IL28" s="0"/>
-      <c r="IM28" s="0"/>
-      <c r="IN28" s="0"/>
-      <c r="IO28" s="0"/>
-      <c r="IP28" s="0"/>
-      <c r="IQ28" s="0"/>
-      <c r="IR28" s="0"/>
-      <c r="IS28" s="0"/>
-      <c r="IT28" s="0"/>
-      <c r="IU28" s="0"/>
-      <c r="IV28" s="0"/>
-      <c r="IW28" s="0"/>
-      <c r="IX28" s="0"/>
-      <c r="IY28" s="0"/>
-      <c r="IZ28" s="0"/>
-      <c r="JA28" s="0"/>
-      <c r="JB28" s="0"/>
-      <c r="JC28" s="0"/>
-      <c r="JD28" s="0"/>
-      <c r="JE28" s="0"/>
-      <c r="JF28" s="0"/>
-      <c r="JG28" s="0"/>
-      <c r="JH28" s="0"/>
-      <c r="JI28" s="0"/>
-      <c r="JJ28" s="0"/>
-      <c r="JK28" s="0"/>
-      <c r="JL28" s="0"/>
-      <c r="JM28" s="0"/>
-      <c r="JN28" s="0"/>
-      <c r="JO28" s="0"/>
-      <c r="JP28" s="0"/>
-      <c r="JQ28" s="0"/>
-      <c r="JR28" s="0"/>
-      <c r="JS28" s="0"/>
-      <c r="JT28" s="0"/>
-      <c r="JU28" s="0"/>
-      <c r="JV28" s="0"/>
-      <c r="JW28" s="0"/>
-      <c r="JX28" s="0"/>
-      <c r="JY28" s="0"/>
-      <c r="JZ28" s="0"/>
-      <c r="KA28" s="0"/>
-      <c r="KB28" s="0"/>
-      <c r="KC28" s="0"/>
-      <c r="KD28" s="0"/>
-      <c r="KE28" s="0"/>
-      <c r="KF28" s="0"/>
-      <c r="KG28" s="0"/>
-      <c r="KH28" s="0"/>
-      <c r="KI28" s="0"/>
-      <c r="KJ28" s="0"/>
-      <c r="KK28" s="0"/>
-      <c r="KL28" s="0"/>
-      <c r="KM28" s="0"/>
-      <c r="KN28" s="0"/>
-      <c r="KO28" s="0"/>
-      <c r="KP28" s="0"/>
-      <c r="KQ28" s="0"/>
-      <c r="KR28" s="0"/>
-      <c r="KS28" s="0"/>
-      <c r="KT28" s="0"/>
-      <c r="KU28" s="0"/>
-      <c r="KV28" s="0"/>
-      <c r="KW28" s="0"/>
-      <c r="KX28" s="0"/>
-      <c r="KY28" s="0"/>
-      <c r="KZ28" s="0"/>
-      <c r="LA28" s="0"/>
-      <c r="LB28" s="0"/>
-      <c r="LC28" s="0"/>
-      <c r="LD28" s="0"/>
-      <c r="LE28" s="0"/>
-      <c r="LF28" s="0"/>
-      <c r="LG28" s="0"/>
-      <c r="LH28" s="0"/>
-      <c r="LI28" s="0"/>
-      <c r="LJ28" s="0"/>
-      <c r="LK28" s="0"/>
-      <c r="LL28" s="0"/>
-      <c r="LM28" s="0"/>
-      <c r="LN28" s="0"/>
-      <c r="LO28" s="0"/>
-      <c r="LP28" s="0"/>
-      <c r="LQ28" s="0"/>
-      <c r="LR28" s="0"/>
-      <c r="LS28" s="0"/>
-      <c r="LT28" s="0"/>
-      <c r="LU28" s="0"/>
-      <c r="LV28" s="0"/>
-      <c r="LW28" s="0"/>
-      <c r="LX28" s="0"/>
-      <c r="LY28" s="0"/>
-      <c r="LZ28" s="0"/>
-      <c r="MA28" s="0"/>
-      <c r="MB28" s="0"/>
-      <c r="MC28" s="0"/>
-      <c r="MD28" s="0"/>
-      <c r="ME28" s="0"/>
-      <c r="MF28" s="0"/>
-      <c r="MG28" s="0"/>
-      <c r="MH28" s="0"/>
-      <c r="MI28" s="0"/>
-      <c r="MJ28" s="0"/>
-      <c r="MK28" s="0"/>
-      <c r="ML28" s="0"/>
-      <c r="MM28" s="0"/>
-      <c r="MN28" s="0"/>
-      <c r="MO28" s="0"/>
-      <c r="MP28" s="0"/>
-      <c r="MQ28" s="0"/>
-      <c r="MR28" s="0"/>
-      <c r="MS28" s="0"/>
-      <c r="MT28" s="0"/>
-      <c r="MU28" s="0"/>
-      <c r="MV28" s="0"/>
-      <c r="MW28" s="0"/>
-      <c r="MX28" s="0"/>
-      <c r="MY28" s="0"/>
-      <c r="MZ28" s="0"/>
-      <c r="NA28" s="0"/>
-      <c r="NB28" s="0"/>
-      <c r="NC28" s="0"/>
-      <c r="ND28" s="0"/>
-      <c r="NE28" s="0"/>
-      <c r="NF28" s="0"/>
-      <c r="NG28" s="0"/>
-      <c r="NH28" s="0"/>
-      <c r="NI28" s="0"/>
-      <c r="NJ28" s="0"/>
-      <c r="NK28" s="0"/>
-      <c r="NL28" s="0"/>
-      <c r="NM28" s="0"/>
-      <c r="NN28" s="0"/>
-      <c r="NO28" s="0"/>
-      <c r="NP28" s="0"/>
-      <c r="NQ28" s="0"/>
-      <c r="NR28" s="0"/>
-      <c r="NS28" s="0"/>
-      <c r="NT28" s="0"/>
-      <c r="NU28" s="0"/>
-      <c r="NV28" s="0"/>
-      <c r="NW28" s="0"/>
-      <c r="NX28" s="0"/>
-      <c r="NY28" s="0"/>
-      <c r="NZ28" s="0"/>
-      <c r="OA28" s="0"/>
-      <c r="OB28" s="0"/>
-      <c r="OC28" s="0"/>
-      <c r="OD28" s="0"/>
-      <c r="OE28" s="0"/>
-      <c r="OF28" s="0"/>
-      <c r="OG28" s="0"/>
-      <c r="OH28" s="0"/>
-      <c r="OI28" s="0"/>
-      <c r="OJ28" s="0"/>
-      <c r="OK28" s="0"/>
-      <c r="OL28" s="0"/>
-      <c r="OM28" s="0"/>
-      <c r="ON28" s="0"/>
-      <c r="OO28" s="0"/>
-      <c r="OP28" s="0"/>
-      <c r="OQ28" s="0"/>
-      <c r="OR28" s="0"/>
-      <c r="OS28" s="0"/>
-      <c r="OT28" s="0"/>
-      <c r="OU28" s="0"/>
-      <c r="OV28" s="0"/>
-      <c r="OW28" s="0"/>
-      <c r="OX28" s="0"/>
-      <c r="OY28" s="0"/>
-      <c r="OZ28" s="0"/>
-      <c r="PA28" s="0"/>
-      <c r="PB28" s="0"/>
-      <c r="PC28" s="0"/>
-      <c r="PD28" s="0"/>
-      <c r="PE28" s="0"/>
-      <c r="PF28" s="0"/>
-      <c r="PG28" s="0"/>
-      <c r="PH28" s="0"/>
-      <c r="PI28" s="0"/>
-      <c r="PJ28" s="0"/>
-      <c r="PK28" s="0"/>
-      <c r="PL28" s="0"/>
-      <c r="PM28" s="0"/>
-      <c r="PN28" s="0"/>
-      <c r="PO28" s="0"/>
-      <c r="PP28" s="0"/>
-      <c r="PQ28" s="0"/>
-      <c r="PR28" s="0"/>
-      <c r="PS28" s="0"/>
-      <c r="PT28" s="0"/>
-      <c r="PU28" s="0"/>
-      <c r="PV28" s="0"/>
-      <c r="PW28" s="0"/>
-      <c r="PX28" s="0"/>
-      <c r="PY28" s="0"/>
-      <c r="PZ28" s="0"/>
-      <c r="QA28" s="0"/>
-      <c r="QB28" s="0"/>
-      <c r="QC28" s="0"/>
-      <c r="QD28" s="0"/>
-      <c r="QE28" s="0"/>
-      <c r="QF28" s="0"/>
-      <c r="QG28" s="0"/>
-      <c r="QH28" s="0"/>
-      <c r="QI28" s="0"/>
-      <c r="QJ28" s="0"/>
-      <c r="QK28" s="0"/>
-      <c r="QL28" s="0"/>
-      <c r="QM28" s="0"/>
-      <c r="QN28" s="0"/>
-      <c r="QO28" s="0"/>
-      <c r="QP28" s="0"/>
-      <c r="QQ28" s="0"/>
-      <c r="QR28" s="0"/>
-      <c r="QS28" s="0"/>
-      <c r="QT28" s="0"/>
-      <c r="QU28" s="0"/>
-      <c r="QV28" s="0"/>
-      <c r="QW28" s="0"/>
-      <c r="QX28" s="0"/>
-      <c r="QY28" s="0"/>
-      <c r="QZ28" s="0"/>
-      <c r="RA28" s="0"/>
-      <c r="RB28" s="0"/>
-      <c r="RC28" s="0"/>
-      <c r="RD28" s="0"/>
-      <c r="RE28" s="0"/>
-      <c r="RF28" s="0"/>
-      <c r="RG28" s="0"/>
-      <c r="RH28" s="0"/>
-      <c r="RI28" s="0"/>
-      <c r="RJ28" s="0"/>
-      <c r="RK28" s="0"/>
-      <c r="RL28" s="0"/>
-      <c r="RM28" s="0"/>
-      <c r="RN28" s="0"/>
-      <c r="RO28" s="0"/>
-      <c r="RP28" s="0"/>
-      <c r="RQ28" s="0"/>
-      <c r="RR28" s="0"/>
-      <c r="RS28" s="0"/>
-      <c r="RT28" s="0"/>
-      <c r="RU28" s="0"/>
-      <c r="RV28" s="0"/>
-      <c r="RW28" s="0"/>
-      <c r="RX28" s="0"/>
-      <c r="RY28" s="0"/>
-      <c r="RZ28" s="0"/>
-      <c r="SA28" s="0"/>
-      <c r="SB28" s="0"/>
-      <c r="SC28" s="0"/>
-      <c r="SD28" s="0"/>
-      <c r="SE28" s="0"/>
-      <c r="SF28" s="0"/>
-      <c r="SG28" s="0"/>
-      <c r="SH28" s="0"/>
-      <c r="SI28" s="0"/>
-      <c r="SJ28" s="0"/>
-      <c r="SK28" s="0"/>
-      <c r="SL28" s="0"/>
-      <c r="SM28" s="0"/>
-      <c r="SN28" s="0"/>
-      <c r="SO28" s="0"/>
-      <c r="SP28" s="0"/>
-      <c r="SQ28" s="0"/>
-      <c r="SR28" s="0"/>
-      <c r="SS28" s="0"/>
-      <c r="ST28" s="0"/>
-      <c r="SU28" s="0"/>
-      <c r="SV28" s="0"/>
-      <c r="SW28" s="0"/>
-      <c r="SX28" s="0"/>
-      <c r="SY28" s="0"/>
-      <c r="SZ28" s="0"/>
-      <c r="TA28" s="0"/>
-      <c r="TB28" s="0"/>
-      <c r="TC28" s="0"/>
-      <c r="TD28" s="0"/>
-      <c r="TE28" s="0"/>
-      <c r="TF28" s="0"/>
-      <c r="TG28" s="0"/>
-      <c r="TH28" s="0"/>
-      <c r="TI28" s="0"/>
-      <c r="TJ28" s="0"/>
-      <c r="TK28" s="0"/>
-      <c r="TL28" s="0"/>
-      <c r="TM28" s="0"/>
-      <c r="TN28" s="0"/>
-      <c r="TO28" s="0"/>
-      <c r="TP28" s="0"/>
-      <c r="TQ28" s="0"/>
-      <c r="TR28" s="0"/>
-      <c r="TS28" s="0"/>
-      <c r="TT28" s="0"/>
-      <c r="TU28" s="0"/>
-      <c r="TV28" s="0"/>
-      <c r="TW28" s="0"/>
-      <c r="TX28" s="0"/>
-      <c r="TY28" s="0"/>
-      <c r="TZ28" s="0"/>
-      <c r="UA28" s="0"/>
-      <c r="UB28" s="0"/>
-      <c r="UC28" s="0"/>
-      <c r="UD28" s="0"/>
-      <c r="UE28" s="0"/>
-      <c r="UF28" s="0"/>
-      <c r="UG28" s="0"/>
-      <c r="UH28" s="0"/>
-      <c r="UI28" s="0"/>
-      <c r="UJ28" s="0"/>
-      <c r="UK28" s="0"/>
-      <c r="UL28" s="0"/>
-      <c r="UM28" s="0"/>
-      <c r="UN28" s="0"/>
-      <c r="UO28" s="0"/>
-      <c r="UP28" s="0"/>
-      <c r="UQ28" s="0"/>
-      <c r="UR28" s="0"/>
-      <c r="US28" s="0"/>
-      <c r="UT28" s="0"/>
-      <c r="UU28" s="0"/>
-      <c r="UV28" s="0"/>
-      <c r="UW28" s="0"/>
-      <c r="UX28" s="0"/>
-      <c r="UY28" s="0"/>
-      <c r="UZ28" s="0"/>
-      <c r="VA28" s="0"/>
-      <c r="VB28" s="0"/>
-      <c r="VC28" s="0"/>
-      <c r="VD28" s="0"/>
-      <c r="VE28" s="0"/>
-      <c r="VF28" s="0"/>
-      <c r="VG28" s="0"/>
-      <c r="VH28" s="0"/>
-      <c r="VI28" s="0"/>
-      <c r="VJ28" s="0"/>
-      <c r="VK28" s="0"/>
-      <c r="VL28" s="0"/>
-      <c r="VM28" s="0"/>
-      <c r="VN28" s="0"/>
-      <c r="VO28" s="0"/>
-      <c r="VP28" s="0"/>
-      <c r="VQ28" s="0"/>
-      <c r="VR28" s="0"/>
-      <c r="VS28" s="0"/>
-      <c r="VT28" s="0"/>
-      <c r="VU28" s="0"/>
-      <c r="VV28" s="0"/>
-      <c r="VW28" s="0"/>
-      <c r="VX28" s="0"/>
-      <c r="VY28" s="0"/>
-      <c r="VZ28" s="0"/>
-      <c r="WA28" s="0"/>
-      <c r="WB28" s="0"/>
-      <c r="WC28" s="0"/>
-      <c r="WD28" s="0"/>
-      <c r="WE28" s="0"/>
-      <c r="WF28" s="0"/>
-      <c r="WG28" s="0"/>
-      <c r="WH28" s="0"/>
-      <c r="WI28" s="0"/>
-      <c r="WJ28" s="0"/>
-      <c r="WK28" s="0"/>
-      <c r="WL28" s="0"/>
-      <c r="WM28" s="0"/>
-      <c r="WN28" s="0"/>
-      <c r="WO28" s="0"/>
-      <c r="WP28" s="0"/>
-      <c r="WQ28" s="0"/>
-      <c r="WR28" s="0"/>
-      <c r="WS28" s="0"/>
-      <c r="WT28" s="0"/>
-      <c r="WU28" s="0"/>
-      <c r="WV28" s="0"/>
-      <c r="WW28" s="0"/>
-      <c r="WX28" s="0"/>
-      <c r="WY28" s="0"/>
-      <c r="WZ28" s="0"/>
-      <c r="XA28" s="0"/>
-      <c r="XB28" s="0"/>
-      <c r="XC28" s="0"/>
-      <c r="XD28" s="0"/>
-      <c r="XE28" s="0"/>
-      <c r="XF28" s="0"/>
-      <c r="XG28" s="0"/>
-      <c r="XH28" s="0"/>
-      <c r="XI28" s="0"/>
-      <c r="XJ28" s="0"/>
-      <c r="XK28" s="0"/>
-      <c r="XL28" s="0"/>
-      <c r="XM28" s="0"/>
-      <c r="XN28" s="0"/>
-      <c r="XO28" s="0"/>
-      <c r="XP28" s="0"/>
-      <c r="XQ28" s="0"/>
-      <c r="XR28" s="0"/>
-      <c r="XS28" s="0"/>
-      <c r="XT28" s="0"/>
-      <c r="XU28" s="0"/>
-      <c r="XV28" s="0"/>
-      <c r="XW28" s="0"/>
-      <c r="XX28" s="0"/>
-      <c r="XY28" s="0"/>
-      <c r="XZ28" s="0"/>
-      <c r="YA28" s="0"/>
-      <c r="YB28" s="0"/>
-      <c r="YC28" s="0"/>
-      <c r="YD28" s="0"/>
-      <c r="YE28" s="0"/>
-      <c r="YF28" s="0"/>
-      <c r="YG28" s="0"/>
-      <c r="YH28" s="0"/>
-      <c r="YI28" s="0"/>
-      <c r="YJ28" s="0"/>
-      <c r="YK28" s="0"/>
-      <c r="YL28" s="0"/>
-      <c r="YM28" s="0"/>
-      <c r="YN28" s="0"/>
-      <c r="YO28" s="0"/>
-      <c r="YP28" s="0"/>
-      <c r="YQ28" s="0"/>
-      <c r="YR28" s="0"/>
-      <c r="YS28" s="0"/>
-      <c r="YT28" s="0"/>
-      <c r="YU28" s="0"/>
-      <c r="YV28" s="0"/>
-      <c r="YW28" s="0"/>
-      <c r="YX28" s="0"/>
-      <c r="YY28" s="0"/>
-      <c r="YZ28" s="0"/>
-      <c r="ZA28" s="0"/>
-      <c r="ZB28" s="0"/>
-      <c r="ZC28" s="0"/>
-      <c r="ZD28" s="0"/>
-      <c r="ZE28" s="0"/>
-      <c r="ZF28" s="0"/>
-      <c r="ZG28" s="0"/>
-      <c r="ZH28" s="0"/>
-      <c r="ZI28" s="0"/>
-      <c r="ZJ28" s="0"/>
-      <c r="ZK28" s="0"/>
-      <c r="ZL28" s="0"/>
-      <c r="ZM28" s="0"/>
-      <c r="ZN28" s="0"/>
-      <c r="ZO28" s="0"/>
-      <c r="ZP28" s="0"/>
-      <c r="ZQ28" s="0"/>
-      <c r="ZR28" s="0"/>
-      <c r="ZS28" s="0"/>
-      <c r="ZT28" s="0"/>
-      <c r="ZU28" s="0"/>
-      <c r="ZV28" s="0"/>
-      <c r="ZW28" s="0"/>
-      <c r="ZX28" s="0"/>
-      <c r="ZY28" s="0"/>
-      <c r="ZZ28" s="0"/>
-      <c r="AAA28" s="0"/>
-      <c r="AAB28" s="0"/>
-      <c r="AAC28" s="0"/>
-      <c r="AAD28" s="0"/>
-      <c r="AAE28" s="0"/>
-      <c r="AAF28" s="0"/>
-      <c r="AAG28" s="0"/>
-      <c r="AAH28" s="0"/>
-      <c r="AAI28" s="0"/>
-      <c r="AAJ28" s="0"/>
-      <c r="AAK28" s="0"/>
-      <c r="AAL28" s="0"/>
-      <c r="AAM28" s="0"/>
-      <c r="AAN28" s="0"/>
-      <c r="AAO28" s="0"/>
-      <c r="AAP28" s="0"/>
-      <c r="AAQ28" s="0"/>
-      <c r="AAR28" s="0"/>
-      <c r="AAS28" s="0"/>
-      <c r="AAT28" s="0"/>
-      <c r="AAU28" s="0"/>
-      <c r="AAV28" s="0"/>
-      <c r="AAW28" s="0"/>
-      <c r="AAX28" s="0"/>
-      <c r="AAY28" s="0"/>
-      <c r="AAZ28" s="0"/>
-      <c r="ABA28" s="0"/>
-      <c r="ABB28" s="0"/>
-      <c r="ABC28" s="0"/>
-      <c r="ABD28" s="0"/>
-      <c r="ABE28" s="0"/>
-      <c r="ABF28" s="0"/>
-      <c r="ABG28" s="0"/>
-      <c r="ABH28" s="0"/>
-      <c r="ABI28" s="0"/>
-      <c r="ABJ28" s="0"/>
-      <c r="ABK28" s="0"/>
-      <c r="ABL28" s="0"/>
-      <c r="ABM28" s="0"/>
-      <c r="ABN28" s="0"/>
-      <c r="ABO28" s="0"/>
-      <c r="ABP28" s="0"/>
-      <c r="ABQ28" s="0"/>
-      <c r="ABR28" s="0"/>
-      <c r="ABS28" s="0"/>
-      <c r="ABT28" s="0"/>
-      <c r="ABU28" s="0"/>
-      <c r="ABV28" s="0"/>
-      <c r="ABW28" s="0"/>
-      <c r="ABX28" s="0"/>
-      <c r="ABY28" s="0"/>
-      <c r="ABZ28" s="0"/>
-      <c r="ACA28" s="0"/>
-      <c r="ACB28" s="0"/>
-      <c r="ACC28" s="0"/>
-      <c r="ACD28" s="0"/>
-      <c r="ACE28" s="0"/>
-      <c r="ACF28" s="0"/>
-      <c r="ACG28" s="0"/>
-      <c r="ACH28" s="0"/>
-      <c r="ACI28" s="0"/>
-      <c r="ACJ28" s="0"/>
-      <c r="ACK28" s="0"/>
-      <c r="ACL28" s="0"/>
-      <c r="ACM28" s="0"/>
-      <c r="ACN28" s="0"/>
-      <c r="ACO28" s="0"/>
-      <c r="ACP28" s="0"/>
-      <c r="ACQ28" s="0"/>
-      <c r="ACR28" s="0"/>
-      <c r="ACS28" s="0"/>
-      <c r="ACT28" s="0"/>
-      <c r="ACU28" s="0"/>
-      <c r="ACV28" s="0"/>
-      <c r="ACW28" s="0"/>
-      <c r="ACX28" s="0"/>
-      <c r="ACY28" s="0"/>
-      <c r="ACZ28" s="0"/>
-      <c r="ADA28" s="0"/>
-      <c r="ADB28" s="0"/>
-      <c r="ADC28" s="0"/>
-      <c r="ADD28" s="0"/>
-      <c r="ADE28" s="0"/>
-      <c r="ADF28" s="0"/>
-      <c r="ADG28" s="0"/>
-      <c r="ADH28" s="0"/>
-      <c r="ADI28" s="0"/>
-      <c r="ADJ28" s="0"/>
-      <c r="ADK28" s="0"/>
-      <c r="ADL28" s="0"/>
-      <c r="ADM28" s="0"/>
-      <c r="ADN28" s="0"/>
-      <c r="ADO28" s="0"/>
-      <c r="ADP28" s="0"/>
-      <c r="ADQ28" s="0"/>
-      <c r="ADR28" s="0"/>
-      <c r="ADS28" s="0"/>
-      <c r="ADT28" s="0"/>
-      <c r="ADU28" s="0"/>
-      <c r="ADV28" s="0"/>
-      <c r="ADW28" s="0"/>
-      <c r="ADX28" s="0"/>
-      <c r="ADY28" s="0"/>
-      <c r="ADZ28" s="0"/>
-      <c r="AEA28" s="0"/>
-      <c r="AEB28" s="0"/>
-      <c r="AEC28" s="0"/>
-      <c r="AED28" s="0"/>
-      <c r="AEE28" s="0"/>
-      <c r="AEF28" s="0"/>
-      <c r="AEG28" s="0"/>
-      <c r="AEH28" s="0"/>
-      <c r="AEI28" s="0"/>
-      <c r="AEJ28" s="0"/>
-      <c r="AEK28" s="0"/>
-      <c r="AEL28" s="0"/>
-      <c r="AEM28" s="0"/>
-      <c r="AEN28" s="0"/>
-      <c r="AEO28" s="0"/>
-      <c r="AEP28" s="0"/>
-      <c r="AEQ28" s="0"/>
-      <c r="AER28" s="0"/>
-      <c r="AES28" s="0"/>
-      <c r="AET28" s="0"/>
-      <c r="AEU28" s="0"/>
-      <c r="AEV28" s="0"/>
-      <c r="AEW28" s="0"/>
-      <c r="AEX28" s="0"/>
-      <c r="AEY28" s="0"/>
-      <c r="AEZ28" s="0"/>
-      <c r="AFA28" s="0"/>
-      <c r="AFB28" s="0"/>
-      <c r="AFC28" s="0"/>
-      <c r="AFD28" s="0"/>
-      <c r="AFE28" s="0"/>
-      <c r="AFF28" s="0"/>
-      <c r="AFG28" s="0"/>
-      <c r="AFH28" s="0"/>
-      <c r="AFI28" s="0"/>
-      <c r="AFJ28" s="0"/>
-      <c r="AFK28" s="0"/>
-      <c r="AFL28" s="0"/>
-      <c r="AFM28" s="0"/>
-      <c r="AFN28" s="0"/>
-      <c r="AFO28" s="0"/>
-      <c r="AFP28" s="0"/>
-      <c r="AFQ28" s="0"/>
-      <c r="AFR28" s="0"/>
-      <c r="AFS28" s="0"/>
-      <c r="AFT28" s="0"/>
-      <c r="AFU28" s="0"/>
-      <c r="AFV28" s="0"/>
-      <c r="AFW28" s="0"/>
-      <c r="AFX28" s="0"/>
-      <c r="AFY28" s="0"/>
-      <c r="AFZ28" s="0"/>
-      <c r="AGA28" s="0"/>
-      <c r="AGB28" s="0"/>
-      <c r="AGC28" s="0"/>
-      <c r="AGD28" s="0"/>
-      <c r="AGE28" s="0"/>
-      <c r="AGF28" s="0"/>
-      <c r="AGG28" s="0"/>
-      <c r="AGH28" s="0"/>
-      <c r="AGI28" s="0"/>
-      <c r="AGJ28" s="0"/>
-      <c r="AGK28" s="0"/>
-      <c r="AGL28" s="0"/>
-      <c r="AGM28" s="0"/>
-      <c r="AGN28" s="0"/>
-      <c r="AGO28" s="0"/>
-      <c r="AGP28" s="0"/>
-      <c r="AGQ28" s="0"/>
-      <c r="AGR28" s="0"/>
-      <c r="AGS28" s="0"/>
-      <c r="AGT28" s="0"/>
-      <c r="AGU28" s="0"/>
-      <c r="AGV28" s="0"/>
-      <c r="AGW28" s="0"/>
-      <c r="AGX28" s="0"/>
-      <c r="AGY28" s="0"/>
-      <c r="AGZ28" s="0"/>
-      <c r="AHA28" s="0"/>
-      <c r="AHB28" s="0"/>
-      <c r="AHC28" s="0"/>
-      <c r="AHD28" s="0"/>
-      <c r="AHE28" s="0"/>
-      <c r="AHF28" s="0"/>
-      <c r="AHG28" s="0"/>
-      <c r="AHH28" s="0"/>
-      <c r="AHI28" s="0"/>
-      <c r="AHJ28" s="0"/>
-      <c r="AHK28" s="0"/>
-      <c r="AHL28" s="0"/>
-      <c r="AHM28" s="0"/>
-      <c r="AHN28" s="0"/>
-      <c r="AHO28" s="0"/>
-      <c r="AHP28" s="0"/>
-      <c r="AHQ28" s="0"/>
-      <c r="AHR28" s="0"/>
-      <c r="AHS28" s="0"/>
-      <c r="AHT28" s="0"/>
-      <c r="AHU28" s="0"/>
-      <c r="AHV28" s="0"/>
-      <c r="AHW28" s="0"/>
-      <c r="AHX28" s="0"/>
-      <c r="AHY28" s="0"/>
-      <c r="AHZ28" s="0"/>
-      <c r="AIA28" s="0"/>
-      <c r="AIB28" s="0"/>
-      <c r="AIC28" s="0"/>
-      <c r="AID28" s="0"/>
-      <c r="AIE28" s="0"/>
-      <c r="AIF28" s="0"/>
-      <c r="AIG28" s="0"/>
-      <c r="AIH28" s="0"/>
-      <c r="AII28" s="0"/>
-      <c r="AIJ28" s="0"/>
-      <c r="AIK28" s="0"/>
-      <c r="AIL28" s="0"/>
-      <c r="AIM28" s="0"/>
-      <c r="AIN28" s="0"/>
-      <c r="AIO28" s="0"/>
-      <c r="AIP28" s="0"/>
-      <c r="AIQ28" s="0"/>
-      <c r="AIR28" s="0"/>
-      <c r="AIS28" s="0"/>
-      <c r="AIT28" s="0"/>
-      <c r="AIU28" s="0"/>
-      <c r="AIV28" s="0"/>
-      <c r="AIW28" s="0"/>
-      <c r="AIX28" s="0"/>
-      <c r="AIY28" s="0"/>
-      <c r="AIZ28" s="0"/>
-      <c r="AJA28" s="0"/>
-      <c r="AJB28" s="0"/>
-      <c r="AJC28" s="0"/>
-      <c r="AJD28" s="0"/>
-      <c r="AJE28" s="0"/>
-      <c r="AJF28" s="0"/>
-      <c r="AJG28" s="0"/>
-      <c r="AJH28" s="0"/>
-      <c r="AJI28" s="0"/>
-      <c r="AJJ28" s="0"/>
-      <c r="AJK28" s="0"/>
-      <c r="AJL28" s="0"/>
-      <c r="AJM28" s="0"/>
-      <c r="AJN28" s="0"/>
-      <c r="AJO28" s="0"/>
-      <c r="AJP28" s="0"/>
-      <c r="AJQ28" s="0"/>
-      <c r="AJR28" s="0"/>
-      <c r="AJS28" s="0"/>
-      <c r="AJT28" s="0"/>
-      <c r="AJU28" s="0"/>
-      <c r="AJV28" s="0"/>
-      <c r="AJW28" s="0"/>
-      <c r="AJX28" s="0"/>
-      <c r="AJY28" s="0"/>
-      <c r="AJZ28" s="0"/>
-      <c r="AKA28" s="0"/>
-      <c r="AKB28" s="0"/>
-      <c r="AKC28" s="0"/>
-      <c r="AKD28" s="0"/>
-      <c r="AKE28" s="0"/>
-      <c r="AKF28" s="0"/>
-      <c r="AKG28" s="0"/>
-      <c r="AKH28" s="0"/>
-      <c r="AKI28" s="0"/>
-      <c r="AKJ28" s="0"/>
-      <c r="AKK28" s="0"/>
-      <c r="AKL28" s="0"/>
-      <c r="AKM28" s="0"/>
-      <c r="AKN28" s="0"/>
-      <c r="AKO28" s="0"/>
-      <c r="AKP28" s="0"/>
-      <c r="AKQ28" s="0"/>
-      <c r="AKR28" s="0"/>
-      <c r="AKS28" s="0"/>
-      <c r="AKT28" s="0"/>
-      <c r="AKU28" s="0"/>
-      <c r="AKV28" s="0"/>
-      <c r="AKW28" s="0"/>
-      <c r="AKX28" s="0"/>
-      <c r="AKY28" s="0"/>
-      <c r="AKZ28" s="0"/>
-      <c r="ALA28" s="0"/>
-      <c r="ALB28" s="0"/>
-      <c r="ALC28" s="0"/>
-      <c r="ALD28" s="0"/>
-      <c r="ALE28" s="0"/>
-      <c r="ALF28" s="0"/>
-      <c r="ALG28" s="0"/>
-      <c r="ALH28" s="0"/>
-      <c r="ALI28" s="0"/>
-      <c r="ALJ28" s="0"/>
-      <c r="ALK28" s="0"/>
-      <c r="ALL28" s="0"/>
-      <c r="ALM28" s="0"/>
-      <c r="ALN28" s="0"/>
-      <c r="ALO28" s="0"/>
-      <c r="ALP28" s="0"/>
-      <c r="ALQ28" s="0"/>
-      <c r="ALR28" s="0"/>
-      <c r="ALS28" s="0"/>
-      <c r="ALT28" s="0"/>
-      <c r="ALU28" s="0"/>
-      <c r="ALV28" s="0"/>
-      <c r="ALW28" s="0"/>
-      <c r="ALX28" s="0"/>
-      <c r="ALY28" s="0"/>
-      <c r="ALZ28" s="0"/>
-      <c r="AMA28" s="0"/>
-      <c r="AMB28" s="0"/>
-      <c r="AMC28" s="0"/>
-      <c r="AMD28" s="0"/>
-      <c r="AME28" s="0"/>
-      <c r="AMF28" s="0"/>
-      <c r="AMG28" s="0"/>
-      <c r="AMH28" s="0"/>
-      <c r="AMI28" s="0"/>
-      <c r="AMJ28" s="0"/>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
     </row>
-    <row r="29" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="25"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="27"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="28" t="n">
+        <v>42662</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="25"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -29709,130 +25633,6 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="27"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="28" t="n">
-        <v>42662</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B5:N6"/>
@@ -29845,9 +25645,9 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0" right="0.39375" top="0" bottom="0" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29865,22 +25665,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30006,897 +25806,669 @@
       <c r="M8" s="7"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="33" t="n">
+    <row r="9" s="33" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="34" t="n">
         <v>42639</v>
       </c>
-      <c r="C9" s="34" t="n">
+      <c r="C9" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="35" t="n">
+      <c r="D9" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="34" t="n">
+      <c r="E9" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="35" t="n">
+      <c r="F9" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="34" t="n">
+      <c r="G9" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="35" t="n">
+      <c r="H9" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="34" t="n">
+      <c r="I9" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="35" t="n">
+      <c r="J9" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="K9" s="36" t="n">
+      <c r="K9" s="37" t="n">
+        <f aca="false">SUM(C9:J9)</f>
+        <v>8</v>
+      </c>
+      <c r="L9" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="39" t="n">
+        <f aca="false">(C9+E9+G9+I9)*$K$23+(D9+F9+H9+J9)*$K$23+K9*$H$23+L9*$E$23</f>
+        <v>479.99</v>
+      </c>
+      <c r="N9" s="40" t="n">
+        <f aca="false">M9</f>
+        <v>479.99</v>
+      </c>
+    </row>
+    <row r="10" s="33" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="34" t="n">
+        <v>42646</v>
+      </c>
+      <c r="C10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" s="37" t="n">
+        <f aca="false">SUM(C10:J10)</f>
+        <v>8</v>
+      </c>
+      <c r="L10" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="39" t="n">
+        <f aca="false">(C10+E10+G10+I10)*$K$23+(D10+F10+H10+J10)*$K$23+K10*$H$23+L10*$E$23</f>
+        <v>479.99</v>
+      </c>
+      <c r="N10" s="40" t="n">
+        <f aca="false">N9+M10</f>
+        <v>959.98</v>
+      </c>
+    </row>
+    <row r="11" s="33" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="34" t="n">
+        <v>42653</v>
+      </c>
+      <c r="C11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" s="37" t="n">
+        <f aca="false">SUM(C11:J11)</f>
+        <v>10</v>
+      </c>
+      <c r="L11" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="39" t="n">
+        <f aca="false">(C11+E11+G11+I11)*$K$23+(D11+F11+H11+J11)*$K$23+K11*$H$23+L11*$E$23</f>
+        <v>599.9875</v>
+      </c>
+      <c r="N11" s="40" t="n">
+        <f aca="false">N10+M11</f>
+        <v>1559.9675</v>
+      </c>
+    </row>
+    <row r="12" s="33" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="34" t="n">
+        <v>42660</v>
+      </c>
+      <c r="C12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="L9" s="37" t="n">
+      <c r="G12" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="38" t="n">
-        <f aca="false">(C9+E9+G9+I9)*$K$27+(D9+F9+H9+J9)*$K$27+K9*$H$27+L9*$E$27</f>
-        <v>439.99</v>
-      </c>
-      <c r="N9" s="39" t="n">
-        <f aca="false">M9</f>
-        <v>439.99</v>
+      <c r="H12" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" s="37" t="n">
+        <f aca="false">SUM(C12:J12)</f>
+        <v>18</v>
+      </c>
+      <c r="L12" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="39" t="n">
+        <f aca="false">(C12+E12+G12+I12)*$K$23+(D12+F12+H12+J12)*$K$23+K12*$H$23+L12*$E$23</f>
+        <v>1079.9775</v>
+      </c>
+      <c r="N12" s="40" t="n">
+        <f aca="false">N11+M12</f>
+        <v>2639.945</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="33" t="n">
-        <v>42646</v>
-      </c>
-      <c r="C10" s="34" t="n">
+    <row r="13" s="33" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="34" t="n">
+        <v>42667</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37" t="n">
+        <f aca="false">SUM(C13:J13)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="34" t="n">
+      <c r="L13" s="38"/>
+      <c r="M13" s="39" t="n">
+        <f aca="false">(C13+E13+G13+I13)*$K$23+(D13+F13+H13+J13)*$K$23+K13*$H$23+L13*$E$23</f>
         <v>0</v>
       </c>
-      <c r="F10" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="34" t="n">
+      <c r="N13" s="40" t="n">
+        <f aca="false">N12+M13</f>
+        <v>2639.945</v>
+      </c>
+    </row>
+    <row r="14" s="33" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="34" t="n">
+        <v>42674</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37" t="n">
+        <f aca="false">SUM(C14:J14)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="34" t="n">
+      <c r="L14" s="38"/>
+      <c r="M14" s="39" t="n">
+        <f aca="false">(C14+E14+G14+I14)*$K$23+(D14+F14+H14+J14)*$K$23+K14*$H$23+L14*$E$23</f>
         <v>0</v>
       </c>
-      <c r="J10" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" s="36" t="n">
-        <v>4</v>
-      </c>
-      <c r="L10" s="37" t="n">
+      <c r="N14" s="40" t="n">
+        <f aca="false">N13+M14</f>
+        <v>2639.945</v>
+      </c>
+    </row>
+    <row r="15" s="33" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="34" t="n">
+        <v>42681</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37" t="n">
+        <f aca="false">SUM(C15:J15)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="38" t="n">
-        <f aca="false">(C10+E10+G10+I10)*$K$27+(D10+F10+H10+J10)*$K$27+K10*$H$27+L10*$E$27</f>
-        <v>439.99</v>
-      </c>
-      <c r="N10" s="39" t="n">
-        <f aca="false">N9+M10</f>
-        <v>879.98</v>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39" t="n">
+        <f aca="false">(C15+E15+G15+I15)*$K$23+(D15+F15+H15+J15)*$K$23+K15*$H$23+L15*$E$23</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="40" t="n">
+        <f aca="false">N14+M15</f>
+        <v>2639.945</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="33" t="n">
-        <v>42653</v>
-      </c>
-      <c r="C11" s="34" t="n">
+    <row r="16" s="33" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="34" t="n">
+        <v>42688</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37" t="n">
+        <f aca="false">SUM(C16:J16)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="34" t="n">
+      <c r="L16" s="38"/>
+      <c r="M16" s="39" t="n">
+        <f aca="false">(C16+E16+G16+I16)*$K$23+(D16+F16+H16+J16)*$K$23+K16*$H$23+L16*$E$23</f>
         <v>0</v>
       </c>
-      <c r="F11" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="34" t="n">
+      <c r="N16" s="40" t="n">
+        <f aca="false">N15+M16</f>
+        <v>2639.945</v>
+      </c>
+    </row>
+    <row r="17" s="33" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="34" t="n">
+        <v>42695</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37" t="n">
+        <f aca="false">SUM(C17:J17)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" s="34" t="n">
+      <c r="L17" s="38"/>
+      <c r="M17" s="39" t="n">
+        <f aca="false">(C17+E17+G17+I17)*$K$23+(D17+F17+H17+J17)*$K$23+K17*$H$23+L17*$E$23</f>
         <v>0</v>
       </c>
-      <c r="J11" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" s="37" t="n">
+      <c r="N17" s="40" t="n">
+        <f aca="false">N16+M17</f>
+        <v>2639.945</v>
+      </c>
+    </row>
+    <row r="18" s="33" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="34" t="n">
+        <v>42702</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37" t="n">
+        <f aca="false">SUM(C18:J18)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="38" t="n">
-        <f aca="false">(C11+E11+G11+I11)*$K$27+(D11+F11+H11+J11)*$K$27+K11*$H$27+L11*$E$27</f>
-        <v>549.9875</v>
-      </c>
-      <c r="N11" s="39" t="n">
-        <f aca="false">N10+M11</f>
-        <v>1429.9675</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="33" t="n">
-        <v>42660</v>
-      </c>
-      <c r="C12" s="34" t="n">
+      <c r="L18" s="38"/>
+      <c r="M18" s="39" t="n">
+        <f aca="false">(C18+E18+G18+I18)*$K$23+(D18+F18+H18+J18)*$K$23+K18*$H$23+L18*$E$23</f>
         <v>0</v>
       </c>
-      <c r="D12" s="35" t="n">
-        <v>6</v>
-      </c>
-      <c r="E12" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="35" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="35" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="35" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" s="36" t="n">
-        <v>18</v>
-      </c>
-      <c r="L12" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="38" t="n">
-        <f aca="false">(C12+E12+G12+I12)*$K$27+(D12+F12+H12+J12)*$K$27+K12*$H$27+L12*$E$27</f>
-        <v>1079.9775</v>
-      </c>
-      <c r="N12" s="39" t="n">
-        <f aca="false">N11+M12</f>
-        <v>2509.945</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="40" t="n">
-        <v>42667</v>
-      </c>
-      <c r="C13" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!C13</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!D13</f>
-        <v>4</v>
-      </c>
-      <c r="E13" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!E13</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!F13</f>
-        <v>4</v>
-      </c>
-      <c r="G13" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!G13</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!H13</f>
-        <v>4</v>
-      </c>
-      <c r="I13" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!I13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!J13</f>
-        <v>4</v>
-      </c>
-      <c r="K13" s="43" t="n">
-        <v>16</v>
-      </c>
-      <c r="L13" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="38" t="n">
-        <f aca="false">(C13+E13+G13+I13)*$K$27+(D13+F13+H13+J13)*$K$27+K13*$H$27+L13*$E$27</f>
-        <v>1059.98</v>
-      </c>
-      <c r="N13" s="45" t="n">
-        <f aca="false">N12+M13</f>
-        <v>3569.925</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="40" t="n">
-        <v>42674</v>
-      </c>
-      <c r="C14" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!C14</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!D14</f>
-        <v>4</v>
-      </c>
-      <c r="E14" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!E14</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!F14</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!G14</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!H14</f>
-        <v>4</v>
-      </c>
-      <c r="I14" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!I14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!J14</f>
-        <v>4</v>
-      </c>
-      <c r="K14" s="43" t="n">
-        <v>16</v>
-      </c>
-      <c r="L14" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="38" t="n">
-        <f aca="false">(C14+E14+G14+I14)*$K$27+(D14+F14+H14+J14)*$K$27+K14*$H$27+L14*$E$27</f>
-        <v>959.98</v>
-      </c>
-      <c r="N14" s="45" t="n">
-        <f aca="false">N13+M14</f>
-        <v>4529.905</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="40" t="n">
-        <v>42681</v>
-      </c>
-      <c r="C15" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!C15</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!D15</f>
-        <v>4</v>
-      </c>
-      <c r="E15" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!E15</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!F15</f>
-        <v>4</v>
-      </c>
-      <c r="G15" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!G15</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!H15</f>
-        <v>4</v>
-      </c>
-      <c r="I15" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!I15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!J15</f>
-        <v>4</v>
-      </c>
-      <c r="K15" s="43" t="n">
-        <v>14</v>
-      </c>
-      <c r="L15" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="38" t="n">
-        <f aca="false">(C15+E15+G15+I15)*$K$27+(D15+F15+H15+J15)*$K$27+K15*$H$27+L15*$E$27</f>
-        <v>939.98</v>
-      </c>
-      <c r="N15" s="45" t="n">
-        <f aca="false">N14+M15</f>
-        <v>5469.885</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="40" t="n">
-        <v>42688</v>
-      </c>
-      <c r="C16" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!C16</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!D16</f>
-        <v>4</v>
-      </c>
-      <c r="E16" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!E16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!F16</f>
-        <v>4</v>
-      </c>
-      <c r="G16" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!G16</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!H16</f>
-        <v>4</v>
-      </c>
-      <c r="I16" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!I16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!J16</f>
-        <v>4</v>
-      </c>
-      <c r="K16" s="43" t="n">
-        <v>14</v>
-      </c>
-      <c r="L16" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="38" t="n">
-        <f aca="false">(C16+E16+G16+I16)*$K$27+(D16+F16+H16+J16)*$K$27+K16*$H$27+L16*$E$27</f>
-        <v>939.98</v>
-      </c>
-      <c r="N16" s="45" t="n">
-        <f aca="false">N15+M16</f>
-        <v>6409.865</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="40" t="n">
-        <v>42695</v>
-      </c>
-      <c r="C17" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!C17</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!D17</f>
-        <v>4</v>
-      </c>
-      <c r="E17" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!E17</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!F17</f>
-        <v>4</v>
-      </c>
-      <c r="G17" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!H17</f>
-        <v>4</v>
-      </c>
-      <c r="I17" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!I17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!J17</f>
-        <v>4</v>
-      </c>
-      <c r="K17" s="43" t="n">
-        <v>16</v>
-      </c>
-      <c r="L17" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="38" t="n">
-        <f aca="false">(C17+E17+G17+I17)*$K$27+(D17+F17+H17+J17)*$K$27+K17*$H$27+L17*$E$27</f>
-        <v>1059.98</v>
-      </c>
-      <c r="N17" s="45" t="n">
-        <f aca="false">N16+M17</f>
-        <v>7469.845</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="40" t="n">
-        <v>42702</v>
-      </c>
-      <c r="C18" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!C18</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!D18</f>
-        <v>4</v>
-      </c>
-      <c r="E18" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!E18</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!F18</f>
-        <v>4</v>
-      </c>
-      <c r="G18" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!G18</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!H18</f>
-        <v>4</v>
-      </c>
-      <c r="I18" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!I18</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!J18</f>
-        <v>4</v>
-      </c>
-      <c r="K18" s="43" t="n">
-        <v>16</v>
-      </c>
-      <c r="L18" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="38" t="n">
-        <f aca="false">(C18+E18+G18+I18)*$K$27+(D18+F18+H18+J18)*$K$27+K18*$H$27+L18*$E$27</f>
-        <v>959.98</v>
-      </c>
-      <c r="N18" s="45" t="n">
+      <c r="N18" s="40" t="n">
         <f aca="false">N17+M18</f>
-        <v>8429.825</v>
+        <v>2639.945</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="40" t="n">
+      <c r="B19" s="41" t="n">
         <v>42709</v>
       </c>
-      <c r="C19" s="41" t="n">
+      <c r="C19" s="42" t="n">
         <f aca="false">'Prix de revient initial S3'!C19</f>
         <v>0</v>
       </c>
-      <c r="D19" s="42" t="n">
+      <c r="D19" s="43" t="n">
         <f aca="false">'Prix de revient initial S3'!D19</f>
-        <v>4</v>
-      </c>
-      <c r="E19" s="41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E19" s="42" t="n">
         <f aca="false">'Prix de revient initial S3'!E19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="42" t="n">
+      <c r="F19" s="43" t="n">
         <f aca="false">'Prix de revient initial S3'!F19</f>
-        <v>4</v>
-      </c>
-      <c r="G19" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="42" t="n">
         <f aca="false">'Prix de revient initial S3'!G19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="42" t="n">
+      <c r="H19" s="43" t="n">
         <f aca="false">'Prix de revient initial S3'!H19</f>
-        <v>4</v>
-      </c>
-      <c r="I19" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="42" t="n">
         <f aca="false">'Prix de revient initial S3'!I19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="42" t="n">
+      <c r="J19" s="43" t="n">
         <f aca="false">'Prix de revient initial S3'!J19</f>
-        <v>4</v>
-      </c>
-      <c r="K19" s="43" t="n">
-        <v>14</v>
-      </c>
-      <c r="L19" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" s="44" t="n">
+        <f aca="false">SUM(C19:J19)</f>
+        <v>8.5</v>
+      </c>
+      <c r="L19" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="M19" s="38" t="n">
-        <f aca="false">(C19+E19+G19+I19)*$K$27+(D19+F19+H19+J19)*$K$27+K19*$H$27+L19*$E$27</f>
-        <v>939.98</v>
-      </c>
-      <c r="N19" s="45" t="n">
+      <c r="M19" s="39" t="n">
+        <f aca="false">(C19+E19+G19+I19)*$K$23+(D19+F19+H19+J19)*$K$23+K19*$H$23+L19*$E$23</f>
+        <v>509.989375</v>
+      </c>
+      <c r="N19" s="46" t="n">
         <f aca="false">N18+M19</f>
-        <v>9369.805</v>
+        <v>3149.934375</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="40" t="n">
+      <c r="B20" s="41" t="n">
         <v>42716</v>
       </c>
-      <c r="C20" s="41" t="n">
+      <c r="C20" s="42" t="n">
         <f aca="false">'Prix de revient initial S3'!C20</f>
         <v>0</v>
       </c>
-      <c r="D20" s="42" t="n">
+      <c r="D20" s="43" t="n">
         <f aca="false">'Prix de revient initial S3'!D20</f>
-        <v>4</v>
-      </c>
-      <c r="E20" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="42" t="n">
         <f aca="false">'Prix de revient initial S3'!E20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="42" t="n">
+      <c r="F20" s="43" t="n">
         <f aca="false">'Prix de revient initial S3'!F20</f>
-        <v>4</v>
-      </c>
-      <c r="G20" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="42" t="n">
         <f aca="false">'Prix de revient initial S3'!G20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="42" t="n">
+      <c r="H20" s="43" t="n">
         <f aca="false">'Prix de revient initial S3'!H20</f>
-        <v>4</v>
-      </c>
-      <c r="I20" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="42" t="n">
         <f aca="false">'Prix de revient initial S3'!I20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="42" t="n">
+      <c r="J20" s="43" t="n">
         <f aca="false">'Prix de revient initial S3'!J20</f>
-        <v>4</v>
-      </c>
-      <c r="K20" s="43" t="n">
-        <v>16</v>
-      </c>
-      <c r="L20" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" s="44" t="n">
+        <f aca="false">SUM(C20:J20)</f>
+        <v>8</v>
+      </c>
+      <c r="L20" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="M20" s="38" t="n">
-        <f aca="false">(C20+E20+G20+I20)*$K$27+(D20+F20+H20+J20)*$K$27+K20*$H$27+L20*$E$27</f>
-        <v>1059.98</v>
-      </c>
-      <c r="N20" s="45" t="n">
+      <c r="M20" s="39" t="n">
+        <f aca="false">(C20+E20+G20+I20)*$K$23+(D20+F20+H20+J20)*$K$23+K20*$H$23+L20*$E$23</f>
+        <v>579.99</v>
+      </c>
+      <c r="N20" s="46" t="n">
         <f aca="false">N19+M20</f>
-        <v>10429.785</v>
+        <v>3729.924375</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="40" t="n">
-        <v>42723</v>
-      </c>
-      <c r="C21" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!C21</f>
+      <c r="B21" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="19" t="n">
+        <f aca="false">SUM(C9:C20)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!D21</f>
-        <v>4</v>
-      </c>
-      <c r="E21" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!E21</f>
+      <c r="D21" s="19" t="n">
+        <f aca="false">SUM(D9:D20)</f>
+        <v>16.5</v>
+      </c>
+      <c r="E21" s="19" t="n">
+        <f aca="false">SUM(E9:E20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!F21</f>
-        <v>4</v>
-      </c>
-      <c r="G21" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!G21</f>
+      <c r="F21" s="19" t="n">
+        <f aca="false">SUM(F9:F20)</f>
+        <v>14</v>
+      </c>
+      <c r="G21" s="19" t="n">
+        <f aca="false">SUM(G9:G20)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!H21</f>
-        <v>4</v>
-      </c>
-      <c r="I21" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!I21</f>
+      <c r="H21" s="19" t="n">
+        <f aca="false">SUM(H9:H20)</f>
+        <v>15</v>
+      </c>
+      <c r="I21" s="19" t="n">
+        <f aca="false">SUM(I9:I20)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!J21</f>
-        <v>4</v>
-      </c>
-      <c r="K21" s="43" t="n">
-        <v>16</v>
-      </c>
-      <c r="L21" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="38" t="n">
-        <f aca="false">(C21+E21+G21+I21)*$K$27+(D21+F21+H21+J21)*$K$27+K21*$H$27+L21*$E$27</f>
-        <v>959.98</v>
-      </c>
-      <c r="N21" s="45" t="n">
-        <f aca="false">N20+M21</f>
-        <v>11389.765</v>
+      <c r="J21" s="19" t="n">
+        <f aca="false">SUM(J9:J20)</f>
+        <v>15</v>
+      </c>
+      <c r="K21" s="19" t="n">
+        <f aca="false">SUM(K9:K20)</f>
+        <v>60.5</v>
+      </c>
+      <c r="L21" s="19" t="n">
+        <f aca="false">SUM(L9:L20)</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="20"/>
+      <c r="N21" s="48" t="n">
+        <f aca="false">N20</f>
+        <v>3729.924375</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="40" t="n">
-        <v>42730</v>
-      </c>
-      <c r="C22" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!C22</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!D22</f>
-        <v>6</v>
-      </c>
-      <c r="E22" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!E22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!F22</f>
-        <v>6</v>
-      </c>
-      <c r="G22" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!G22</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!H22</f>
-        <v>6</v>
-      </c>
-      <c r="I22" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!I22</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!J22</f>
-        <v>6</v>
-      </c>
-      <c r="K22" s="43" t="n">
-        <v>14</v>
-      </c>
-      <c r="L22" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="38" t="n">
-        <f aca="false">(C22+E22+G22+I22)*$K$27+(D22+F22+H22+J22)*$K$27+K22*$H$27+L22*$E$27</f>
-        <v>1339.97</v>
-      </c>
-      <c r="N22" s="45" t="n">
-        <f aca="false">N21+M22</f>
-        <v>12729.735</v>
-      </c>
+    <row r="22" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="40" t="n">
-        <v>42737</v>
-      </c>
-      <c r="C23" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!C23</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!D23</f>
-        <v>6</v>
-      </c>
-      <c r="E23" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!E23</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!F23</f>
-        <v>6</v>
-      </c>
-      <c r="G23" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!G23</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!H23</f>
-        <v>6</v>
-      </c>
-      <c r="I23" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!I23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!J23</f>
-        <v>6</v>
-      </c>
-      <c r="K23" s="43" t="n">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="38" t="n">
-        <f aca="false">(C23+E23+G23+I23)*$K$27+(D23+F23+H23+J23)*$K$27+K23*$H$27+L23*$E$27</f>
-        <v>1459.97</v>
-      </c>
-      <c r="N23" s="45" t="n">
-        <f aca="false">N22+M23</f>
-        <v>14189.705</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="40" t="n">
-        <v>42744</v>
-      </c>
-      <c r="C24" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!C24</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!D24</f>
-        <v>6</v>
-      </c>
-      <c r="E24" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!E24</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!F24</f>
-        <v>6</v>
-      </c>
-      <c r="G24" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!G24</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!H24</f>
-        <v>6</v>
-      </c>
-      <c r="I24" s="41" t="n">
-        <f aca="false">'Prix de revient initial S3'!I24</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="42" t="n">
-        <f aca="false">'Prix de revient initial S3'!J24</f>
-        <v>6</v>
-      </c>
-      <c r="K24" s="43" t="n">
-        <v>14</v>
-      </c>
-      <c r="L24" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="38" t="n">
-        <f aca="false">(C24+E24+G24+I24)*$K$27+(D24+F24+H24+J24)*$K$27+K24*$H$27+L24*$E$27</f>
-        <v>1339.97</v>
-      </c>
-      <c r="N24" s="45" t="n">
-        <f aca="false">N23+M24</f>
-        <v>15529.675</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="19" t="n">
-        <f aca="false">SUM(C9:C24)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="19" t="n">
-        <f aca="false">SUM(D9:D24)</f>
-        <v>66</v>
-      </c>
-      <c r="E25" s="19" t="n">
-        <f aca="false">SUM(E9:E24)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="19" t="n">
-        <f aca="false">SUM(F9:F24)</f>
-        <v>64</v>
-      </c>
-      <c r="G25" s="19" t="n">
-        <f aca="false">SUM(G9:G24)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="19" t="n">
-        <f aca="false">SUM(H9:H24)</f>
-        <v>65</v>
-      </c>
-      <c r="I25" s="19" t="n">
-        <f aca="false">SUM(I9:I24)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="19" t="n">
-        <f aca="false">SUM(J9:J24)</f>
-        <v>65</v>
-      </c>
-      <c r="K25" s="19" t="n">
-        <f aca="false">SUM(K9:K24)</f>
-        <v>213</v>
-      </c>
-      <c r="L25" s="19" t="n">
-        <f aca="false">SUM(L9:L24)</f>
-        <v>4</v>
-      </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="47" t="n">
-        <f aca="false">N24</f>
-        <v>15529.675</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23" t="n">
-        <v>100</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="24" t="n">
+      <c r="J23" s="22"/>
+      <c r="K23" s="24" t="n">
         <f aca="false">'Taux horaire d''un technicien'!E15</f>
         <v>49.99875</v>
       </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="F28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
     </row>
-    <row r="29" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="25"/>
+      <c r="F29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="28" t="n">
+        <v>42662</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="25"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -30912,126 +26484,6 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-      <c r="F32" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-      <c r="F33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="28" t="n">
-        <v>42662</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B5:N6"/>
@@ -31044,9 +26496,9 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -31066,29 +26518,29 @@
   </sheetPr>
   <dimension ref="B1:R35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="10" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="14" min="10" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="48"/>
+      <c r="E1" s="49"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="4" t="s">
@@ -31123,7 +26575,7 @@
       <c r="B4" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="49"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="19" t="s">
         <v>24</v>
       </c>
@@ -31171,53 +26623,53 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="51" t="n">
+      <c r="D7" s="52" t="n">
         <v>15279.68</v>
       </c>
-      <c r="E7" s="51" t="n">
+      <c r="E7" s="52" t="n">
         <v>15279.68</v>
       </c>
-      <c r="F7" s="51" t="n">
+      <c r="F7" s="52" t="n">
         <v>15279.68</v>
       </c>
-      <c r="G7" s="51" t="n">
+      <c r="G7" s="52" t="n">
         <v>15529.68</v>
       </c>
-      <c r="H7" s="51" t="n">
+      <c r="H7" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="51" t="n">
+      <c r="I7" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="51" t="n">
+      <c r="J7" s="52" t="n">
         <f aca="false">+[1]'prix de revient à jour'!N24</f>
         <v>0</v>
       </c>
-      <c r="K7" s="51" t="n">
+      <c r="K7" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="51" t="n">
+      <c r="L7" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="51" t="n">
+      <c r="M7" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="51" t="n">
+      <c r="N7" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="51" t="n">
+      <c r="O7" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="51" t="n">
+      <c r="P7" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="51" t="n">
+      <c r="Q7" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="51" t="n">
+      <c r="R7" s="52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31278,22 +26730,22 @@
   </sheetPr>
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="49" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="49" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="49" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="49" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="49" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="49" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="49" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="50" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="50" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="50" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="50" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="50" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="50" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="50" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="50" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="50" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="50" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31334,36 +26786,36 @@
       <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="50" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="0"/>
-      <c r="E7" s="54" t="n">
+      <c r="E7" s="55" t="n">
         <v>3000</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="50" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="0"/>
@@ -31380,18 +26832,18 @@
       <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="50" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="0"/>
-      <c r="E9" s="54" t="n">
+      <c r="E9" s="55" t="n">
         <f aca="false">E7+G9*E7</f>
         <v>4500</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="55" t="n">
+      <c r="G9" s="56" t="n">
         <v>0.5</v>
       </c>
       <c r="H9" s="0"/>
@@ -31407,18 +26859,18 @@
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="50" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="0"/>
-      <c r="E11" s="54" t="n">
+      <c r="E11" s="55" t="n">
         <f aca="false">E9+E9*G11</f>
         <v>5999.85</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="56" t="n">
+      <c r="G11" s="57" t="n">
         <v>0.3333</v>
       </c>
       <c r="H11" s="0"/>
@@ -31434,14 +26886,14 @@
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="50" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="0"/>
-      <c r="E13" s="49" t="n">
+      <c r="E13" s="50" t="n">
         <v>120</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="50" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="0"/>
@@ -31458,15 +26910,15 @@
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="50" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="57" t="n">
+      <c r="E15" s="58" t="n">
         <f aca="false">E11/E13</f>
         <v>49.99875</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="50" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="0"/>

--- a/doc/Gestion des coûts/Gestion des coûts Projet S3.xlsx
+++ b/doc/Gestion des coûts/Gestion des coûts Projet S3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prix de revient initial S3" sheetId="1" state="visible" r:id="rId2"/>
@@ -701,7 +701,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -751,10 +751,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0692378895402654"/>
-          <c:y val="0.130197802197802"/>
-          <c:w val="0.788799753162604"/>
-          <c:h val="0.794989010989011"/>
+          <c:x val="0.0692281282187334"/>
+          <c:y val="0.130209249164762"/>
+          <c:w val="0.788788663815974"/>
+          <c:h val="0.794883066643221"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -850,11 +850,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="30492875"/>
-        <c:axId val="30909454"/>
+        <c:axId val="72066296"/>
+        <c:axId val="91058976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30492875"/>
+        <c:axId val="72066296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -892,14 +892,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30909454"/>
+        <c:crossAx val="91058976"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30909454"/>
+        <c:axId val="91058976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -946,7 +946,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30492875"/>
+        <c:crossAx val="72066296"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -994,9 +994,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
+      <xdr:colOff>178560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>119160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1009,8 +1009,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14765760" y="360"/>
-          <a:ext cx="529200" cy="690480"/>
+          <a:off x="14546520" y="360"/>
+          <a:ext cx="509760" cy="690120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1031,9 +1031,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1357920</xdr:colOff>
+      <xdr:colOff>1357560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1046,8 +1046,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1136520" y="0"/>
-          <a:ext cx="1183320" cy="649080"/>
+          <a:off x="1117440" y="0"/>
+          <a:ext cx="1182960" cy="648720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1073,9 +1073,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>461880</xdr:colOff>
+      <xdr:colOff>461520</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1088,8 +1088,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9556920" y="10440"/>
-          <a:ext cx="801360" cy="690480"/>
+          <a:off x="9452160" y="10440"/>
+          <a:ext cx="791280" cy="690120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1110,9 +1110,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>493560</xdr:colOff>
+      <xdr:colOff>493200</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1121,7 +1121,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="456120" y="1815480"/>
-        <a:ext cx="11667240" cy="4094640"/>
+        <a:ext cx="11533680" cy="4094280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1151,8 +1151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1123920" y="2716200"/>
-          <a:ext cx="9291240" cy="17640"/>
+          <a:off x="1114200" y="2716200"/>
+          <a:ext cx="9186480" cy="17640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1185,9 +1185,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1201680</xdr:colOff>
+      <xdr:colOff>1201320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1200,8 +1200,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="858240" y="0"/>
-          <a:ext cx="1181520" cy="649080"/>
+          <a:off x="848520" y="0"/>
+          <a:ext cx="1181160" cy="648720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1222,9 +1222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>756360</xdr:colOff>
+      <xdr:colOff>756000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1234,7 +1234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="610920" y="2703600"/>
-          <a:ext cx="983520" cy="200880"/>
+          <a:ext cx="973440" cy="200520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1297,9 +1297,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>68400</xdr:colOff>
+      <xdr:colOff>68040</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1312,8 +1312,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9749160" y="10800"/>
-          <a:ext cx="748800" cy="690480"/>
+          <a:off x="9596880" y="10800"/>
+          <a:ext cx="739080" cy="690120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1334,9 +1334,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
+      <xdr:colOff>265320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1349,8 +1349,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1303200" y="0"/>
-          <a:ext cx="1029240" cy="649080"/>
+          <a:off x="1293480" y="0"/>
+          <a:ext cx="1010160" cy="648720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,15 +1373,18 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,18 +2316,18 @@
   </sheetPr>
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3265,18 +3268,18 @@
   </sheetPr>
   <dimension ref="B1:R35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="15" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="4" style="0" width="12.1479591836735"/>
     <col collapsed="false" hidden="false" max="18" min="16" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,15 +3466,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="43" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="43" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="43" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="43" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="43" width="7.96428571428571"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="43" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="43" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="43" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
